--- a/groups/22-23/codeforces_results.xlsx
+++ b/groups/22-23/codeforces_results.xlsx
@@ -22,6 +22,21 @@
     <t>№</t>
   </si>
   <si>
+    <t>Шестаков Вячеслав</t>
+  </si>
+  <si>
+    <t>Трегубович Андрей</t>
+  </si>
+  <si>
+    <t>Медведев Александр</t>
+  </si>
+  <si>
+    <t>Коляда Вадим</t>
+  </si>
+  <si>
+    <t>Ченченко Даниил</t>
+  </si>
+  <si>
     <t>Поддубецкий Антон</t>
   </si>
   <si>
@@ -52,22 +67,22 @@
     <t>Урцегов Артём</t>
   </si>
   <si>
-    <t>Ченченко Даниил</t>
-  </si>
-  <si>
-    <t>Коляда Вадим</t>
-  </si>
-  <si>
-    <t>Медведев Александр</t>
-  </si>
-  <si>
-    <t>Трегубович Андрей</t>
-  </si>
-  <si>
-    <t>Шестаков Вячеслав</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>Хендл</t>
+  </si>
+  <si>
+    <t>slavashestakov2005</t>
+  </si>
+  <si>
+    <t>AndreBc</t>
+  </si>
+  <si>
+    <t>Sasha_Medvedev</t>
+  </si>
+  <si>
+    <t>Vadlm</t>
+  </si>
+  <si>
+    <t>pchelka12</t>
   </si>
   <si>
     <t>a_ntony</t>
@@ -98,21 +113,6 @@
   </si>
   <si>
     <t>AbramovichLinkoln</t>
-  </si>
-  <si>
-    <t>pchelka12</t>
-  </si>
-  <si>
-    <t>Vadlm</t>
-  </si>
-  <si>
-    <t>Sasha_Medvedev</t>
-  </si>
-  <si>
-    <t>AndreBc</t>
-  </si>
-  <si>
-    <t>slavashestakov2005</t>
   </si>
   <si>
     <t>Рейтинг</t>
@@ -2269,19 +2269,19 @@
         <v>32</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1742</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1431</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2299,19 +2299,19 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1431</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2319,49 +2319,49 @@
         <v>33</v>
       </c>
       <c r="B4">
+        <v>679</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>101</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
         <v>45</v>
       </c>
-      <c r="C4">
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="I4">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="J4">
         <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>13</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="P4">
-        <v>679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2369,49 +2369,49 @@
         <v>34</v>
       </c>
       <c r="B5">
+        <v>457</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
         <v>11</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2419,56 +2419,56 @@
         <v>35</v>
       </c>
       <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="J6">
         <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>2</v>
       </c>
       <c r="P6">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2492,7 +2492,7 @@
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2500,21 +2500,21 @@
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2522,7 +2522,7 @@
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2530,7 +2530,7 @@
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2538,7 +2538,7 @@
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2547,4304 +2547,4304 @@
         <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="B22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P25" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="B26" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P28" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="B28" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="B29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P30" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="B32" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="B33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="B35" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P36" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="B36" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="D37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P38" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P39" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="B39" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P40" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="B40" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="B41" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="B42" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="B43" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="B45" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="B46" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="B47" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="B49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P50" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="B50" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="P51" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="B51" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="B52" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N53" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="D53" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="B54" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P55" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="B55" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P56" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="B56" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="B57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="B58" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="B59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="B60" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P61" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P62" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P63" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="B63" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P64" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="B64" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P65" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="B65" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="B66" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P67" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="B67" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P68" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="B68" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P69" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="B69" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="P70" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="B70" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="N71" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P71" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="B71" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="B72" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P73" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="B73" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="M74" s="4" t="s">
+      <c r="B74" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N74" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P74" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="P75" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="B75" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M76" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="P77" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="B77" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N78" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P78" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="B78" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="P79" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="B79" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P80" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="P81" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="P82" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="B82" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="B83" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P84" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="B84" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="P85" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="B85" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="P86" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="B86" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="P87" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="B87" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="P88" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="B88" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="B89" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="P90" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="B90" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="B91" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="P92" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="B92" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="P93" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="B93" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="N95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="P96" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="B96" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P97" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="B97" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P98" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16">
+      <c r="B98" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P99" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16">
+      <c r="B99" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16">
+      <c r="B100" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16">
+      <c r="B101" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16">
+      <c r="D102" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P103" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16">
+      <c r="B103" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="P104" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="P105" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16">
+      <c r="B105" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P106" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16">
+      <c r="B106" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P107" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16">
+      <c r="B107" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P108" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16">
+      <c r="B108" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="P109" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16">
+      <c r="B109" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="P110" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16">
+      <c r="B110" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="P111" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16">
+      <c r="B111" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="P112" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16">
+      <c r="B112" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="N113" s="4" t="s">
+      <c r="D113" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P114" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16">
+      <c r="B114" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="P115" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16">
+      <c r="B115" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="P116" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16">
+      <c r="B116" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P117" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16">
+      <c r="B117" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P118" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16">
+      <c r="B118" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P119" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16">
+      <c r="B119" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="P120" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16">
+      <c r="B120" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="P121" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16">
+      <c r="B121" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N122" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16">
+      <c r="D122" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="P123" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16">
+      <c r="B123" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="P124" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16">
+      <c r="B124" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="P125" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16">
+      <c r="B125" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="P126" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16">
+      <c r="B126" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="P127" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16">
+      <c r="B127" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="P128" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:6">
       <c r="A129" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="P129" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16">
+      <c r="B129" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="P130" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16">
+      <c r="B130" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="P131" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16">
+      <c r="B131" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M132" s="3" t="s">
+      <c r="B132" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N132" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P132" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16">
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="P133" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16">
+      <c r="B133" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="P134" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16">
+      <c r="B134" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="P135" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16">
+      <c r="B135" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="P136" s="3" t="s">
+      <c r="B136" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:6">
       <c r="A137" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="P137" s="3" t="s">
+      <c r="B137" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:6">
       <c r="A138" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="P138" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16">
+      <c r="B138" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="P139" s="3" t="s">
+      <c r="B139" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:6">
       <c r="A140" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="N140" s="4" t="s">
+      <c r="B140" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="P140" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16">
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="L141" s="3" t="s">
+      <c r="F141" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:6">
       <c r="A142" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="P142" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16">
+      <c r="B142" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="P143" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16">
+      <c r="B143" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="P144" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16">
+      <c r="B144" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="P145" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16">
+      <c r="B145" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="P146" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16">
+      <c r="B146" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="P147" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16">
+      <c r="B147" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="P148" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16">
+      <c r="B148" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="P149" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16">
+      <c r="B149" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="P150" s="3" t="s">
+      <c r="B150" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="P151" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16">
+      <c r="B151" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="P152" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16">
+      <c r="B152" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="P153" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16">
+      <c r="B153" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="P154" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16">
+      <c r="B154" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="N155" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16">
+      <c r="D155" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="N156" s="3" t="s">
+      <c r="B156" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="P156" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16">
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="P157" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16">
+      <c r="B157" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="P158" s="3" t="s">
+      <c r="B158" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:4">
       <c r="A159" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="P159" s="3" t="s">
+      <c r="B159" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:4">
       <c r="A160" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="P160" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16">
+      <c r="B160" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="P161" s="3" t="s">
+      <c r="B161" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="P162" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16">
+      <c r="B162" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="P163" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16">
+      <c r="B163" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="P164" s="3" t="s">
+      <c r="B164" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P165" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16">
+      <c r="B165" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="P166" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16">
+      <c r="B166" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="P167" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16">
+      <c r="B167" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="N168" s="3" t="s">
+      <c r="B168" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D168" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="P168" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16">
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="P169" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16">
+      <c r="B169" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="P170" s="3" t="s">
+      <c r="B170" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="P171" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16">
+      <c r="B171" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="P172" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16">
+      <c r="B172" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="P173" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16">
+      <c r="B173" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="P174" s="3" t="s">
+      <c r="B174" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="P175" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16">
+      <c r="B175" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P176" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16">
+      <c r="B176" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="P177" s="3" t="s">
+      <c r="B177" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:7">
       <c r="A178" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="P178" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16">
+      <c r="B178" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="N179" s="3" t="s">
+      <c r="D179" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:7">
       <c r="A180" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="P180" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16">
+      <c r="B180" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="P181" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16">
+      <c r="B181" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="P182" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16">
+      <c r="B182" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L183" s="4" t="s">
+      <c r="F183" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="P183" s="3" t="s">
+      <c r="G183" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:7">
       <c r="A184" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="P184" s="3" t="s">
+      <c r="B184" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:7">
       <c r="A185" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="P185" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16">
+      <c r="B185" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="P186" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16">
+      <c r="B186" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="P187" s="3" t="s">
+      <c r="B187" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:7">
       <c r="A188" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="P188" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16">
+      <c r="B188" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="P189" s="3" t="s">
+      <c r="B189" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:7">
       <c r="A190" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="P190" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16">
+      <c r="B190" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="P191" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16">
+      <c r="B191" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="P192" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16">
+      <c r="B192" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="P193" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16">
+      <c r="B193" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P194" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16">
+      <c r="B194" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="P195" s="3" t="s">
+      <c r="B195" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:2">
       <c r="A196" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="P196" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16">
+      <c r="B196" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="P197" s="3" t="s">
+      <c r="B197" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:2">
       <c r="A198" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="P198" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16">
+      <c r="B198" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="P199" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16">
+      <c r="B199" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P200" s="3" t="s">
+      <c r="B200" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:2">
       <c r="A201" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="P201" s="4" t="s">
+      <c r="B201" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:2">
       <c r="A202" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="P202" s="3" t="s">
+      <c r="B202" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:2">
       <c r="A203" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="P203" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16">
+      <c r="B203" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="P204" s="4" t="s">
+      <c r="B204" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:2">
       <c r="A205" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="P205" s="3" t="s">
+      <c r="B205" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:2">
       <c r="A206" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="P206" s="3" t="s">
+      <c r="B206" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:2">
       <c r="A207" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="P207" s="4" t="s">
+      <c r="B207" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:2">
       <c r="A208" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="P208" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16">
+      <c r="B208" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="P209" s="4" t="s">
+      <c r="B209" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:3">
       <c r="A210" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="P210" s="3" t="s">
+      <c r="B210" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="P211" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16">
+      <c r="B211" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="P212" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16">
+      <c r="B212" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="P213" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16">
+      <c r="B213" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="P214" s="4" t="s">
+      <c r="B214" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="P215" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="216" spans="1:16">
+      <c r="B215" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="P216" s="3" t="s">
+      <c r="B216" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="P217" s="3" t="s">
+      <c r="B217" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:3">
       <c r="A218" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="P218" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16">
+      <c r="B218" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="P219" s="3" t="s">
+      <c r="B219" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="P220" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16">
+      <c r="B220" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="P221" s="4" t="s">
+      <c r="B221" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="P222" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16">
+      <c r="B222" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="P223" s="3" t="s">
+      <c r="B223" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="O224" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16">
+      <c r="C224" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="M225" s="3" t="s">
+      <c r="D225" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E225" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="N225" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16">
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="P226" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16">
+      <c r="B226" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="P227" s="4" t="s">
+      <c r="B227" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:5">
       <c r="A228" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="P228" s="3" t="s">
+      <c r="B228" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:5">
       <c r="A229" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="P229" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16">
+      <c r="B229" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="P230" s="3" t="s">
+      <c r="B230" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:5">
       <c r="A231" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="P231" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16">
+      <c r="B231" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P232" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16">
+      <c r="B232" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="P233" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16">
+      <c r="B233" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="P234" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16">
+      <c r="B234" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="M235" s="4" t="s">
+      <c r="B235" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E235" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N235" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P235" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16">
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="P236" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16">
+      <c r="B236" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="P237" s="3" t="s">
+      <c r="B237" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:5">
       <c r="A238" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="P238" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="239" spans="1:16">
+      <c r="B238" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="P239" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16">
+      <c r="B239" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="P240" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16">
+      <c r="B240" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="P241" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16">
+      <c r="B241" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="N242" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P242" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16">
+      <c r="B242" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="P243" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16">
+      <c r="B243" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="P244" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16">
+      <c r="B244" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="P245" s="3" t="s">
+      <c r="B245" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:4">
       <c r="A246" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="P246" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16">
+      <c r="B246" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="P247" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="248" spans="1:16">
+      <c r="B247" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="P248" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="249" spans="1:16">
+      <c r="B248" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="P249" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="250" spans="1:16">
+      <c r="B249" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="N250" s="4" t="s">
+      <c r="D250" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:4">
       <c r="A251" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="P251" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="252" spans="1:16">
+      <c r="B251" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="P252" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="253" spans="1:16">
+      <c r="B252" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="P253" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16">
+      <c r="B253" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="P254" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="255" spans="1:16">
+      <c r="B254" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="P255" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="256" spans="1:16">
+      <c r="B255" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="P256" s="3" t="s">
+      <c r="B256" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:4">
       <c r="A257" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="P257" s="3" t="s">
+      <c r="B257" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:4">
       <c r="A258" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="P258" s="3" t="s">
+      <c r="B258" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:4">
       <c r="A259" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="P259" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="260" spans="1:16">
+      <c r="B259" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="P260" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="261" spans="1:16">
+      <c r="B260" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="P261" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="262" spans="1:16">
+      <c r="B261" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
       <c r="A262" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="P262" s="3" t="s">
+      <c r="B262" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:4">
       <c r="A263" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="N263" s="4" t="s">
+      <c r="D263" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:4">
       <c r="A264" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="N264" s="4" t="s">
+      <c r="B264" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D264" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="P264" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="265" spans="1:16">
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="P265" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="266" spans="1:16">
+      <c r="B265" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="P266" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="267" spans="1:16">
+      <c r="B266" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
       <c r="A267" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="P267" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="268" spans="1:16">
+      <c r="B267" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
       <c r="A268" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="P268" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="269" spans="1:16">
+      <c r="B268" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
       <c r="A269" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="P269" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="270" spans="1:16">
+      <c r="B269" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
       <c r="A270" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="P270" s="3" t="s">
+      <c r="B270" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:4">
       <c r="A271" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="P271" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="272" spans="1:16">
+      <c r="B271" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
       <c r="A272" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="P272" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="273" spans="1:16">
+      <c r="B272" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
       <c r="A273" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="P273" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="274" spans="1:16">
+      <c r="B273" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
       <c r="A274" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="P274" s="3" t="s">
+      <c r="B274" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="275" spans="1:16">
+    <row r="275" spans="1:2">
       <c r="A275" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="P275" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="276" spans="1:16">
+      <c r="B275" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
       <c r="A276" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="P276" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="277" spans="1:16">
+      <c r="B276" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
       <c r="A277" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="P277" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="278" spans="1:16">
+      <c r="B277" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
       <c r="A278" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="P278" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="279" spans="1:16">
+      <c r="B278" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
       <c r="A279" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="P279" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="280" spans="1:16">
+      <c r="B279" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
       <c r="A280" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="P280" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="281" spans="1:16">
+      <c r="B280" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
       <c r="A281" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="P281" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="282" spans="1:16">
+      <c r="B281" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
       <c r="A282" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="P282" s="4" t="s">
+      <c r="B282" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" spans="1:2">
       <c r="A283" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="P283" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="284" spans="1:16">
+      <c r="B283" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
       <c r="A284" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="P284" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="285" spans="1:16">
+      <c r="B284" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
       <c r="A285" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="P285" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="286" spans="1:16">
+      <c r="B285" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
       <c r="A286" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="P286" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="287" spans="1:16">
+      <c r="B286" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
       <c r="A287" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="P287" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="288" spans="1:16">
+      <c r="B287" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
       <c r="A288" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="P288" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="289" spans="1:16">
+      <c r="B288" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="P289" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="290" spans="1:16">
+      <c r="B289" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
       <c r="A290" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="P290" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="291" spans="1:16">
+      <c r="B290" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
       <c r="A291" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="P291" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="292" spans="1:16">
+      <c r="B291" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
       <c r="A292" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="P292" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="293" spans="1:16">
+      <c r="B292" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
       <c r="A293" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="P293" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="294" spans="1:16">
+      <c r="B293" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
       <c r="A294" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="P294" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="295" spans="1:16">
+      <c r="B294" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="N295" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="296" spans="1:16">
+      <c r="D295" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
       <c r="A296" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="N296" s="4" t="s">
+      <c r="D296" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="297" spans="1:16">
+    <row r="297" spans="1:4">
       <c r="A297" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="N297" s="4" t="s">
+      <c r="B297" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D297" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P297" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="298" spans="1:16">
+    </row>
+    <row r="298" spans="1:4">
       <c r="A298" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="P298" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="299" spans="1:16">
+      <c r="B298" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
       <c r="A299" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="P299" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="300" spans="1:16">
+      <c r="B299" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
       <c r="A300" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="P300" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="301" spans="1:16">
+      <c r="B300" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
       <c r="A301" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="P301" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="302" spans="1:16">
+      <c r="B301" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
       <c r="A302" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P302" s="3" t="s">
+      <c r="B302" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="303" spans="1:16">
+    <row r="303" spans="1:4">
       <c r="A303" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="P303" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="304" spans="1:16">
+      <c r="B303" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
       <c r="A304" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P304" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="305" spans="1:16">
+      <c r="B304" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
       <c r="A305" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="N305" s="3" t="s">
+      <c r="B305" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D305" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P305" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="306" spans="1:16">
+    </row>
+    <row r="306" spans="1:4">
       <c r="A306" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P306" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="307" spans="1:16">
+      <c r="B306" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
       <c r="A307" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="P307" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="308" spans="1:16">
+      <c r="B307" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
       <c r="A308" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="P308" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="309" spans="1:16">
+      <c r="B308" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
       <c r="A309" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="P309" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="310" spans="1:16">
+      <c r="B309" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
       <c r="A310" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="P310" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="311" spans="1:16">
+      <c r="B310" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="P311" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="312" spans="1:16">
+      <c r="B311" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="P312" s="3" t="s">
+      <c r="B312" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:16">
+    <row r="313" spans="1:4">
       <c r="A313" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="P313" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="314" spans="1:16">
+      <c r="B313" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
       <c r="A314" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="P314" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="315" spans="1:16">
+      <c r="B314" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
       <c r="A315" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="P315" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="316" spans="1:16">
+      <c r="B315" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
       <c r="A316" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="P316" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="317" spans="1:16">
+      <c r="B316" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="P317" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="318" spans="1:16">
+      <c r="B317" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
       <c r="A318" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="P318" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="319" spans="1:16">
+      <c r="B318" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
       <c r="A319" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="P319" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="320" spans="1:16">
+      <c r="B319" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
       <c r="A320" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="P320" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="321" spans="1:16">
+      <c r="B320" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
       <c r="A321" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="P321" s="3" t="s">
+      <c r="B321" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="322" spans="1:16">
+    <row r="322" spans="1:2">
       <c r="A322" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="P322" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="323" spans="1:16">
+      <c r="B322" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
       <c r="A323" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="P323" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="324" spans="1:16">
+      <c r="B323" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
       <c r="A324" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="P324" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="325" spans="1:16">
+      <c r="B324" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
       <c r="A325" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="P325" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="326" spans="1:16">
+      <c r="B325" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
       <c r="A326" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="P326" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="327" spans="1:16">
+      <c r="B326" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
       <c r="A327" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="P327" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="328" spans="1:16">
+      <c r="B327" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
       <c r="A328" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="P328" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="329" spans="1:16">
+      <c r="B328" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
       <c r="A329" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="P329" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="330" spans="1:16">
+      <c r="B329" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
       <c r="A330" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="P330" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="331" spans="1:16">
+      <c r="B330" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
       <c r="A331" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="P331" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="332" spans="1:16">
+      <c r="B331" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
       <c r="A332" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="P332" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="333" spans="1:16">
+      <c r="B332" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
       <c r="A333" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="P333" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="334" spans="1:16">
+      <c r="B333" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
       <c r="A334" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="P334" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="335" spans="1:16">
+      <c r="B334" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
       <c r="A335" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P335" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="336" spans="1:16">
+      <c r="B335" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
       <c r="A336" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P336" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="337" spans="1:16">
+      <c r="B336" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="P337" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="338" spans="1:16">
+      <c r="B337" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
       <c r="A338" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="P338" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="339" spans="1:16">
+      <c r="B338" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
       <c r="A339" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="P339" s="3" t="s">
+      <c r="B339" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:5">
       <c r="A340" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="P340" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="341" spans="1:16">
+      <c r="B340" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
       <c r="A341" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="P341" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="342" spans="1:16">
+      <c r="B341" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
       <c r="A342" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="P342" s="3" t="s">
+      <c r="B342" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:5">
       <c r="A343" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="P343" s="3" t="s">
+      <c r="B343" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="344" spans="1:16">
+    <row r="344" spans="1:5">
       <c r="A344" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="P344" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="345" spans="1:16">
+      <c r="B344" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
       <c r="A345" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P345" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="346" spans="1:16">
+      <c r="B345" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
       <c r="A346" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="P346" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="347" spans="1:16">
+      <c r="B346" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
       <c r="A347" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="N347" s="3" t="s">
+      <c r="B347" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D347" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="P347" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="348" spans="1:16">
+    </row>
+    <row r="348" spans="1:5">
       <c r="A348" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="P348" s="3" t="s">
+      <c r="B348" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:5">
       <c r="A349" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="M349" s="4" t="s">
+      <c r="E349" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:5">
       <c r="A350" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="P350" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="351" spans="1:16">
+      <c r="B350" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
       <c r="A351" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="P351" s="3" t="s">
+      <c r="B351" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:5">
       <c r="A352" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="P352" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="353" spans="1:16">
+      <c r="B352" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
       <c r="A353" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="P353" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="354" spans="1:16">
+      <c r="B353" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
       <c r="A354" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="P354" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="355" spans="1:16">
+      <c r="B354" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
       <c r="A355" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="P355" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="356" spans="1:16">
+      <c r="B355" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
       <c r="A356" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="P356" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="357" spans="1:16">
+      <c r="B356" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
       <c r="A357" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="P357" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="358" spans="1:16">
+      <c r="B357" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
       <c r="A358" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="P358" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="359" spans="1:16">
+      <c r="B358" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
       <c r="A359" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="P359" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="360" spans="1:16">
+      <c r="B359" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
       <c r="A360" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="P360" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="361" spans="1:16">
+      <c r="B360" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
       <c r="A361" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="P361" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="362" spans="1:16">
+      <c r="B361" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
       <c r="A362" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="P362" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="363" spans="1:16">
+      <c r="B362" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
       <c r="A363" s="2" t="s">
         <v>410</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P363" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="364" spans="1:16">
+      <c r="G363" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
       <c r="A364" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="N364" s="4" t="s">
+      <c r="B364" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D364" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P364" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="365" spans="1:16">
+    </row>
+    <row r="365" spans="1:7">
       <c r="A365" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="P365" s="3" t="s">
+      <c r="B365" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="366" spans="1:16">
+    <row r="366" spans="1:7">
       <c r="A366" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="P366" s="3" t="s">
+      <c r="B366" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="367" spans="1:16">
+    <row r="367" spans="1:7">
       <c r="A367" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="P367" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="368" spans="1:16">
+      <c r="B367" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
       <c r="A368" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="P368" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="369" spans="1:16">
+      <c r="B368" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
       <c r="A369" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="P369" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="370" spans="1:16">
+      <c r="B369" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
       <c r="A370" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="P370" s="3" t="s">
+      <c r="B370" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="371" spans="1:16">
+    <row r="371" spans="1:5">
       <c r="A371" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="P371" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="372" spans="1:16">
+      <c r="B371" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
       <c r="A372" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="P372" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="373" spans="1:16">
+      <c r="B372" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
       <c r="A373" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="P373" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="374" spans="1:16">
+      <c r="B373" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
       <c r="A374" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="P374" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="375" spans="1:16">
+      <c r="B374" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
       <c r="A375" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="P375" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="376" spans="1:16">
+      <c r="B375" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
       <c r="A376" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="M376" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N376" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P376" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="377" spans="1:16">
+      <c r="B376" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
       <c r="A377" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="M377" s="4" t="s">
+      <c r="B377" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E377" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="N377" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P377" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="378" spans="1:16">
+    </row>
+    <row r="378" spans="1:5">
       <c r="A378" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="N378" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P378" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="379" spans="1:16">
+      <c r="B378" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
       <c r="A379" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="P379" s="3" t="s">
+      <c r="B379" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="380" spans="1:16">
+    <row r="380" spans="1:5">
       <c r="A380" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="P380" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="381" spans="1:16">
+      <c r="B380" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
       <c r="A381" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="P381" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="382" spans="1:16">
+      <c r="B381" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
       <c r="A382" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="P382" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="383" spans="1:16">
+      <c r="B382" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
       <c r="A383" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="P383" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="384" spans="1:16">
+      <c r="B383" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
       <c r="A384" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="M384" s="3" t="s">
+      <c r="B384" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E384" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="P384" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="385" spans="1:16">
+    </row>
+    <row r="385" spans="1:5">
       <c r="A385" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="M385" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="386" spans="1:16">
+      <c r="E385" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
       <c r="A386" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="P386" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="387" spans="1:16">
+      <c r="B386" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
       <c r="A387" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="P387" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="388" spans="1:16">
+      <c r="B387" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
       <c r="A388" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="P388" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="389" spans="1:16">
+      <c r="B388" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
       <c r="A389" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="P389" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="390" spans="1:16">
+      <c r="B389" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
       <c r="A390" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="P390" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="391" spans="1:16">
+      <c r="B390" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
       <c r="A391" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="P391" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="392" spans="1:16">
+      <c r="B391" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
       <c r="A392" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="P392" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="393" spans="1:16">
+      <c r="B392" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
       <c r="A393" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="P393" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="394" spans="1:16">
+      <c r="B393" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
       <c r="A394" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="P394" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="395" spans="1:16">
+      <c r="B394" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
       <c r="A395" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="P395" s="3" t="s">
+      <c r="B395" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="396" spans="1:16">
+    <row r="396" spans="1:5">
       <c r="A396" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="P396" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="397" spans="1:16">
+      <c r="B396" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
       <c r="A397" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="P397" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="398" spans="1:16">
+      <c r="B397" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
       <c r="A398" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="P398" s="3" t="s">
+      <c r="B398" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="399" spans="1:16">
+    <row r="399" spans="1:5">
       <c r="A399" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="P399" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="400" spans="1:16">
+      <c r="B399" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
       <c r="A400" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="P400" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="401" spans="1:16">
+      <c r="B400" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
       <c r="A401" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="P401" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="402" spans="1:16">
+      <c r="B401" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
       <c r="A402" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="P402" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="403" spans="1:16">
+      <c r="B402" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
       <c r="A403" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="P403" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="404" spans="1:16">
+      <c r="B403" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
       <c r="A404" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="P404" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="405" spans="1:16">
+      <c r="B404" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
       <c r="A405" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="P405" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="406" spans="1:16">
+      <c r="B405" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
       <c r="A406" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="P406" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="407" spans="1:16">
+      <c r="B406" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
       <c r="A407" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="P407" s="3" t="s">
+      <c r="B407" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="408" spans="1:16">
+    <row r="408" spans="1:2">
       <c r="A408" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="P408" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="409" spans="1:16">
+      <c r="B408" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
       <c r="A409" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="P409" s="3" t="s">
+      <c r="B409" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="410" spans="1:16">
+    <row r="410" spans="1:2">
       <c r="A410" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="P410" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="411" spans="1:16">
+      <c r="B410" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
       <c r="A411" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="P411" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="412" spans="1:16">
+      <c r="B411" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
       <c r="A412" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="P412" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="413" spans="1:16">
+      <c r="B412" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
       <c r="A413" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="P413" s="3" t="s">
+      <c r="B413" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="414" spans="1:16">
+    <row r="414" spans="1:2">
       <c r="A414" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="P414" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="415" spans="1:16">
+      <c r="B414" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
       <c r="A415" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="P415" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="416" spans="1:16">
+      <c r="B415" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
       <c r="A416" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="P416" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="417" spans="1:16">
+      <c r="B416" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
       <c r="A417" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="P417" s="4" t="s">
+      <c r="B417" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="418" spans="1:16">
+    <row r="418" spans="1:2">
       <c r="A418" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="P418" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="419" spans="1:16">
+      <c r="B418" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
       <c r="A419" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="P419" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="420" spans="1:16">
+      <c r="B419" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
       <c r="A420" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="P420" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="421" spans="1:16">
+      <c r="B420" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
       <c r="A421" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="P421" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="422" spans="1:16">
+      <c r="B421" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
       <c r="A422" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="P422" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="423" spans="1:16">
+      <c r="B422" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
       <c r="A423" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="P423" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="424" spans="1:16">
+      <c r="B423" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
       <c r="A424" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="P424" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="425" spans="1:16">
+      <c r="B424" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
       <c r="A425" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="P425" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="426" spans="1:16">
+      <c r="B425" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
       <c r="A426" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="P426" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="427" spans="1:16">
+      <c r="B426" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
       <c r="A427" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="P427" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="428" spans="1:16">
+      <c r="B427" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
       <c r="A428" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="P428" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="429" spans="1:16">
+      <c r="B428" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
       <c r="A429" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="P429" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="430" spans="1:16">
+      <c r="B429" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
       <c r="A430" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="P430" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="431" spans="1:16">
+      <c r="B430" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
       <c r="A431" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="P431" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="432" spans="1:16">
+      <c r="B431" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
       <c r="A432" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="P432" s="3" t="s">
+      <c r="B432" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="433" spans="1:16">
+    <row r="433" spans="1:2">
       <c r="A433" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="P433" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="434" spans="1:16">
+      <c r="B433" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
       <c r="A434" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="P434" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="435" spans="1:16">
+      <c r="B434" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
       <c r="A435" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="P435" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="436" spans="1:16">
+      <c r="B435" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
       <c r="A436" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="P436" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="437" spans="1:16">
+      <c r="B436" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
       <c r="A437" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="P437" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="438" spans="1:16">
+      <c r="B437" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
       <c r="A438" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="P438" s="3" t="s">
+      <c r="B438" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="439" spans="1:16">
+    <row r="439" spans="1:2">
       <c r="A439" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="P439" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="440" spans="1:16">
+      <c r="B439" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
       <c r="A440" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="P440" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="441" spans="1:16">
+      <c r="B440" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
       <c r="A441" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="P441" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="442" spans="1:16">
+      <c r="B441" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
       <c r="A442" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="P442" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="443" spans="1:16">
+      <c r="B442" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
       <c r="A443" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="P443" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="444" spans="1:16">
+      <c r="B443" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
       <c r="A444" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="P444" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="445" spans="1:16">
+      <c r="B444" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
       <c r="A445" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="P445" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="446" spans="1:16">
+      <c r="B445" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
       <c r="A446" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="P446" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="447" spans="1:16">
+      <c r="B446" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
       <c r="A447" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="P447" s="3" t="s">
+      <c r="B447" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="448" spans="1:16">
+    <row r="448" spans="1:2">
       <c r="A448" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="P448" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="449" spans="1:16">
+      <c r="B448" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
       <c r="A449" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="P449" s="3" t="s">
+      <c r="B449" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="450" spans="1:16">
+    <row r="450" spans="1:4">
       <c r="A450" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="P450" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="451" spans="1:16">
+      <c r="B450" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
       <c r="A451" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="P451" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="452" spans="1:16">
+      <c r="B451" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
       <c r="A452" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="P452" s="3" t="s">
+      <c r="B452" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="453" spans="1:16">
+    <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="P453" s="3" t="s">
+      <c r="B453" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="454" spans="1:16">
+    <row r="454" spans="1:4">
       <c r="A454" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="P454" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="455" spans="1:16">
+      <c r="B454" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
       <c r="A455" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="P455" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="456" spans="1:16">
+      <c r="B455" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
       <c r="A456" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="P456" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="457" spans="1:16">
+      <c r="B456" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
       <c r="A457" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="P457" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="458" spans="1:16">
+      <c r="B457" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
       <c r="A458" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="P458" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="459" spans="1:16">
+      <c r="B458" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
       <c r="A459" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="P459" s="3" t="s">
+      <c r="B459" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="460" spans="1:16">
+    <row r="460" spans="1:4">
       <c r="A460" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="P460" s="3" t="s">
+      <c r="B460" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="461" spans="1:16">
+    <row r="461" spans="1:4">
       <c r="A461" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="P461" s="3" t="s">
+      <c r="B461" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="462" spans="1:16">
+    <row r="462" spans="1:4">
       <c r="A462" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="N462" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P462" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="463" spans="1:16">
+      <c r="B462" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
       <c r="A463" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="N463" s="4" t="s">
+      <c r="B463" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D463" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="P463" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="464" spans="1:16">
+    </row>
+    <row r="464" spans="1:4">
       <c r="A464" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="P464" s="3" t="s">
+      <c r="B464" s="3" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="465" spans="1:16">
+    <row r="465" spans="1:15">
       <c r="A465" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="P465" s="3" t="s">
+      <c r="B465" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="466" spans="1:16">
+    <row r="466" spans="1:15">
       <c r="A466" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="P466" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="467" spans="1:16">
+      <c r="B466" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="467" spans="1:15">
       <c r="A467" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="P467" s="4" t="s">
+      <c r="B467" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="468" spans="1:16">
+    <row r="468" spans="1:15">
       <c r="A468" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="P468" s="3" t="s">
+      <c r="B468" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="469" spans="1:16">
+    <row r="469" spans="1:15">
       <c r="A469" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C469" s="4" t="s">
+      <c r="F469" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H469" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L469" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="470" spans="1:16">
+    </row>
+    <row r="470" spans="1:15">
       <c r="A470" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="P470" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="471" spans="1:16">
+      <c r="B470" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="471" spans="1:15">
       <c r="A471" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="P471" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="472" spans="1:16">
+      <c r="B471" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="472" spans="1:15">
       <c r="A472" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="P472" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="473" spans="1:16">
+      <c r="B472" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="473" spans="1:15">
       <c r="A473" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="P473" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="474" spans="1:16">
+      <c r="B473" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="474" spans="1:15">
       <c r="A474" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="P474" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="475" spans="1:16">
+      <c r="B474" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="475" spans="1:15">
       <c r="A475" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="O475" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="476" spans="1:16">
+      <c r="C475" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="476" spans="1:15">
       <c r="A476" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="O476" s="3" t="s">
+      <c r="C476" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="477" spans="1:16">
+    <row r="477" spans="1:15">
       <c r="A477" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="P477" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="478" spans="1:16">
+      <c r="B477" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="478" spans="1:15">
       <c r="A478" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="J478" s="4" t="s">
+      <c r="O478" s="4" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="479" spans="1:16">
+    <row r="479" spans="1:15">
       <c r="A479" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="L479" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="480" spans="1:16">
+      <c r="F479" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="480" spans="1:15">
       <c r="A480" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="L480" s="4" t="s">
+      <c r="F480" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="481" spans="1:15">
+    <row r="481" spans="1:3">
       <c r="A481" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="O481" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="482" spans="1:15">
+      <c r="C481" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
       <c r="A482" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="O482" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="483" spans="1:15">
+      <c r="C482" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
       <c r="A483" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="O483" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="484" spans="1:15">
+      <c r="C483" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
       <c r="A484" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="O484" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="485" spans="1:15">
+      <c r="C484" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
       <c r="A485" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="O485" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="486" spans="1:15">
+      <c r="C485" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
       <c r="A486" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="O486" s="3" t="s">
+      <c r="C486" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="487" spans="1:15">
+    <row r="487" spans="1:3">
       <c r="A487" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="O487" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="488" spans="1:15">
+      <c r="C487" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
       <c r="A488" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="O488" s="3" t="s">
+      <c r="C488" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="489" spans="1:15">
+    <row r="489" spans="1:3">
       <c r="A489" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="O489" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="490" spans="1:15">
+      <c r="C489" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
       <c r="A490" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="O490" s="3" t="s">
+      <c r="C490" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="491" spans="1:15">
+    <row r="491" spans="1:3">
       <c r="A491" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="O491" s="3" t="s">
+      <c r="C491" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="492" spans="1:15">
+    <row r="492" spans="1:3">
       <c r="A492" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="O492" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="493" spans="1:15">
+      <c r="C492" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
       <c r="A493" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="O493" s="3" t="s">
+      <c r="C493" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="494" spans="1:15">
+    <row r="494" spans="1:3">
       <c r="A494" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="O494" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="495" spans="1:15">
+      <c r="C494" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
       <c r="A495" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="O495" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="496" spans="1:15">
+      <c r="C495" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
       <c r="A496" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="O496" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="497" spans="1:16">
+      <c r="C496" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
       <c r="A497" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="O497" s="4" t="s">
+      <c r="C497" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="498" spans="1:16">
+    <row r="498" spans="1:3">
       <c r="A498" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="O498" s="3" t="s">
+      <c r="C498" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="499" spans="1:16">
+    <row r="499" spans="1:3">
       <c r="A499" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="O499" s="3" t="s">
+      <c r="C499" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="500" spans="1:16">
+    <row r="500" spans="1:3">
       <c r="A500" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="O500" s="3" t="s">
+      <c r="C500" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="501" spans="1:16">
+    <row r="501" spans="1:3">
       <c r="A501" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="O501" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="502" spans="1:16">
+      <c r="C501" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
       <c r="A502" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="O502" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="503" spans="1:16">
+      <c r="C502" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
       <c r="A503" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="O503" s="4" t="s">
+      <c r="C503" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="504" spans="1:16">
+    <row r="504" spans="1:3">
       <c r="A504" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="P504" s="3" t="s">
+      <c r="B504" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="505" spans="1:16">
+    <row r="505" spans="1:3">
       <c r="A505" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="P505" s="3" t="s">
+      <c r="B505" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="506" spans="1:16">
+    <row r="506" spans="1:3">
       <c r="A506" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="P506" s="3" t="s">
+      <c r="B506" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="507" spans="1:16">
+    <row r="507" spans="1:3">
       <c r="A507" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="P507" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="508" spans="1:16">
+      <c r="B507" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
       <c r="A508" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="P508" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="509" spans="1:16">
+      <c r="B508" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
       <c r="A509" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="P509" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="510" spans="1:16">
+      <c r="B509" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
       <c r="A510" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="P510" s="3" t="s">
+      <c r="B510" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="511" spans="1:16">
+    <row r="511" spans="1:3">
       <c r="A511" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="P511" s="3" t="s">
+      <c r="B511" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="512" spans="1:16">
+    <row r="512" spans="1:3">
       <c r="A512" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="P512" s="4" t="s">
+      <c r="B512" s="4" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="513" spans="1:16">
+    <row r="513" spans="1:15">
       <c r="A513" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B513" s="3" t="s">
+      <c r="D513" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F513" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G513" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D513" s="3" t="s">
+      <c r="I513" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="J513" s="4" t="s">
+      <c r="O513" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="L513" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="N513" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="514" spans="1:16">
+    </row>
+    <row r="514" spans="1:15">
       <c r="A514" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B514" s="3" t="s">
+      <c r="D514" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F514" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G514" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D514" s="4" t="s">
+      <c r="I514" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="L514" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="N514" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="515" spans="1:16">
+    </row>
+    <row r="515" spans="1:15">
       <c r="A515" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B515" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="516" spans="1:16">
+      <c r="G515" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="516" spans="1:15">
       <c r="A516" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B516" s="3" t="s">
+      <c r="G516" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="517" spans="1:16">
+    <row r="517" spans="1:15">
       <c r="A517" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B517" s="3" t="s">
+      <c r="G517" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J517" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="518" spans="1:16">
+      <c r="O517" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="518" spans="1:15">
       <c r="A518" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B518" s="3" t="s">
+      <c r="G518" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="519" spans="1:16">
+    <row r="519" spans="1:15">
       <c r="A519" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B519" s="4" t="s">
+      <c r="G519" s="4" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="520" spans="1:16">
+    <row r="520" spans="1:15">
       <c r="A520" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B520" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="521" spans="1:16">
+      <c r="G520" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="521" spans="1:15">
       <c r="A521" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B521" s="3" t="s">
+      <c r="G521" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="522" spans="1:16">
+    <row r="522" spans="1:15">
       <c r="A522" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="P522" s="3" t="s">
+      <c r="B522" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="523" spans="1:16">
+    <row r="523" spans="1:15">
       <c r="A523" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="P523" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="524" spans="1:16">
+      <c r="B523" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="524" spans="1:15">
       <c r="A524" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="P524" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="525" spans="1:16">
+      <c r="B524" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="525" spans="1:15">
       <c r="A525" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="P525" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="526" spans="1:16">
+      <c r="B525" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="526" spans="1:15">
       <c r="A526" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="P526" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="527" spans="1:16">
+      <c r="B526" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="527" spans="1:15">
       <c r="A527" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="P527" s="3" t="s">
+      <c r="B527" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="528" spans="1:16">
+    <row r="528" spans="1:15">
       <c r="A528" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="P528" s="3" t="s">
+      <c r="B528" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="529" spans="1:16">
+    <row r="529" spans="1:3">
       <c r="A529" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="P529" s="3" t="s">
+      <c r="B529" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="530" spans="1:16">
+    <row r="530" spans="1:3">
       <c r="A530" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="P530" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="531" spans="1:16">
+      <c r="B530" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
       <c r="A531" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="P531" s="3" t="s">
+      <c r="B531" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="532" spans="1:16">
+    <row r="532" spans="1:3">
       <c r="A532" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="P532" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="533" spans="1:16">
+      <c r="B532" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
       <c r="A533" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="P533" s="3" t="s">
+      <c r="B533" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="534" spans="1:16">
+    <row r="534" spans="1:3">
       <c r="A534" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="P534" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="535" spans="1:16">
+      <c r="B534" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
       <c r="A535" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="P535" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="536" spans="1:16">
+      <c r="B535" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
       <c r="A536" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="O536" s="3" t="s">
+      <c r="C536" s="3" t="s">
         <v>83</v>
       </c>
     </row>

--- a/groups/22-23/codeforces_results.xlsx
+++ b/groups/22-23/codeforces_results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$P$536</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$P$540</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="594">
   <si>
     <t>№</t>
   </si>
@@ -73,7 +73,7 @@
     <t>slavashestakov2005</t>
   </si>
   <si>
-    <t>AndreBc</t>
+    <t>Windroxxx</t>
   </si>
   <si>
     <t>Sasha_Medvedev</t>
@@ -1684,6 +1684,15 @@
     <t>1914E2</t>
   </si>
   <si>
+    <t>1917A</t>
+  </si>
+  <si>
+    <t>1917B</t>
+  </si>
+  <si>
+    <t>1917C</t>
+  </si>
+  <si>
     <t>100092A</t>
   </si>
   <si>
@@ -1784,6 +1793,9 @@
   </si>
   <si>
     <t>102168L</t>
+  </si>
+  <si>
+    <t>1024806</t>
   </si>
   <si>
     <t>104872F</t>
@@ -2152,7 +2164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P536"/>
+  <dimension ref="A1:P540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2272,7 +2284,7 @@
         <v>1742</v>
       </c>
       <c r="C3">
-        <v>1431</v>
+        <v>1397</v>
       </c>
       <c r="D3">
         <v>432</v>
@@ -2322,7 +2334,7 @@
         <v>679</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>101</v>
@@ -2372,7 +2384,7 @@
         <v>457</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>29</v>
@@ -2422,7 +2434,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -6564,7 +6576,7 @@
       <c r="A504" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B504" s="3" t="s">
+      <c r="C504" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6572,16 +6584,16 @@
       <c r="A505" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B505" s="3" t="s">
-        <v>83</v>
+      <c r="C505" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B506" s="3" t="s">
-        <v>39</v>
+      <c r="C506" s="4" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -6589,7 +6601,7 @@
         <v>558</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -6597,7 +6609,7 @@
         <v>559</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -6605,7 +6617,7 @@
         <v>560</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -6613,7 +6625,7 @@
         <v>561</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6621,79 +6633,76 @@
         <v>562</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>273</v>
+        <v>37</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B512" s="4" t="s">
-        <v>529</v>
+      <c r="B512" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="513" spans="1:15">
       <c r="A513" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D513" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F513" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G513" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="I513" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="O513" s="4" t="s">
-        <v>309</v>
+      <c r="B513" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="514" spans="1:15">
       <c r="A514" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="D514" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F514" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G514" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I514" s="4" t="s">
-        <v>151</v>
+        <v>565</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="515" spans="1:15">
       <c r="A515" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="G515" s="3" t="s">
-        <v>37</v>
+        <v>566</v>
+      </c>
+      <c r="B515" s="4" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="516" spans="1:15">
       <c r="A516" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D516" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F516" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G516" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="I516" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="G516" s="3" t="s">
-        <v>196</v>
+      <c r="O516" s="4" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="517" spans="1:15">
       <c r="A517" s="2" t="s">
         <v>570</v>
       </c>
+      <c r="D517" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F517" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="G517" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O517" s="3" t="s">
-        <v>37</v>
+      <c r="I517" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="518" spans="1:15">
@@ -6701,15 +6710,15 @@
         <v>571</v>
       </c>
       <c r="G518" s="3" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
     </row>
     <row r="519" spans="1:15">
       <c r="A519" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G519" s="4" t="s">
-        <v>529</v>
+      <c r="G519" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="520" spans="1:15">
@@ -6717,6 +6726,9 @@
         <v>573</v>
       </c>
       <c r="G520" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O520" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6725,22 +6737,22 @@
         <v>574</v>
       </c>
       <c r="G521" s="3" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
     </row>
     <row r="522" spans="1:15">
       <c r="A522" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B522" s="3" t="s">
-        <v>39</v>
+      <c r="G522" s="4" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="523" spans="1:15">
       <c r="A523" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B523" s="3" t="s">
+      <c r="G523" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6748,8 +6760,8 @@
       <c r="A524" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B524" s="3" t="s">
-        <v>37</v>
+      <c r="G524" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="525" spans="1:15">
@@ -6757,7 +6769,7 @@
         <v>578</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="526" spans="1:15">
@@ -6773,7 +6785,7 @@
         <v>580</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
     </row>
     <row r="528" spans="1:15">
@@ -6781,7 +6793,7 @@
         <v>581</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6789,7 +6801,7 @@
         <v>582</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6797,7 +6809,7 @@
         <v>583</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6805,7 +6817,7 @@
         <v>584</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6813,7 +6825,7 @@
         <v>585</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6821,7 +6833,7 @@
         <v>586</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6829,7 +6841,7 @@
         <v>587</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6844,12 +6856,44 @@
       <c r="A536" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C536" s="3" t="s">
+      <c r="B536" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C539" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C540" s="3" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P536"/>
+  <autoFilter ref="A1:P540"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -7396,6 +7440,10 @@
     <hyperlink ref="A534" r:id="rId543"/>
     <hyperlink ref="A535" r:id="rId544"/>
     <hyperlink ref="A536" r:id="rId545"/>
+    <hyperlink ref="A537" r:id="rId546"/>
+    <hyperlink ref="A538" r:id="rId547"/>
+    <hyperlink ref="A539" r:id="rId548"/>
+    <hyperlink ref="A540" r:id="rId549"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/codeforces_results.xlsx
+++ b/groups/22-23/codeforces_results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$P$540</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$P$574</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="629">
   <si>
     <t>№</t>
   </si>
@@ -364,6 +364,9 @@
     <t>339A</t>
   </si>
   <si>
+    <t>342A</t>
+  </si>
+  <si>
     <t>344A</t>
   </si>
   <si>
@@ -748,6 +751,9 @@
     <t>1166A</t>
   </si>
   <si>
+    <t>1185B</t>
+  </si>
+  <si>
     <t>1186A</t>
   </si>
   <si>
@@ -844,6 +850,9 @@
     <t>1230B</t>
   </si>
   <si>
+    <t>1240B</t>
+  </si>
+  <si>
     <t>1249A</t>
   </si>
   <si>
@@ -916,6 +925,12 @@
     <t>1337A</t>
   </si>
   <si>
+    <t>1340F</t>
+  </si>
+  <si>
+    <t>1+, 11-</t>
+  </si>
+  <si>
     <t>1343B</t>
   </si>
   <si>
@@ -1684,6 +1699,36 @@
     <t>1914E2</t>
   </si>
   <si>
+    <t>1915A</t>
+  </si>
+  <si>
+    <t>1915B</t>
+  </si>
+  <si>
+    <t>1915C</t>
+  </si>
+  <si>
+    <t>1915D</t>
+  </si>
+  <si>
+    <t>1915E</t>
+  </si>
+  <si>
+    <t>1915F</t>
+  </si>
+  <si>
+    <t>1916A</t>
+  </si>
+  <si>
+    <t>1916B</t>
+  </si>
+  <si>
+    <t>1916C</t>
+  </si>
+  <si>
+    <t>1916D</t>
+  </si>
+  <si>
     <t>1917A</t>
   </si>
   <si>
@@ -1693,6 +1738,60 @@
     <t>1917C</t>
   </si>
   <si>
+    <t>1919A</t>
+  </si>
+  <si>
+    <t>1919B</t>
+  </si>
+  <si>
+    <t>1919C</t>
+  </si>
+  <si>
+    <t>1920A</t>
+  </si>
+  <si>
+    <t>1920B</t>
+  </si>
+  <si>
+    <t>1920C</t>
+  </si>
+  <si>
+    <t>1921A</t>
+  </si>
+  <si>
+    <t>1921B</t>
+  </si>
+  <si>
+    <t>1921C</t>
+  </si>
+  <si>
+    <t>1921D</t>
+  </si>
+  <si>
+    <t>1921E</t>
+  </si>
+  <si>
+    <t>1922A</t>
+  </si>
+  <si>
+    <t>1922B</t>
+  </si>
+  <si>
+    <t>1922C</t>
+  </si>
+  <si>
+    <t>1924A</t>
+  </si>
+  <si>
+    <t>1925A</t>
+  </si>
+  <si>
+    <t>1925B</t>
+  </si>
+  <si>
+    <t>1925C</t>
+  </si>
+  <si>
     <t>100092A</t>
   </si>
   <si>
@@ -1720,6 +1819,9 @@
     <t>100126A</t>
   </si>
   <si>
+    <t>100135I</t>
+  </si>
+  <si>
     <t>100168A</t>
   </si>
   <si>
@@ -1772,6 +1874,9 @@
   </si>
   <si>
     <t>100249B</t>
+  </si>
+  <si>
+    <t>1003543</t>
   </si>
   <si>
     <t>102168A</t>
@@ -2164,7 +2269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P540"/>
+  <dimension ref="A1:P574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2284,7 +2389,7 @@
         <v>1742</v>
       </c>
       <c r="C3">
-        <v>1397</v>
+        <v>1668</v>
       </c>
       <c r="D3">
         <v>432</v>
@@ -2331,10 +2436,10 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="D4">
         <v>101</v>
@@ -2343,7 +2448,7 @@
         <v>18</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>45</v>
@@ -2381,10 +2486,10 @@
         <v>34</v>
       </c>
       <c r="B5">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>29</v>
@@ -2393,7 +2498,7 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -2434,7 +2539,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -2443,7 +2548,7 @@
         <v>6</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2529,6 +2634,9 @@
       <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="F12" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
@@ -2970,7 +3078,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
         <v>101</v>
       </c>
@@ -2978,7 +3086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
         <v>102</v>
       </c>
@@ -2986,7 +3094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
         <v>103</v>
       </c>
@@ -2994,7 +3102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
         <v>104</v>
       </c>
@@ -3002,7 +3110,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
         <v>105</v>
       </c>
@@ -3010,7 +3118,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
         <v>106</v>
       </c>
@@ -3018,7 +3126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
         <v>107</v>
       </c>
@@ -3029,7 +3137,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
         <v>108</v>
       </c>
@@ -3037,7 +3145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
         <v>109</v>
       </c>
@@ -3045,7 +3153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
         <v>110</v>
       </c>
@@ -3059,7 +3167,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
         <v>111</v>
       </c>
@@ -3067,7 +3175,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
         <v>112</v>
       </c>
@@ -3075,7 +3183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
         <v>113</v>
       </c>
@@ -3083,7 +3191,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
         <v>114</v>
       </c>
@@ -3094,20 +3202,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3123,7 +3231,7 @@
         <v>118</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3218,24 +3326,24 @@
       <c r="A94" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>131</v>
+      <c r="B94" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>37</v>
+      <c r="D96" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3282,7 +3390,7 @@
       <c r="A102" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3290,7 +3398,7 @@
       <c r="A103" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="D103" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3299,7 +3407,7 @@
         <v>141</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3307,7 +3415,7 @@
         <v>142</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3366,23 +3474,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:6">
       <c r="A113" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="B113" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="2" t="s">
+      <c r="D114" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="2" t="s">
         <v>153</v>
       </c>
@@ -3390,7 +3498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:6">
       <c r="A116" s="2" t="s">
         <v>154</v>
       </c>
@@ -3398,7 +3506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:6">
       <c r="A117" s="2" t="s">
         <v>155</v>
       </c>
@@ -3406,7 +3514,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:6">
       <c r="A118" s="2" t="s">
         <v>156</v>
       </c>
@@ -3414,7 +3522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:6">
       <c r="A119" s="2" t="s">
         <v>157</v>
       </c>
@@ -3422,7 +3530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:6">
       <c r="A120" s="2" t="s">
         <v>158</v>
       </c>
@@ -3430,7 +3538,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:6">
       <c r="A121" s="2" t="s">
         <v>159</v>
       </c>
@@ -3438,23 +3546,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:6">
       <c r="A122" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="B122" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="D123" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="2" t="s">
         <v>162</v>
       </c>
@@ -3462,7 +3570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
         <v>163</v>
       </c>
@@ -3470,7 +3578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
         <v>164</v>
       </c>
@@ -3478,20 +3586,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="F127" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3499,7 +3610,7 @@
         <v>167</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3525,12 +3636,6 @@
       <c r="B132" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2" t="s">
@@ -3539,6 +3644,12 @@
       <c r="B133" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="D133" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2" t="s">
@@ -3561,7 +3672,7 @@
         <v>174</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3569,7 +3680,7 @@
         <v>175</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3577,7 +3688,7 @@
         <v>176</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3585,7 +3696,7 @@
         <v>177</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3593,26 +3704,26 @@
         <v>178</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D141" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>37</v>
+      <c r="F142" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3676,7 +3787,7 @@
         <v>189</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3684,7 +3795,7 @@
         <v>190</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3715,7 +3826,7 @@
       <c r="A155" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="B155" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3723,19 +3834,19 @@
       <c r="A156" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D156" s="3" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3743,7 +3854,7 @@
         <v>198</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3759,7 +3870,7 @@
         <v>200</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3767,15 +3878,15 @@
         <v>201</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>202</v>
+        <v>37</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3791,15 +3902,15 @@
         <v>205</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3825,16 +3936,16 @@
       <c r="B168" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D168" s="3" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D169" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3842,7 +3953,7 @@
         <v>213</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3850,7 +3961,7 @@
         <v>214</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3874,7 +3985,7 @@
         <v>217</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3882,7 +3993,7 @@
         <v>218</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3898,7 +4009,7 @@
         <v>220</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -3906,23 +4017,23 @@
         <v>221</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>39</v>
+      <c r="B179" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B180" s="3" t="s">
-        <v>37</v>
+      <c r="D180" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -3946,21 +4057,21 @@
         <v>226</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F183" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F184" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B184" s="3" t="s">
-        <v>39</v>
+      <c r="G184" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -3968,7 +4079,7 @@
         <v>229</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -3984,7 +4095,7 @@
         <v>231</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -3992,7 +4103,7 @@
         <v>232</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4000,7 +4111,7 @@
         <v>233</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4008,7 +4119,7 @@
         <v>234</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4027,7 +4138,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:6">
       <c r="A193" s="2" t="s">
         <v>237</v>
       </c>
@@ -4035,7 +4146,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:6">
       <c r="A194" s="2" t="s">
         <v>238</v>
       </c>
@@ -4043,39 +4154,39 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:6">
       <c r="A195" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="2" t="s">
         <v>243</v>
       </c>
@@ -4083,111 +4194,111 @@
         <v>37</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:6">
       <c r="A200" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B200" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
+      <c r="F200" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B201" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
+      <c r="B201" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B203" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
+      <c r="B203" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B204" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
+      <c r="B204" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B206" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
+      <c r="B206" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B207" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
+      <c r="B207" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B211" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="B211" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213" s="2" t="s">
         <v>257</v>
       </c>
@@ -4195,15 +4306,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:2">
       <c r="A214" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B214" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="B214" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
       <c r="A215" s="2" t="s">
         <v>259</v>
       </c>
@@ -4211,31 +4322,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:2">
       <c r="A216" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B216" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="B216" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" s="2" t="s">
         <v>263</v>
       </c>
@@ -4243,7 +4354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:2">
       <c r="A220" s="2" t="s">
         <v>264</v>
       </c>
@@ -4251,15 +4362,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:2">
       <c r="A221" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B221" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+      <c r="B221" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222" s="2" t="s">
         <v>266</v>
       </c>
@@ -4267,19 +4378,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:2">
       <c r="A223" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B223" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+      <c r="B223" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="B224" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4287,18 +4398,15 @@
       <c r="A225" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D225" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E225" s="3" t="s">
-        <v>83</v>
+      <c r="B225" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="C226" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4306,8 +4414,11 @@
       <c r="A227" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B227" s="4" t="s">
-        <v>227</v>
+      <c r="D227" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4315,23 +4426,23 @@
         <v>272</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>273</v>
+        <v>37</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>37</v>
+        <v>273</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B230" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4346,7 +4457,7 @@
       <c r="A232" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="C232" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4355,7 +4466,7 @@
         <v>278</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4373,12 +4484,6 @@
       <c r="B235" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D235" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="2" t="s">
@@ -4393,7 +4498,7 @@
         <v>282</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4403,6 +4508,12 @@
       <c r="B238" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="D238" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="2" t="s">
@@ -4417,7 +4528,7 @@
         <v>285</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4435,9 +4546,6 @@
       <c r="B242" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D242" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2" t="s">
@@ -4460,7 +4568,10 @@
         <v>290</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4484,7 +4595,7 @@
         <v>293</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4499,8 +4610,8 @@
       <c r="A250" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D250" s="4" t="s">
-        <v>43</v>
+      <c r="B250" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4523,8 +4634,8 @@
       <c r="A253" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B253" s="3" t="s">
-        <v>37</v>
+      <c r="D253" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4548,7 +4659,7 @@
         <v>301</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4556,20 +4667,20 @@
         <v>302</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>83</v>
+        <v>303</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>37</v>
@@ -4577,23 +4688,23 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>39</v>
@@ -4601,10 +4712,10 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D263" s="4" t="s">
         <v>309</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4612,10 +4723,7 @@
         <v>310</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D264" s="4" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4631,28 +4739,31 @@
         <v>312</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B267" s="3" t="s">
-        <v>37</v>
+      <c r="D267" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>37</v>
+        <v>203</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>37</v>
@@ -4660,15 +4771,15 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>37</v>
@@ -4676,7 +4787,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>37</v>
@@ -4684,7 +4795,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>37</v>
@@ -4692,7 +4803,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>39</v>
@@ -4700,7 +4811,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>37</v>
@@ -4708,7 +4819,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>37</v>
@@ -4716,7 +4827,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>37</v>
@@ -4724,15 +4835,15 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>37</v>
@@ -4740,7 +4851,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>37</v>
@@ -4748,7 +4859,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>37</v>
@@ -4756,15 +4867,15 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B282" s="4" t="s">
-        <v>43</v>
+        <v>329</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>37</v>
@@ -4772,7 +4883,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>37</v>
@@ -4780,7 +4891,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>37</v>
@@ -4788,15 +4899,15 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>37</v>
+        <v>333</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>37</v>
@@ -4804,7 +4915,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>37</v>
@@ -4812,7 +4923,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>37</v>
@@ -4820,7 +4931,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>37</v>
@@ -4828,7 +4939,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>37</v>
@@ -4836,7 +4947,7 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>37</v>
@@ -4844,7 +4955,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>37</v>
@@ -4852,7 +4963,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>37</v>
@@ -4860,34 +4971,31 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D295" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B295" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D296" s="4" t="s">
-        <v>151</v>
+        <v>343</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D297" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>37</v>
@@ -4895,39 +5003,42 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B299" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D299" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>37</v>
+        <v>347</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>37</v>
@@ -4935,7 +5046,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>37</v>
@@ -4943,26 +5054,23 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>37</v>
@@ -4970,7 +5078,7 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>37</v>
@@ -4978,15 +5086,18 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>37</v>
@@ -4994,7 +5105,7 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>37</v>
@@ -5002,15 +5113,15 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>37</v>
@@ -5018,7 +5129,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>37</v>
@@ -5026,7 +5137,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>37</v>
@@ -5034,15 +5145,15 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>37</v>
@@ -5050,7 +5161,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>37</v>
@@ -5058,7 +5169,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>37</v>
@@ -5066,7 +5177,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>37</v>
@@ -5074,15 +5185,15 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>37</v>
@@ -5090,7 +5201,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>37</v>
@@ -5098,7 +5209,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>37</v>
@@ -5106,15 +5217,15 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>37</v>
@@ -5122,7 +5233,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>37</v>
@@ -5130,7 +5241,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>37</v>
@@ -5138,7 +5249,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>37</v>
@@ -5146,7 +5257,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>37</v>
@@ -5154,7 +5265,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>37</v>
@@ -5162,7 +5273,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>37</v>
@@ -5170,7 +5281,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>37</v>
@@ -5178,7 +5289,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>37</v>
@@ -5186,7 +5297,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>37</v>
@@ -5194,120 +5305,117 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:4">
       <c r="A337" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:4">
       <c r="A339" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
       <c r="A340" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:4">
       <c r="A341" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:4">
       <c r="A342" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
       <c r="A343" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:4">
       <c r="A344" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:4">
       <c r="A345" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:4">
       <c r="A346" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
       <c r="A347" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
       <c r="A348" s="2" t="s">
         <v>395</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
       <c r="A349" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E349" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+      <c r="B349" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
         <v>397</v>
       </c>
@@ -5315,33 +5423,36 @@
         <v>37</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:4">
       <c r="A351" s="2" t="s">
         <v>398</v>
       </c>
       <c r="B351" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D351" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:4">
       <c r="A352" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B352" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="353" spans="1:7">
       <c r="A353" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>37</v>
+        <v>401</v>
+      </c>
+      <c r="E353" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="354" spans="1:7">
       <c r="A354" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>37</v>
@@ -5349,15 +5460,15 @@
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>37</v>
@@ -5365,7 +5476,7 @@
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>37</v>
@@ -5373,7 +5484,7 @@
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>37</v>
@@ -5381,7 +5492,7 @@
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>37</v>
@@ -5389,7 +5500,7 @@
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>37</v>
@@ -5397,7 +5508,7 @@
     </row>
     <row r="361" spans="1:7">
       <c r="A361" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>37</v>
@@ -5405,7 +5516,7 @@
     </row>
     <row r="362" spans="1:7">
       <c r="A362" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>37</v>
@@ -5413,69 +5524,69 @@
     </row>
     <row r="363" spans="1:7">
       <c r="A363" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G363" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="364" spans="1:7">
       <c r="A364" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D364" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="365" spans="1:7">
       <c r="A365" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>202</v>
+        <v>37</v>
       </c>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="367" spans="1:7">
       <c r="A367" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B367" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G367" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="368" spans="1:7">
       <c r="A368" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="D368" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>37</v>
+        <v>203</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>39</v>
@@ -5483,7 +5594,7 @@
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>37</v>
@@ -5491,7 +5602,7 @@
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>37</v>
@@ -5499,7 +5610,7 @@
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>37</v>
@@ -5507,15 +5618,15 @@
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>37</v>
@@ -5523,217 +5634,220 @@
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D376" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E376" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D377" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E377" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D378" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B380" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E380" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E381" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B382" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D382" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E384" s="3" t="s">
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F385" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E388" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
-      <c r="A385" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="E385" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
-      <c r="A386" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B386" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
-      <c r="A387" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B387" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
-      <c r="A388" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B388" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:6">
       <c r="A389" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B389" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
+        <v>437</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
       <c r="A390" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:6">
       <c r="A391" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:6">
       <c r="A392" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:6">
       <c r="A393" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:6">
       <c r="A394" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:6">
       <c r="A395" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B395" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B399" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
-      <c r="A396" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B396" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
-      <c r="A397" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B397" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
-      <c r="A398" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B398" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
-      <c r="A399" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B399" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:6">
       <c r="A400" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>37</v>
@@ -5741,7 +5855,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>37</v>
@@ -5749,15 +5863,15 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>37</v>
@@ -5765,7 +5879,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>37</v>
@@ -5773,7 +5887,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>37</v>
@@ -5781,7 +5895,7 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>37</v>
@@ -5789,15 +5903,15 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>37</v>
@@ -5805,15 +5919,15 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>37</v>
@@ -5821,15 +5935,15 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>37</v>
@@ -5837,15 +5951,15 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>196</v>
+        <v>39</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>37</v>
@@ -5853,7 +5967,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>37</v>
@@ -5861,7 +5975,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>37</v>
@@ -5869,15 +5983,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B417" s="4" t="s">
-        <v>151</v>
+        <v>465</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>37</v>
@@ -5885,7 +5999,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>37</v>
@@ -5893,7 +6007,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>37</v>
@@ -5901,15 +6015,15 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B421" s="3" t="s">
-        <v>37</v>
+        <v>469</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>37</v>
@@ -5917,7 +6031,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>37</v>
@@ -5925,7 +6039,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>37</v>
@@ -5933,7 +6047,7 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>37</v>
@@ -5941,7 +6055,7 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>37</v>
@@ -5949,7 +6063,7 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>37</v>
@@ -5957,7 +6071,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>37</v>
@@ -5965,7 +6079,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>37</v>
@@ -5973,7 +6087,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>37</v>
@@ -5981,7 +6095,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>37</v>
@@ -5989,15 +6103,15 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>394</v>
+        <v>37</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>37</v>
@@ -6005,7 +6119,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>37</v>
@@ -6013,7 +6127,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>37</v>
@@ -6021,15 +6135,15 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>37</v>
+        <v>399</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>37</v>
@@ -6037,15 +6151,15 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>37</v>
@@ -6053,7 +6167,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>37</v>
@@ -6061,7 +6175,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>37</v>
@@ -6069,15 +6183,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>37</v>
@@ -6085,7 +6199,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>37</v>
@@ -6093,7 +6207,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>37</v>
@@ -6101,7 +6215,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>37</v>
@@ -6109,61 +6223,61 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:2">
       <c r="A449" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
       <c r="A450" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:2">
       <c r="A451" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
       <c r="A452" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
       <c r="A453" s="2" t="s">
         <v>501</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
       <c r="A454" s="2" t="s">
         <v>502</v>
       </c>
@@ -6171,7 +6285,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:2">
       <c r="A455" s="2" t="s">
         <v>503</v>
       </c>
@@ -6179,338 +6293,338 @@
         <v>37</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:2">
       <c r="A456" s="2" t="s">
         <v>504</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
       <c r="A457" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
       <c r="A458" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:2">
       <c r="A459" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B459" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B463" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B461" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4">
-      <c r="A462" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B462" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D462" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4">
-      <c r="A463" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B463" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="D463" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:2">
       <c r="A464" s="2" t="s">
         <v>513</v>
       </c>
       <c r="B464" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
+      <c r="A465" s="2" t="s">
         <v>514</v>
-      </c>
-    </row>
-    <row r="465" spans="1:15">
-      <c r="A465" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="466" spans="1:15">
+    <row r="466" spans="1:8">
       <c r="A466" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
+      <c r="A467" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B466" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="467" spans="1:15">
-      <c r="A467" s="2" t="s">
+      <c r="B467" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="B467" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="468" spans="1:15">
+      <c r="D467" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
       <c r="A468" s="2" t="s">
         <v>518</v>
       </c>
       <c r="B468" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
+      <c r="A469" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
+      <c r="A470" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
+      <c r="A471" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
+      <c r="A472" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B472" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="469" spans="1:15">
-      <c r="A469" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="F469" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H469" s="4" t="s">
+    <row r="473" spans="1:8">
+      <c r="A473" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F473" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H473" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="470" spans="1:15">
-      <c r="A470" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B470" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="471" spans="1:15">
-      <c r="A471" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B471" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="472" spans="1:15">
-      <c r="A472" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B472" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="473" spans="1:15">
-      <c r="A473" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B473" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="474" spans="1:15">
+    <row r="474" spans="1:8">
       <c r="A474" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="475" spans="1:15">
+    <row r="475" spans="1:8">
       <c r="A475" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C475" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="476" spans="1:15">
+        <v>526</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
       <c r="A476" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="477" spans="1:15">
+        <v>527</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
       <c r="A477" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="478" spans="1:15">
+    <row r="478" spans="1:8">
       <c r="A478" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="O478" s="4" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="479" spans="1:15">
+      <c r="B478" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
       <c r="A479" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="F479" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="480" spans="1:15">
+      <c r="C479" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8">
       <c r="A480" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="F480" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3">
+      <c r="C480" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="481" spans="1:15">
       <c r="A481" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C481" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3">
+      <c r="B481" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="482" spans="1:15">
       <c r="A482" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C482" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3">
+      <c r="O482" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="483" spans="1:15">
       <c r="A483" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C483" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3">
+        <v>535</v>
+      </c>
+      <c r="F483" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="484" spans="1:15">
       <c r="A484" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C484" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3">
+        <v>536</v>
+      </c>
+      <c r="F484" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="485" spans="1:15">
       <c r="A485" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:15">
       <c r="A486" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C486" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="487" spans="1:15">
+      <c r="A487" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="488" spans="1:15">
+      <c r="A488" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="489" spans="1:15">
+      <c r="A489" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="490" spans="1:15">
+      <c r="A490" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C490" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
-      <c r="A487" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3">
-      <c r="A488" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C488" s="3" t="s">
+    <row r="491" spans="1:15">
+      <c r="A491" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="492" spans="1:15">
+      <c r="A492" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C492" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
-      <c r="A489" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C489" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3">
-      <c r="A490" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C490" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3">
-      <c r="A491" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C491" s="3" t="s">
+    <row r="493" spans="1:15">
+      <c r="A493" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="494" spans="1:15">
+      <c r="A494" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="495" spans="1:15">
+      <c r="A495" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C495" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
-      <c r="A492" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3">
-      <c r="A493" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="C493" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3">
-      <c r="A494" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3">
-      <c r="A495" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C495" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:15">
       <c r="A496" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>37</v>
@@ -6518,71 +6632,71 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C497" s="4" t="s">
-        <v>98</v>
+        <v>549</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>37</v>
+        <v>553</v>
+      </c>
+      <c r="C501" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C503" s="4" t="s">
-        <v>151</v>
+        <v>555</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C505" s="3" t="s">
         <v>37</v>
@@ -6590,310 +6704,582 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C506" s="4" t="s">
-        <v>529</v>
+        <v>558</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="B507" s="3" t="s">
-        <v>83</v>
+        <v>559</v>
+      </c>
+      <c r="C507" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B508" s="3" t="s">
-        <v>83</v>
+        <v>560</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="B509" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C509" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="B510" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C510" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B511" s="3" t="s">
-        <v>37</v>
+        <v>563</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B512" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="513" spans="1:15">
+        <v>564</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
       <c r="A513" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="B513" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C518" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="514" spans="1:15">
-      <c r="A514" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="B514" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="515" spans="1:15">
-      <c r="A515" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="B515" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="516" spans="1:15">
-      <c r="A516" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="D516" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F516" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G516" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="I516" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="O516" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="517" spans="1:15">
-      <c r="A517" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="D517" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F517" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G517" s="3" t="s">
+    <row r="519" spans="1:3">
+      <c r="A519" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C523" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I517" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="518" spans="1:15">
-      <c r="A518" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="G518" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="519" spans="1:15">
-      <c r="A519" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="G519" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="520" spans="1:15">
-      <c r="A520" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="G520" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O520" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="521" spans="1:15">
-      <c r="A521" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="G521" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="522" spans="1:15">
-      <c r="A522" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="G522" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="523" spans="1:15">
-      <c r="A523" s="2" t="s">
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="G523" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="524" spans="1:15">
-      <c r="A524" s="2" t="s">
+      <c r="C524" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="G524" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="525" spans="1:15">
-      <c r="A525" s="2" t="s">
+      <c r="C525" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B525" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="526" spans="1:15">
-      <c r="A526" s="2" t="s">
+      <c r="C526" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B526" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="527" spans="1:15">
-      <c r="A527" s="2" t="s">
+      <c r="C527" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B527" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="528" spans="1:15">
-      <c r="A528" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="B528" s="3" t="s">
+      <c r="C528" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="B529" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C529" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B530" s="3" t="s">
-        <v>196</v>
+        <v>582</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="B531" s="3" t="s">
-        <v>83</v>
+        <v>583</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="B532" s="3" t="s">
-        <v>83</v>
+        <v>584</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B533" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C533" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="B534" s="3" t="s">
-        <v>49</v>
+        <v>586</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B535" s="3" t="s">
-        <v>37</v>
+        <v>587</v>
+      </c>
+      <c r="C535" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B536" s="3" t="s">
-        <v>39</v>
+        <v>588</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B537" s="3" t="s">
-        <v>37</v>
+        <v>589</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B538" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C538" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="C539" s="4" t="s">
-        <v>227</v>
+        <v>591</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C540" s="3" t="s">
+      <c r="B541" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="545" spans="1:15">
+      <c r="A545" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B545" s="3" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="546" spans="1:15">
+      <c r="A546" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="547" spans="1:15">
+      <c r="A547" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B547" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="548" spans="1:15">
+      <c r="A548" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="549" spans="1:15">
+      <c r="A549" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D549" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F549" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G549" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="I549" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="O549" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="550" spans="1:15">
+      <c r="A550" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D550" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F550" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G550" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I550" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="551" spans="1:15">
+      <c r="A551" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G551" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="552" spans="1:15">
+      <c r="A552" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G552" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="553" spans="1:15">
+      <c r="A553" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G553" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O553" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="554" spans="1:15">
+      <c r="A554" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G554" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="555" spans="1:15">
+      <c r="A555" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="G555" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="556" spans="1:15">
+      <c r="A556" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="G556" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="557" spans="1:15">
+      <c r="A557" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G557" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="558" spans="1:15">
+      <c r="A558" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="559" spans="1:15">
+      <c r="A559" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="560" spans="1:15">
+      <c r="A560" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C565" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C573" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P540"/>
+  <autoFilter ref="A1:P574"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -7444,6 +7830,40 @@
     <hyperlink ref="A538" r:id="rId547"/>
     <hyperlink ref="A539" r:id="rId548"/>
     <hyperlink ref="A540" r:id="rId549"/>
+    <hyperlink ref="A541" r:id="rId550"/>
+    <hyperlink ref="A542" r:id="rId551"/>
+    <hyperlink ref="A543" r:id="rId552"/>
+    <hyperlink ref="A544" r:id="rId553"/>
+    <hyperlink ref="A545" r:id="rId554"/>
+    <hyperlink ref="A546" r:id="rId555"/>
+    <hyperlink ref="A547" r:id="rId556"/>
+    <hyperlink ref="A548" r:id="rId557"/>
+    <hyperlink ref="A549" r:id="rId558"/>
+    <hyperlink ref="A550" r:id="rId559"/>
+    <hyperlink ref="A551" r:id="rId560"/>
+    <hyperlink ref="A552" r:id="rId561"/>
+    <hyperlink ref="A553" r:id="rId562"/>
+    <hyperlink ref="A554" r:id="rId563"/>
+    <hyperlink ref="A555" r:id="rId564"/>
+    <hyperlink ref="A556" r:id="rId565"/>
+    <hyperlink ref="A557" r:id="rId566"/>
+    <hyperlink ref="A558" r:id="rId567"/>
+    <hyperlink ref="A559" r:id="rId568"/>
+    <hyperlink ref="A560" r:id="rId569"/>
+    <hyperlink ref="A561" r:id="rId570"/>
+    <hyperlink ref="A562" r:id="rId571"/>
+    <hyperlink ref="A563" r:id="rId572"/>
+    <hyperlink ref="A564" r:id="rId573"/>
+    <hyperlink ref="A565" r:id="rId574"/>
+    <hyperlink ref="A566" r:id="rId575"/>
+    <hyperlink ref="A567" r:id="rId576"/>
+    <hyperlink ref="A568" r:id="rId577"/>
+    <hyperlink ref="A569" r:id="rId578"/>
+    <hyperlink ref="A570" r:id="rId579"/>
+    <hyperlink ref="A571" r:id="rId580"/>
+    <hyperlink ref="A572" r:id="rId581"/>
+    <hyperlink ref="A573" r:id="rId582"/>
+    <hyperlink ref="A574" r:id="rId583"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/codeforces_results.xlsx
+++ b/groups/22-23/codeforces_results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$P$574</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$P$575</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="630">
   <si>
     <t>№</t>
   </si>
@@ -1904,6 +1904,9 @@
   </si>
   <si>
     <t>104872F</t>
+  </si>
+  <si>
+    <t>104992G</t>
   </si>
 </sst>
 </file>
@@ -2269,7 +2272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P574"/>
+  <dimension ref="A1:P575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2439,7 +2442,7 @@
         <v>691</v>
       </c>
       <c r="C4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4">
         <v>101</v>
@@ -2489,7 +2492,7 @@
         <v>458</v>
       </c>
       <c r="C5">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>29</v>
@@ -7278,8 +7281,16 @@
         <v>83</v>
       </c>
     </row>
+    <row r="575" spans="1:3">
+      <c r="A575" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P574"/>
+  <autoFilter ref="A1:P575"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -7864,6 +7875,7 @@
     <hyperlink ref="A572" r:id="rId581"/>
     <hyperlink ref="A573" r:id="rId582"/>
     <hyperlink ref="A574" r:id="rId583"/>
+    <hyperlink ref="A575" r:id="rId584"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/codeforces_results.xlsx
+++ b/groups/22-23/codeforces_results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$P$575</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$P$586</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="642">
   <si>
     <t>№</t>
   </si>
@@ -1790,6 +1790,42 @@
   </si>
   <si>
     <t>1925C</t>
+  </si>
+  <si>
+    <t>1934A</t>
+  </si>
+  <si>
+    <t>1934B</t>
+  </si>
+  <si>
+    <t>1934C</t>
+  </si>
+  <si>
+    <t>1935A</t>
+  </si>
+  <si>
+    <t>1935B</t>
+  </si>
+  <si>
+    <t>1935C</t>
+  </si>
+  <si>
+    <t>1935D</t>
+  </si>
+  <si>
+    <t>1935F</t>
+  </si>
+  <si>
+    <t>1937A</t>
+  </si>
+  <si>
+    <t>1937B</t>
+  </si>
+  <si>
+    <t>1937C</t>
+  </si>
+  <si>
+    <t>1+, 10-</t>
   </si>
   <si>
     <t>100092A</t>
@@ -2272,7 +2308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P575"/>
+  <dimension ref="A1:P586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2392,7 +2428,7 @@
         <v>1742</v>
       </c>
       <c r="C3">
-        <v>1668</v>
+        <v>1533</v>
       </c>
       <c r="D3">
         <v>432</v>
@@ -2439,10 +2475,10 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="C4">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="D4">
         <v>101</v>
@@ -2489,10 +2525,10 @@
         <v>34</v>
       </c>
       <c r="B5">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D5">
         <v>29</v>
@@ -2539,10 +2575,10 @@
         <v>35</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -6973,7 +7009,7 @@
       <c r="A539" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B539" s="3" t="s">
+      <c r="C539" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6981,16 +7017,16 @@
       <c r="A540" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B540" s="3" t="s">
-        <v>83</v>
+      <c r="C540" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B541" s="3" t="s">
-        <v>39</v>
+      <c r="C541" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6998,7 +7034,10 @@
         <v>594</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>37</v>
+        <v>207</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -7008,13 +7047,16 @@
       <c r="B543" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="C543" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B544" s="3" t="s">
-        <v>37</v>
+      <c r="B544" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="545" spans="1:15">
@@ -7022,23 +7064,23 @@
         <v>597</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="546" spans="1:15">
       <c r="A546" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B546" s="3" t="s">
-        <v>275</v>
+      <c r="B546" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="547" spans="1:15">
       <c r="A547" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="B547" s="4" t="s">
-        <v>534</v>
+      <c r="C547" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="548" spans="1:15">
@@ -7046,251 +7088,339 @@
         <v>600</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="549" spans="1:15">
       <c r="A549" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D549" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F549" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G549" s="3" t="s">
+      <c r="C549" s="3" t="s">
         <v>602</v>
-      </c>
-      <c r="I549" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="O549" s="4" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="550" spans="1:15">
       <c r="A550" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="D550" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F550" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G550" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I550" s="4" t="s">
-        <v>152</v>
+        <v>603</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="551" spans="1:15">
       <c r="A551" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="G551" s="3" t="s">
-        <v>37</v>
+        <v>604</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="552" spans="1:15">
       <c r="A552" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="G552" s="3" t="s">
-        <v>197</v>
+        <v>605</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="553" spans="1:15">
       <c r="A553" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="G553" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O553" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B553" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="554" spans="1:15">
       <c r="A554" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="G554" s="3" t="s">
-        <v>132</v>
+        <v>607</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="555" spans="1:15">
       <c r="A555" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="G555" s="4" t="s">
-        <v>534</v>
+        <v>608</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="556" spans="1:15">
       <c r="A556" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="G556" s="3" t="s">
-        <v>37</v>
+        <v>609</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="557" spans="1:15">
       <c r="A557" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="G557" s="3" t="s">
-        <v>39</v>
+        <v>610</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="558" spans="1:15">
       <c r="A558" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="B558" s="3" t="s">
-        <v>39</v>
+        <v>611</v>
+      </c>
+      <c r="B558" s="4" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="559" spans="1:15">
       <c r="A559" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="B559" s="3" t="s">
-        <v>37</v>
+        <v>612</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="560" spans="1:15">
       <c r="A560" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D560" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F560" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G560" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="B560" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3">
+      <c r="I560" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="O560" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="561" spans="1:15">
       <c r="A561" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B561" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3">
+        <v>616</v>
+      </c>
+      <c r="D561" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F561" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G561" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I561" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="562" spans="1:15">
       <c r="A562" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="B562" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3">
+        <v>617</v>
+      </c>
+      <c r="G562" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="563" spans="1:15">
       <c r="A563" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="B563" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="G563" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:15">
       <c r="A564" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="B564" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="G564" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O564" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="565" spans="1:15">
+      <c r="A565" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G565" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="566" spans="1:15">
+      <c r="A566" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G566" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="567" spans="1:15">
+      <c r="A567" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="G567" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="568" spans="1:15">
+      <c r="A568" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G568" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="569" spans="1:15">
+      <c r="A569" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="570" spans="1:15">
+      <c r="A570" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="571" spans="1:15">
+      <c r="A571" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="572" spans="1:15">
+      <c r="A572" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="573" spans="1:15">
+      <c r="A573" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="574" spans="1:15">
+      <c r="A574" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="575" spans="1:15">
+      <c r="A575" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B575" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
-      <c r="A565" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C565" s="4" t="s">
+    <row r="576" spans="1:15">
+      <c r="A576" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C576" s="4" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
-      <c r="A566" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="B566" s="3" t="s">
+    <row r="577" spans="1:3">
+      <c r="A577" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B577" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
-      <c r="A567" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="B567" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="568" spans="1:3">
-      <c r="A568" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B568" s="3" t="s">
+    <row r="578" spans="1:3">
+      <c r="A578" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B579" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
-      <c r="A569" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="B569" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3">
-      <c r="A570" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="B570" s="3" t="s">
+    <row r="580" spans="1:3">
+      <c r="A580" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B581" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
-      <c r="A571" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="B571" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3">
-      <c r="A572" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B572" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3">
-      <c r="A573" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C573" s="4" t="s">
+    <row r="582" spans="1:3">
+      <c r="A582" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C584" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
-      <c r="A574" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="C574" s="3" t="s">
+    <row r="585" spans="1:3">
+      <c r="A585" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C585" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
-      <c r="A575" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="C575" s="3" t="s">
+    <row r="586" spans="1:3">
+      <c r="A586" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C586" s="3" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P575"/>
+  <autoFilter ref="A1:P586"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -7876,6 +8006,17 @@
     <hyperlink ref="A573" r:id="rId582"/>
     <hyperlink ref="A574" r:id="rId583"/>
     <hyperlink ref="A575" r:id="rId584"/>
+    <hyperlink ref="A576" r:id="rId585"/>
+    <hyperlink ref="A577" r:id="rId586"/>
+    <hyperlink ref="A578" r:id="rId587"/>
+    <hyperlink ref="A579" r:id="rId588"/>
+    <hyperlink ref="A580" r:id="rId589"/>
+    <hyperlink ref="A581" r:id="rId590"/>
+    <hyperlink ref="A582" r:id="rId591"/>
+    <hyperlink ref="A583" r:id="rId592"/>
+    <hyperlink ref="A584" r:id="rId593"/>
+    <hyperlink ref="A585" r:id="rId594"/>
+    <hyperlink ref="A586" r:id="rId595"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/codeforces_results.xlsx
+++ b/groups/22-23/codeforces_results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$P$586</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$P$636</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="692">
   <si>
     <t>№</t>
   </si>
@@ -271,12 +271,18 @@
     <t>1+, 2-</t>
   </si>
   <si>
+    <t>182B</t>
+  </si>
+  <si>
     <t>194A</t>
   </si>
   <si>
     <t>195A</t>
   </si>
   <si>
+    <t>196A</t>
+  </si>
+  <si>
     <t>200B</t>
   </si>
   <si>
@@ -346,6 +352,9 @@
     <t>282A</t>
   </si>
   <si>
+    <t>285B</t>
+  </si>
+  <si>
     <t>289B</t>
   </si>
   <si>
@@ -583,6 +592,9 @@
     <t>706B</t>
   </si>
   <si>
+    <t>706D</t>
+  </si>
+  <si>
     <t>707A</t>
   </si>
   <si>
@@ -625,6 +637,15 @@
     <t>758A</t>
   </si>
   <si>
+    <t>761B</t>
+  </si>
+  <si>
+    <t>779B</t>
+  </si>
+  <si>
+    <t>779D</t>
+  </si>
+  <si>
     <t>785A</t>
   </si>
   <si>
@@ -676,6 +697,9 @@
     <t>913B</t>
   </si>
   <si>
+    <t>924A</t>
+  </si>
+  <si>
     <t>935A</t>
   </si>
   <si>
@@ -685,6 +709,9 @@
     <t>966A</t>
   </si>
   <si>
+    <t>967B</t>
+  </si>
+  <si>
     <t>977A</t>
   </si>
   <si>
@@ -721,6 +748,9 @@
     <t>1033B</t>
   </si>
   <si>
+    <t>1043B</t>
+  </si>
+  <si>
     <t>1057A</t>
   </si>
   <si>
@@ -736,6 +766,9 @@
     <t>1111A</t>
   </si>
   <si>
+    <t>1120C</t>
+  </si>
+  <si>
     <t>1138A</t>
   </si>
   <si>
@@ -853,6 +886,9 @@
     <t>1240B</t>
   </si>
   <si>
+    <t>1242B</t>
+  </si>
+  <si>
     <t>1249A</t>
   </si>
   <si>
@@ -1042,6 +1078,9 @@
     <t>1399B</t>
   </si>
   <si>
+    <t>1408G</t>
+  </si>
+  <si>
     <t>1409A</t>
   </si>
   <si>
@@ -1105,6 +1144,9 @@
     <t>1476A</t>
   </si>
   <si>
+    <t>1482A</t>
+  </si>
+  <si>
     <t>1490A</t>
   </si>
   <si>
@@ -1462,6 +1504,9 @@
     <t>1729A</t>
   </si>
   <si>
+    <t>1738B</t>
+  </si>
+  <si>
     <t>1741D</t>
   </si>
   <si>
@@ -1495,6 +1540,9 @@
     <t>1772A</t>
   </si>
   <si>
+    <t>1783F</t>
+  </si>
+  <si>
     <t>1790A</t>
   </si>
   <si>
@@ -1828,6 +1876,75 @@
     <t>1+, 10-</t>
   </si>
   <si>
+    <t>1941A</t>
+  </si>
+  <si>
+    <t>1941B</t>
+  </si>
+  <si>
+    <t>1941C</t>
+  </si>
+  <si>
+    <t>1941D</t>
+  </si>
+  <si>
+    <t>1944A</t>
+  </si>
+  <si>
+    <t>1944B</t>
+  </si>
+  <si>
+    <t>1944C</t>
+  </si>
+  <si>
+    <t>1945A</t>
+  </si>
+  <si>
+    <t>1948A</t>
+  </si>
+  <si>
+    <t>1948B</t>
+  </si>
+  <si>
+    <t>1948C</t>
+  </si>
+  <si>
+    <t>1948D</t>
+  </si>
+  <si>
+    <t>1954A</t>
+  </si>
+  <si>
+    <t>1954B</t>
+  </si>
+  <si>
+    <t>1954C</t>
+  </si>
+  <si>
+    <t>1954D</t>
+  </si>
+  <si>
+    <t>1968A</t>
+  </si>
+  <si>
+    <t>1968B</t>
+  </si>
+  <si>
+    <t>1968C</t>
+  </si>
+  <si>
+    <t>1968D</t>
+  </si>
+  <si>
+    <t>1982A</t>
+  </si>
+  <si>
+    <t>1982B</t>
+  </si>
+  <si>
+    <t>1982C</t>
+  </si>
+  <si>
     <t>100092A</t>
   </si>
   <si>
@@ -1915,6 +2032,24 @@
     <t>1003543</t>
   </si>
   <si>
+    <t>1017131</t>
+  </si>
+  <si>
+    <t>1017132</t>
+  </si>
+  <si>
+    <t>102139A</t>
+  </si>
+  <si>
+    <t>102139H</t>
+  </si>
+  <si>
+    <t>102139J</t>
+  </si>
+  <si>
+    <t>102139K</t>
+  </si>
+  <si>
     <t>102168A</t>
   </si>
   <si>
@@ -1939,10 +2074,25 @@
     <t>1024806</t>
   </si>
   <si>
+    <t>103623A</t>
+  </si>
+  <si>
+    <t>103623B</t>
+  </si>
+  <si>
+    <t>103623C</t>
+  </si>
+  <si>
     <t>104872F</t>
   </si>
   <si>
     <t>104992G</t>
+  </si>
+  <si>
+    <t>105030A</t>
+  </si>
+  <si>
+    <t>105030B</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P586"/>
+  <dimension ref="A1:P636"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2425,10 +2575,10 @@
         <v>32</v>
       </c>
       <c r="B3">
-        <v>1742</v>
+        <v>1764</v>
       </c>
       <c r="C3">
-        <v>1533</v>
+        <v>1639</v>
       </c>
       <c r="D3">
         <v>432</v>
@@ -2475,10 +2625,10 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="C4">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="D4">
         <v>101</v>
@@ -2487,7 +2637,7 @@
         <v>18</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G4">
         <v>45</v>
@@ -2525,10 +2675,10 @@
         <v>34</v>
       </c>
       <c r="B5">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C5">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>29</v>
@@ -2537,7 +2687,7 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -2578,7 +2728,7 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -2587,7 +2737,7 @@
         <v>6</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2984,11 +3134,8 @@
       <c r="A49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>39</v>
+      <c r="F49" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2998,6 +3145,9 @@
       <c r="B50" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="D50" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
@@ -3011,15 +3161,15 @@
       <c r="A52" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>37</v>
+      <c r="F52" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3035,7 +3185,7 @@
       <c r="A55" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3054,9 +3204,6 @@
       <c r="B57" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
@@ -3073,7 +3220,7 @@
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3090,31 +3237,34 @@
         <v>96</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>98</v>
+      <c r="B62" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3172,9 +3322,6 @@
       <c r="B71" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
@@ -3191,6 +3338,9 @@
       <c r="B73" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="D73" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
@@ -3199,18 +3349,12 @@
       <c r="B74" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3218,8 +3362,8 @@
       <c r="A76" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>43</v>
+      <c r="B76" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3229,6 +3373,12 @@
       <c r="B77" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="D77" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
@@ -3237,16 +3387,13 @@
       <c r="B78" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>37</v>
+      <c r="E79" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3257,23 +3404,26 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>37</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="F82" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
         <v>119</v>
       </c>
@@ -3281,23 +3431,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
         <v>122</v>
       </c>
@@ -3305,7 +3455,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
         <v>123</v>
       </c>
@@ -3313,7 +3463,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
         <v>124</v>
       </c>
@@ -3321,7 +3471,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:6">
       <c r="A89" s="2" t="s">
         <v>125</v>
       </c>
@@ -3329,7 +3479,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
         <v>126</v>
       </c>
@@ -3337,7 +3487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
         <v>127</v>
       </c>
@@ -3345,7 +3495,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
         <v>128</v>
       </c>
@@ -3353,7 +3503,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
         <v>129</v>
       </c>
@@ -3361,7 +3511,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
         <v>130</v>
       </c>
@@ -3369,25 +3519,25 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="B95" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>39</v>
+      <c r="B96" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>37</v>
@@ -3395,18 +3545,18 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>37</v>
+      <c r="D99" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3437,7 +3587,7 @@
       <c r="A103" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3454,14 +3604,14 @@
         <v>142</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3478,7 +3628,7 @@
         <v>145</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3525,13 +3675,13 @@
       <c r="A114" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>152</v>
+      <c r="B114" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>37</v>
@@ -3539,7 +3689,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>37</v>
@@ -3547,10 +3697,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3568,6 +3718,9 @@
       <c r="B119" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="F119" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2" t="s">
@@ -3597,7 +3750,7 @@
       <c r="A123" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3621,7 +3774,7 @@
       <c r="A126" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="D126" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3632,9 +3785,6 @@
       <c r="B127" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F127" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2" t="s">
@@ -3649,7 +3799,7 @@
         <v>167</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3659,6 +3809,9 @@
       <c r="B130" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="F130" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
@@ -3673,7 +3826,7 @@
         <v>170</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3683,12 +3836,6 @@
       <c r="B133" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2" t="s">
@@ -3713,13 +3860,19 @@
       <c r="B136" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="D136" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3727,7 +3880,7 @@
         <v>176</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3743,7 +3896,7 @@
         <v>178</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3751,45 +3904,45 @@
         <v>179</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>180</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>39</v>
+        <v>180</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="F145" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="2" t="s">
         <v>185</v>
       </c>
@@ -3797,7 +3950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:6">
       <c r="A147" s="2" t="s">
         <v>186</v>
       </c>
@@ -3805,7 +3958,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:6">
       <c r="A148" s="2" t="s">
         <v>187</v>
       </c>
@@ -3813,7 +3966,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:6">
       <c r="A149" s="2" t="s">
         <v>188</v>
       </c>
@@ -3821,7 +3974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:6">
       <c r="A150" s="2" t="s">
         <v>189</v>
       </c>
@@ -3829,23 +3982,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:6">
       <c r="A151" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="2" t="s">
         <v>192</v>
       </c>
@@ -3853,7 +4006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:6">
       <c r="A154" s="2" t="s">
         <v>193</v>
       </c>
@@ -3861,189 +4014,189 @@
         <v>37</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:6">
       <c r="A155" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="B156" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B157" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="2" t="s">
+      <c r="D161" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B162" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2" t="s">
+      <c r="B163" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B163" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2" t="s">
+      <c r="B164" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="2" t="s">
+      <c r="B165" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="F166" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="2" t="s">
+      <c r="F167" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B166" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="2" t="s">
+      <c r="B168" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2" t="s">
+      <c r="B169" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B168" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="2" t="s">
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D169" s="3" t="s">
+      <c r="B170" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="2" t="s">
+      <c r="B171" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="2" t="s">
+      <c r="B172" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="2" t="s">
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B172" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="2" t="s">
+      <c r="B173" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B173" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="2" t="s">
+      <c r="B174" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B174" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="2" t="s">
+      <c r="B175" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="2" t="s">
+      <c r="B176" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B176" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="2" t="s">
         <v>220</v>
       </c>
@@ -4051,15 +4204,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:6">
       <c r="A178" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="2" t="s">
         <v>222</v>
       </c>
@@ -4067,15 +4220,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:6">
       <c r="A180" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="B180" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="2" t="s">
         <v>224</v>
       </c>
@@ -4083,117 +4236,117 @@
         <v>37</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:6">
       <c r="A182" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B183" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="F183" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B184" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F184" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G184" s="3" t="s">
+      <c r="F193" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G193" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:7">
       <c r="A194" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" s="2" t="s">
         <v>239</v>
       </c>
@@ -4201,47 +4354,47 @@
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:7">
       <c r="A196" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="F199" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F200" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+      <c r="B200" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" s="2" t="s">
         <v>245</v>
       </c>
@@ -4249,31 +4402,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:7">
       <c r="A202" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B203" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+      <c r="B203" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="2" t="s">
         <v>249</v>
       </c>
@@ -4281,15 +4434,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:7">
       <c r="A206" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B206" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+      <c r="B206" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" s="2" t="s">
         <v>251</v>
       </c>
@@ -4297,23 +4450,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:7">
       <c r="A208" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B209" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
+      <c r="B209" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="2" t="s">
         <v>254</v>
       </c>
@@ -4321,63 +4474,63 @@
         <v>37</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:6">
       <c r="A211" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B211" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
+      <c r="F211" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B214" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
+      <c r="B214" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B216" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
+      <c r="B216" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B217" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
+      <c r="B217" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="2" t="s">
         <v>262</v>
       </c>
@@ -4385,7 +4538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:6">
       <c r="A219" s="2" t="s">
         <v>263</v>
       </c>
@@ -4393,39 +4546,39 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:6">
       <c r="A220" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B220" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
+      <c r="B220" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B222" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
+      <c r="B222" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B223" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
+      <c r="B223" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="2" t="s">
         <v>268</v>
       </c>
@@ -4438,14 +4591,14 @@
         <v>269</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="B226" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4453,11 +4606,8 @@
       <c r="A227" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D227" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E227" s="3" t="s">
-        <v>83</v>
+      <c r="B227" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4472,8 +4622,8 @@
       <c r="A229" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>228</v>
+      <c r="B229" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4481,12 +4631,12 @@
         <v>274</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>275</v>
+        <v>39</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>37</v>
@@ -4494,31 +4644,31 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>37</v>
+        <v>276</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>37</v>
+        <v>278</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>37</v>
@@ -4526,37 +4676,34 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B237" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="D238" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E238" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>37</v>
@@ -4564,21 +4711,21 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B240" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="2" t="s">
+      <c r="B241" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B241" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" s="2" t="s">
         <v>287</v>
       </c>
@@ -4586,34 +4733,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:5">
       <c r="A243" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B243" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="C243" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246" s="2" t="s">
         <v>291</v>
       </c>
@@ -4621,7 +4765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:5">
       <c r="A247" s="2" t="s">
         <v>292</v>
       </c>
@@ -4629,15 +4773,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:5">
       <c r="A248" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249" s="2" t="s">
         <v>294</v>
       </c>
@@ -4645,15 +4789,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:5">
       <c r="A250" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="251" spans="1:4">
+      <c r="D250" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251" s="2" t="s">
         <v>296</v>
       </c>
@@ -4661,23 +4811,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:5">
       <c r="A252" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D253" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
+      <c r="B253" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
       <c r="A254" s="2" t="s">
         <v>299</v>
       </c>
@@ -4685,7 +4835,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:5">
       <c r="A255" s="2" t="s">
         <v>300</v>
       </c>
@@ -4693,7 +4843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:5">
       <c r="A256" s="2" t="s">
         <v>301</v>
       </c>
@@ -4706,12 +4856,15 @@
         <v>302</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>303</v>
+        <v>37</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>37</v>
@@ -4719,7 +4872,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>37</v>
@@ -4727,7 +4880,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>39</v>
@@ -4735,23 +4888,23 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>37</v>
@@ -4759,7 +4912,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>37</v>
@@ -4767,50 +4920,47 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>37</v>
+        <v>310</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D267" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D268" s="4" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>37</v>
+        <v>315</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>37</v>
@@ -4818,7 +4968,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>37</v>
@@ -4826,77 +4976,80 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B272" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="2" t="s">
+      <c r="B273" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:4">
       <c r="A275" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B275" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="2" t="s">
+      <c r="B276" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B276" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="2" t="s">
+      <c r="B277" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:4">
       <c r="A279" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D279" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B279" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280" s="2" t="s">
         <v>327</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
+        <v>210</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281" s="2" t="s">
         <v>328</v>
       </c>
@@ -4904,7 +5057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:4">
       <c r="A282" s="2" t="s">
         <v>329</v>
       </c>
@@ -4912,7 +5065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:4">
       <c r="A283" s="2" t="s">
         <v>330</v>
       </c>
@@ -4920,7 +5073,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:4">
       <c r="A284" s="2" t="s">
         <v>331</v>
       </c>
@@ -4928,7 +5081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:4">
       <c r="A285" s="2" t="s">
         <v>332</v>
       </c>
@@ -4936,15 +5089,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:4">
       <c r="A286" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B286" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
+      <c r="B286" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287" s="2" t="s">
         <v>334</v>
       </c>
@@ -4952,7 +5105,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:4">
       <c r="A288" s="2" t="s">
         <v>335</v>
       </c>
@@ -4960,7 +5113,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:2">
       <c r="A289" s="2" t="s">
         <v>336</v>
       </c>
@@ -4968,15 +5121,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:2">
       <c r="A290" s="2" t="s">
         <v>337</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
       <c r="A291" s="2" t="s">
         <v>338</v>
       </c>
@@ -4984,7 +5137,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:2">
       <c r="A292" s="2" t="s">
         <v>339</v>
       </c>
@@ -4992,7 +5145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:2">
       <c r="A293" s="2" t="s">
         <v>340</v>
       </c>
@@ -5000,7 +5153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:2">
       <c r="A294" s="2" t="s">
         <v>341</v>
       </c>
@@ -5008,7 +5161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:2">
       <c r="A295" s="2" t="s">
         <v>342</v>
       </c>
@@ -5016,7 +5169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:2">
       <c r="A296" s="2" t="s">
         <v>343</v>
       </c>
@@ -5024,7 +5177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:2">
       <c r="A297" s="2" t="s">
         <v>344</v>
       </c>
@@ -5032,42 +5185,39 @@
         <v>37</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:2">
       <c r="A298" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B298" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4">
+      <c r="B298" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
       <c r="A299" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D299" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
+      <c r="B299" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
       <c r="A300" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D300" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
+      <c r="B300" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
       <c r="A301" s="2" t="s">
         <v>348</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D301" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
+    </row>
+    <row r="302" spans="1:2">
       <c r="A302" s="2" t="s">
         <v>349</v>
       </c>
@@ -5075,7 +5225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:2">
       <c r="A303" s="2" t="s">
         <v>350</v>
       </c>
@@ -5083,7 +5233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:2">
       <c r="A304" s="2" t="s">
         <v>351</v>
       </c>
@@ -5104,7 +5254,7 @@
         <v>353</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5130,9 +5280,6 @@
       <c r="B309" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D309" s="3" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2" t="s">
@@ -5154,7 +5301,7 @@
       <c r="A312" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="D312" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5162,8 +5309,8 @@
       <c r="A313" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B313" s="3" t="s">
-        <v>37</v>
+      <c r="D313" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -5173,6 +5320,9 @@
       <c r="B314" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="D314" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2" t="s">
@@ -5187,7 +5337,7 @@
         <v>363</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -5211,7 +5361,7 @@
         <v>366</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -5222,7 +5372,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:6">
       <c r="A321" s="2" t="s">
         <v>368</v>
       </c>
@@ -5230,15 +5380,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:6">
       <c r="A322" s="2" t="s">
         <v>369</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="323" spans="1:2">
+      <c r="D322" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
       <c r="A323" s="2" t="s">
         <v>370</v>
       </c>
@@ -5246,7 +5399,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:6">
       <c r="A324" s="2" t="s">
         <v>371</v>
       </c>
@@ -5254,15 +5407,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:6">
       <c r="A325" s="2" t="s">
         <v>372</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
       <c r="A326" s="2" t="s">
         <v>373</v>
       </c>
@@ -5270,7 +5423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:6">
       <c r="A327" s="2" t="s">
         <v>374</v>
       </c>
@@ -5278,15 +5431,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:6">
       <c r="A328" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B328" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
+      <c r="F328" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
       <c r="A329" s="2" t="s">
         <v>376</v>
       </c>
@@ -5294,15 +5447,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:6">
       <c r="A330" s="2" t="s">
         <v>377</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
       <c r="A331" s="2" t="s">
         <v>378</v>
       </c>
@@ -5310,7 +5463,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:6">
       <c r="A332" s="2" t="s">
         <v>379</v>
       </c>
@@ -5318,7 +5471,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:6">
       <c r="A333" s="2" t="s">
         <v>380</v>
       </c>
@@ -5326,7 +5479,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:6">
       <c r="A334" s="2" t="s">
         <v>381</v>
       </c>
@@ -5334,7 +5487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:6">
       <c r="A335" s="2" t="s">
         <v>382</v>
       </c>
@@ -5342,7 +5495,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:6">
       <c r="A336" s="2" t="s">
         <v>383</v>
       </c>
@@ -5350,7 +5503,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:2">
       <c r="A337" s="2" t="s">
         <v>384</v>
       </c>
@@ -5358,7 +5511,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:2">
       <c r="A338" s="2" t="s">
         <v>385</v>
       </c>
@@ -5366,15 +5519,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:2">
       <c r="A339" s="2" t="s">
         <v>386</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
       <c r="A340" s="2" t="s">
         <v>387</v>
       </c>
@@ -5382,7 +5535,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:2">
       <c r="A341" s="2" t="s">
         <v>388</v>
       </c>
@@ -5390,7 +5543,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:2">
       <c r="A342" s="2" t="s">
         <v>389</v>
       </c>
@@ -5398,15 +5551,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:2">
       <c r="A343" s="2" t="s">
         <v>390</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
       <c r="A344" s="2" t="s">
         <v>391</v>
       </c>
@@ -5414,7 +5567,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:2">
       <c r="A345" s="2" t="s">
         <v>392</v>
       </c>
@@ -5422,23 +5575,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:2">
       <c r="A346" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
       <c r="A347" s="2" t="s">
         <v>394</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
       <c r="A348" s="2" t="s">
         <v>395</v>
       </c>
@@ -5446,7 +5599,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:2">
       <c r="A349" s="2" t="s">
         <v>396</v>
       </c>
@@ -5454,7 +5607,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:2">
       <c r="A350" s="2" t="s">
         <v>397</v>
       </c>
@@ -5462,176 +5615,170 @@
         <v>37</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:2">
       <c r="A351" s="2" t="s">
         <v>398</v>
       </c>
       <c r="B351" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D351" s="3" t="s">
+      <c r="B352" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D365" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
-      <c r="A352" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7">
-      <c r="A353" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E353" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7">
-      <c r="A354" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B354" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7">
-      <c r="A355" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B355" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7">
-      <c r="A356" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B356" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7">
-      <c r="A357" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7">
-      <c r="A358" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B358" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7">
-      <c r="A359" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B359" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7">
-      <c r="A360" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7">
-      <c r="A361" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B361" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7">
-      <c r="A362" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B362" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7">
-      <c r="A363" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B363" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7">
-      <c r="A364" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B364" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7">
-      <c r="A365" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B365" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:5">
       <c r="A366" s="2" t="s">
         <v>414</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
       <c r="A367" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B367" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G367" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7">
+      <c r="E367" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
       <c r="A368" s="2" t="s">
         <v>416</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D368" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+    </row>
+    <row r="369" spans="1:7">
       <c r="A369" s="2" t="s">
         <v>417</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
       <c r="A370" s="2" t="s">
         <v>418</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
       <c r="A371" s="2" t="s">
         <v>419</v>
       </c>
@@ -5639,7 +5786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:7">
       <c r="A372" s="2" t="s">
         <v>420</v>
       </c>
@@ -5647,7 +5794,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:7">
       <c r="A373" s="2" t="s">
         <v>421</v>
       </c>
@@ -5655,15 +5802,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:7">
       <c r="A374" s="2" t="s">
         <v>422</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
       <c r="A375" s="2" t="s">
         <v>423</v>
       </c>
@@ -5671,7 +5818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:7">
       <c r="A376" s="2" t="s">
         <v>424</v>
       </c>
@@ -5679,7 +5826,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:7">
       <c r="A377" s="2" t="s">
         <v>425</v>
       </c>
@@ -5687,7 +5834,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:7">
       <c r="A378" s="2" t="s">
         <v>426</v>
       </c>
@@ -5695,7 +5842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:7">
       <c r="A379" s="2" t="s">
         <v>427</v>
       </c>
@@ -5703,59 +5850,50 @@
         <v>37</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:7">
       <c r="A380" s="2" t="s">
         <v>428</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D380" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E380" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
+    </row>
+    <row r="381" spans="1:7">
       <c r="A381" s="2" t="s">
         <v>429</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D381" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E381" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
+        <v>39</v>
+      </c>
+      <c r="G381" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
       <c r="A382" s="2" t="s">
         <v>430</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D382" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
+      <c r="D382" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
       <c r="A383" s="2" t="s">
         <v>431</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
       <c r="A384" s="2" t="s">
         <v>432</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -5765,9 +5903,6 @@
       <c r="B385" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F385" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="2" t="s">
@@ -5790,17 +5925,14 @@
         <v>436</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E388" s="3" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E389" s="3" t="s">
+      <c r="B389" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5843,6 +5975,12 @@
       <c r="B394" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="D394" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="2" t="s">
@@ -5851,6 +5989,12 @@
       <c r="B395" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="D395" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E395" s="4" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="2" t="s">
@@ -5859,13 +6003,16 @@
       <c r="B396" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="D396" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="2" t="s">
         <v>445</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -5881,7 +6028,10 @@
         <v>447</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
+      </c>
+      <c r="F399" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -5892,7 +6042,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:5">
       <c r="A401" s="2" t="s">
         <v>449</v>
       </c>
@@ -5900,23 +6050,26 @@
         <v>37</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:5">
       <c r="A402" s="2" t="s">
         <v>450</v>
       </c>
       <c r="B402" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E402" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:5">
       <c r="A403" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B403" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2">
+      <c r="E403" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
       <c r="A404" s="2" t="s">
         <v>452</v>
       </c>
@@ -5924,7 +6077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:5">
       <c r="A405" s="2" t="s">
         <v>453</v>
       </c>
@@ -5932,7 +6085,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:5">
       <c r="A406" s="2" t="s">
         <v>454</v>
       </c>
@@ -5940,7 +6093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:5">
       <c r="A407" s="2" t="s">
         <v>455</v>
       </c>
@@ -5948,7 +6101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:5">
       <c r="A408" s="2" t="s">
         <v>456</v>
       </c>
@@ -5956,7 +6109,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:5">
       <c r="A409" s="2" t="s">
         <v>457</v>
       </c>
@@ -5964,7 +6117,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:5">
       <c r="A410" s="2" t="s">
         <v>458</v>
       </c>
@@ -5972,15 +6125,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:5">
       <c r="A411" s="2" t="s">
         <v>459</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
       <c r="A412" s="2" t="s">
         <v>460</v>
       </c>
@@ -5988,15 +6141,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:5">
       <c r="A413" s="2" t="s">
         <v>461</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
       <c r="A414" s="2" t="s">
         <v>462</v>
       </c>
@@ -6004,7 +6157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:5">
       <c r="A415" s="2" t="s">
         <v>463</v>
       </c>
@@ -6012,12 +6165,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:5">
       <c r="A416" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -6025,7 +6178,7 @@
         <v>465</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>197</v>
+        <v>37</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -6056,8 +6209,8 @@
       <c r="A421" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B421" s="4" t="s">
-        <v>152</v>
+      <c r="B421" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -6089,7 +6242,7 @@
         <v>473</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -6105,7 +6258,7 @@
         <v>475</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -6137,7 +6290,7 @@
         <v>479</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>37</v>
+        <v>201</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -6148,7 +6301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:6">
       <c r="A433" s="2" t="s">
         <v>481</v>
       </c>
@@ -6156,7 +6309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:6">
       <c r="A434" s="2" t="s">
         <v>482</v>
       </c>
@@ -6164,23 +6317,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:6">
       <c r="A435" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B435" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2">
+      <c r="B435" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
       <c r="A436" s="2" t="s">
         <v>484</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
       <c r="A437" s="2" t="s">
         <v>485</v>
       </c>
@@ -6188,7 +6341,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:6">
       <c r="A438" s="2" t="s">
         <v>486</v>
       </c>
@@ -6196,7 +6349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:6">
       <c r="A439" s="2" t="s">
         <v>487</v>
       </c>
@@ -6204,7 +6357,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:6">
       <c r="A440" s="2" t="s">
         <v>488</v>
       </c>
@@ -6212,7 +6365,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:6">
       <c r="A441" s="2" t="s">
         <v>489</v>
       </c>
@@ -6220,15 +6373,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:6">
       <c r="A442" s="2" t="s">
         <v>490</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
       <c r="A443" s="2" t="s">
         <v>491</v>
       </c>
@@ -6236,7 +6389,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:6">
       <c r="A444" s="2" t="s">
         <v>492</v>
       </c>
@@ -6244,7 +6397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:6">
       <c r="A445" s="2" t="s">
         <v>493</v>
       </c>
@@ -6252,7 +6405,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:6">
       <c r="A446" s="2" t="s">
         <v>494</v>
       </c>
@@ -6260,15 +6413,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:6">
       <c r="A447" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B447" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2">
+      <c r="F447" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
       <c r="A448" s="2" t="s">
         <v>496</v>
       </c>
@@ -6297,7 +6450,7 @@
         <v>499</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>39</v>
+        <v>413</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -6313,7 +6466,7 @@
         <v>501</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -6337,20 +6490,20 @@
         <v>504</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>505</v>
+        <v>37</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>37</v>
@@ -6358,7 +6511,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>37</v>
@@ -6366,7 +6519,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>37</v>
@@ -6374,7 +6527,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>37</v>
@@ -6382,7 +6535,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>37</v>
@@ -6390,350 +6543,350 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B464" s="3" t="s">
+      <c r="B465" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B473" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
-      <c r="A465" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B465" s="3" t="s">
+    <row r="474" spans="1:2">
+      <c r="A474" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B479" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
-      <c r="A466" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B466" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D466" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="467" spans="1:8">
-      <c r="A467" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B467" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="D467" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8">
-      <c r="A468" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B468" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8">
-      <c r="A469" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B469" s="3" t="s">
+    <row r="480" spans="1:2">
+      <c r="A480" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
+      <c r="A481" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B481" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
-      <c r="A470" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B470" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="471" spans="1:8">
-      <c r="A471" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B471" s="4" t="s">
+    <row r="482" spans="1:8">
+      <c r="A482" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
+      <c r="A483" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D483" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
+      <c r="A484" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
+      <c r="A485" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
+      <c r="A486" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
+      <c r="A487" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B487" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
-      <c r="A472" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B472" s="3" t="s">
+    <row r="488" spans="1:8">
+      <c r="A488" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B488" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
-      <c r="A473" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F473" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H473" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="474" spans="1:8">
-      <c r="A474" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B474" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="475" spans="1:8">
-      <c r="A475" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="B475" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="476" spans="1:8">
-      <c r="A476" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B476" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="477" spans="1:8">
-      <c r="A477" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="B477" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8">
-      <c r="A478" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B478" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="479" spans="1:8">
-      <c r="A479" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C479" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="480" spans="1:8">
-      <c r="A480" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C480" s="3" t="s">
+    <row r="489" spans="1:8">
+      <c r="A489" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F489" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H489" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
+      <c r="A490" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
+      <c r="A491" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
+      <c r="A492" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
+      <c r="A493" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
+      <c r="A494" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
+      <c r="A495" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
+      <c r="A496" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C496" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="481" spans="1:15">
-      <c r="A481" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B481" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="482" spans="1:15">
-      <c r="A482" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="O482" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="483" spans="1:15">
-      <c r="A483" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="F483" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="484" spans="1:15">
-      <c r="A484" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="F484" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="485" spans="1:15">
-      <c r="A485" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="486" spans="1:15">
-      <c r="A486" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C486" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="487" spans="1:15">
-      <c r="A487" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="488" spans="1:15">
-      <c r="A488" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="489" spans="1:15">
-      <c r="A489" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C489" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="490" spans="1:15">
-      <c r="A490" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C490" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="491" spans="1:15">
-      <c r="A491" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C491" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="492" spans="1:15">
-      <c r="A492" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="493" spans="1:15">
-      <c r="A493" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C493" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="494" spans="1:15">
-      <c r="A494" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="495" spans="1:15">
-      <c r="A495" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C495" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="496" spans="1:15">
-      <c r="A496" s="2" t="s">
+    <row r="497" spans="1:15">
+      <c r="A497" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C496" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3">
-      <c r="A497" s="2" t="s">
+      <c r="B497" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="498" spans="1:15">
+      <c r="A498" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C497" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3">
-      <c r="A498" s="2" t="s">
+      <c r="O498" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="C498" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3">
+    </row>
+    <row r="499" spans="1:15">
       <c r="A499" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C499" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3">
+      <c r="F499" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="500" spans="1:15">
       <c r="A500" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C500" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3">
+      <c r="F500" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="501" spans="1:15">
       <c r="A501" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C501" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3">
+      <c r="C501" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="502" spans="1:15">
       <c r="A502" s="2" t="s">
         <v>554</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="503" spans="1:15">
       <c r="A503" s="2" t="s">
         <v>555</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="504" spans="1:15">
       <c r="A504" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="505" spans="1:15">
       <c r="A505" s="2" t="s">
         <v>557</v>
       </c>
@@ -6741,47 +6894,47 @@
         <v>37</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:15">
       <c r="A506" s="2" t="s">
         <v>558</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="507" spans="1:15">
       <c r="A507" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C507" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3">
+      <c r="C507" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="508" spans="1:15">
       <c r="A508" s="2" t="s">
         <v>560</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="509" spans="1:15">
       <c r="A509" s="2" t="s">
         <v>561</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="510" spans="1:15">
       <c r="A510" s="2" t="s">
         <v>562</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="511" spans="1:15">
       <c r="A511" s="2" t="s">
         <v>563</v>
       </c>
@@ -6789,7 +6942,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:15">
       <c r="A512" s="2" t="s">
         <v>564</v>
       </c>
@@ -6802,7 +6955,7 @@
         <v>565</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6810,7 +6963,7 @@
         <v>566</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6818,7 +6971,7 @@
         <v>567</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6826,15 +6979,15 @@
         <v>568</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C517" s="3" t="s">
-        <v>39</v>
+      <c r="C517" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6842,7 +6995,7 @@
         <v>570</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6850,7 +7003,7 @@
         <v>571</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6858,7 +7011,7 @@
         <v>572</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>399</v>
+        <v>39</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6881,8 +7034,8 @@
       <c r="A523" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C523" s="3" t="s">
-        <v>39</v>
+      <c r="C523" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6898,7 +7051,7 @@
         <v>577</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6914,7 +7067,7 @@
         <v>579</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6938,7 +7091,7 @@
         <v>582</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6946,7 +7099,7 @@
         <v>583</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6954,7 +7107,7 @@
         <v>584</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6962,7 +7115,7 @@
         <v>585</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6970,15 +7123,15 @@
         <v>586</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C535" s="4" t="s">
-        <v>43</v>
+      <c r="C535" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6986,7 +7139,7 @@
         <v>588</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>37</v>
+        <v>413</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6994,7 +7147,7 @@
         <v>589</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -7010,7 +7163,7 @@
         <v>591</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -7018,35 +7171,29 @@
         <v>592</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C541" s="4" t="s">
-        <v>228</v>
+      <c r="C541" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B542" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="C542" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="B543" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="C543" s="3" t="s">
         <v>37</v>
       </c>
@@ -7055,27 +7202,27 @@
       <c r="A544" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B544" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="545" spans="1:15">
+      <c r="C544" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
       <c r="A545" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B545" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="546" spans="1:15">
+      <c r="C545" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
       <c r="A546" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B546" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="547" spans="1:15">
+      <c r="C546" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
       <c r="A547" s="2" t="s">
         <v>599</v>
       </c>
@@ -7083,7 +7230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="548" spans="1:15">
+    <row r="548" spans="1:3">
       <c r="A548" s="2" t="s">
         <v>600</v>
       </c>
@@ -7091,336 +7238,748 @@
         <v>37</v>
       </c>
     </row>
-    <row r="549" spans="1:15">
+    <row r="549" spans="1:3">
       <c r="A549" s="2" t="s">
         <v>601</v>
       </c>
       <c r="C549" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" s="2" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="550" spans="1:15">
-      <c r="A550" s="2" t="s">
+      <c r="C550" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B550" s="3" t="s">
+      <c r="C551" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C555" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="551" spans="1:15">
-      <c r="A551" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="B551" s="3" t="s">
+    <row r="556" spans="1:3">
+      <c r="A556" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C557" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B560" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6">
+      <c r="A561" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6">
+      <c r="A562" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B562" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6">
+      <c r="A563" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6">
+      <c r="A564" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6">
+      <c r="A565" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6">
+      <c r="A566" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6">
+      <c r="A567" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C567" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="552" spans="1:15">
-      <c r="A552" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B552" s="3" t="s">
+    <row r="568" spans="1:6">
+      <c r="A568" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6">
+      <c r="A569" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C569" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="553" spans="1:15">
-      <c r="A553" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="B553" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="554" spans="1:15">
-      <c r="A554" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B554" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="555" spans="1:15">
-      <c r="A555" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="B555" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="556" spans="1:15">
-      <c r="A556" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B556" s="3" t="s">
+    <row r="570" spans="1:6">
+      <c r="A570" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6">
+      <c r="A571" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6">
+      <c r="A572" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6">
+      <c r="A573" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6">
+      <c r="A574" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F574" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6">
+      <c r="A575" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F575" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6">
+      <c r="A576" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6">
+      <c r="A577" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C577" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="557" spans="1:15">
-      <c r="A557" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B557" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="558" spans="1:15">
-      <c r="A558" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B558" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="559" spans="1:15">
-      <c r="A559" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C559" s="3" t="s">
+    <row r="578" spans="1:6">
+      <c r="A578" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6">
+      <c r="A579" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6">
+      <c r="A580" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6">
+      <c r="A581" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6">
+      <c r="A582" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F582" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6">
+      <c r="A583" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F583" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6">
+      <c r="A584" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F584" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6">
+      <c r="A585" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F585" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6">
+      <c r="A586" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="F586" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6">
+      <c r="A587" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="F587" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6">
+      <c r="A588" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F588" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6">
+      <c r="A589" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6">
+      <c r="A590" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6">
+      <c r="A591" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6">
+      <c r="A592" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="593" spans="1:15">
+      <c r="A593" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="594" spans="1:15">
+      <c r="A594" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="595" spans="1:15">
+      <c r="A595" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="596" spans="1:15">
+      <c r="A596" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="597" spans="1:15">
+      <c r="A597" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B597" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="598" spans="1:15">
+      <c r="A598" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C598" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="560" spans="1:15">
-      <c r="A560" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="D560" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F560" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G560" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="I560" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="O560" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="561" spans="1:15">
-      <c r="A561" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="D561" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F561" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G561" s="3" t="s">
+    <row r="599" spans="1:15">
+      <c r="A599" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D599" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F599" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G599" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="I599" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="O599" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="600" spans="1:15">
+      <c r="A600" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D600" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F600" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G600" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I561" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="562" spans="1:15">
-      <c r="A562" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="G562" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="563" spans="1:15">
-      <c r="A563" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="G563" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="564" spans="1:15">
-      <c r="A564" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="G564" s="3" t="s">
+      <c r="I600" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="601" spans="1:15">
+      <c r="A601" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="G601" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="602" spans="1:15">
+      <c r="A602" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="G602" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="603" spans="1:15">
+      <c r="A603" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="G603" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O564" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="565" spans="1:15">
-      <c r="A565" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="G565" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="566" spans="1:15">
-      <c r="A566" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="G566" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="567" spans="1:15">
-      <c r="A567" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="G567" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="568" spans="1:15">
-      <c r="A568" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="G568" s="3" t="s">
+      <c r="O603" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="604" spans="1:15">
+      <c r="A604" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="G604" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="605" spans="1:15">
+      <c r="A605" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="G605" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="606" spans="1:15">
+      <c r="A606" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="G606" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="607" spans="1:15">
+      <c r="A607" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="G607" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="569" spans="1:15">
-      <c r="A569" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="B569" s="3" t="s">
+    <row r="608" spans="1:15">
+      <c r="A608" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B608" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="570" spans="1:15">
-      <c r="A570" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="B570" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="571" spans="1:15">
-      <c r="A571" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B571" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="572" spans="1:15">
-      <c r="A572" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="B572" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="573" spans="1:15">
-      <c r="A573" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="B573" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="574" spans="1:15">
-      <c r="A574" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B574" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="575" spans="1:15">
-      <c r="A575" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B575" s="3" t="s">
+    <row r="609" spans="1:3">
+      <c r="A609" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B614" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="576" spans="1:15">
-      <c r="A576" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="C576" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="577" spans="1:3">
-      <c r="A577" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="B577" s="3" t="s">
+    <row r="615" spans="1:3">
+      <c r="A615" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C615" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C617" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C619" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
-      <c r="A578" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B578" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3">
-      <c r="A579" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="B579" s="3" t="s">
+    <row r="620" spans="1:3">
+      <c r="A620" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B624" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
-      <c r="A580" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="B580" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3">
-      <c r="A581" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B581" s="3" t="s">
+    <row r="625" spans="1:3">
+      <c r="A625" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B626" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
-      <c r="A582" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="B582" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3">
-      <c r="A583" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B583" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3">
-      <c r="A584" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="C584" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3">
-      <c r="A585" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C585" s="3" t="s">
+    <row r="627" spans="1:3">
+      <c r="A627" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C629" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C631" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
-      <c r="A586" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C586" s="3" t="s">
-        <v>37</v>
+    <row r="632" spans="1:3">
+      <c r="A632" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C632" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C636" s="4" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P586"/>
+  <autoFilter ref="A1:P636"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -8017,6 +8576,56 @@
     <hyperlink ref="A584" r:id="rId593"/>
     <hyperlink ref="A585" r:id="rId594"/>
     <hyperlink ref="A586" r:id="rId595"/>
+    <hyperlink ref="A587" r:id="rId596"/>
+    <hyperlink ref="A588" r:id="rId597"/>
+    <hyperlink ref="A589" r:id="rId598"/>
+    <hyperlink ref="A590" r:id="rId599"/>
+    <hyperlink ref="A591" r:id="rId600"/>
+    <hyperlink ref="A592" r:id="rId601"/>
+    <hyperlink ref="A593" r:id="rId602"/>
+    <hyperlink ref="A594" r:id="rId603"/>
+    <hyperlink ref="A595" r:id="rId604"/>
+    <hyperlink ref="A596" r:id="rId605"/>
+    <hyperlink ref="A597" r:id="rId606"/>
+    <hyperlink ref="A598" r:id="rId607"/>
+    <hyperlink ref="A599" r:id="rId608"/>
+    <hyperlink ref="A600" r:id="rId609"/>
+    <hyperlink ref="A601" r:id="rId610"/>
+    <hyperlink ref="A602" r:id="rId611"/>
+    <hyperlink ref="A603" r:id="rId612"/>
+    <hyperlink ref="A604" r:id="rId613"/>
+    <hyperlink ref="A605" r:id="rId614"/>
+    <hyperlink ref="A606" r:id="rId615"/>
+    <hyperlink ref="A607" r:id="rId616"/>
+    <hyperlink ref="A608" r:id="rId617"/>
+    <hyperlink ref="A609" r:id="rId618"/>
+    <hyperlink ref="A610" r:id="rId619"/>
+    <hyperlink ref="A611" r:id="rId620"/>
+    <hyperlink ref="A612" r:id="rId621"/>
+    <hyperlink ref="A613" r:id="rId622"/>
+    <hyperlink ref="A614" r:id="rId623"/>
+    <hyperlink ref="A615" r:id="rId624"/>
+    <hyperlink ref="A616" r:id="rId625"/>
+    <hyperlink ref="A617" r:id="rId626"/>
+    <hyperlink ref="A618" r:id="rId627"/>
+    <hyperlink ref="A619" r:id="rId628"/>
+    <hyperlink ref="A620" r:id="rId629"/>
+    <hyperlink ref="A621" r:id="rId630"/>
+    <hyperlink ref="A622" r:id="rId631"/>
+    <hyperlink ref="A623" r:id="rId632"/>
+    <hyperlink ref="A624" r:id="rId633"/>
+    <hyperlink ref="A625" r:id="rId634"/>
+    <hyperlink ref="A626" r:id="rId635"/>
+    <hyperlink ref="A627" r:id="rId636"/>
+    <hyperlink ref="A628" r:id="rId637"/>
+    <hyperlink ref="A629" r:id="rId638"/>
+    <hyperlink ref="A630" r:id="rId639"/>
+    <hyperlink ref="A631" r:id="rId640"/>
+    <hyperlink ref="A632" r:id="rId641"/>
+    <hyperlink ref="A633" r:id="rId642"/>
+    <hyperlink ref="A634" r:id="rId643"/>
+    <hyperlink ref="A635" r:id="rId644"/>
+    <hyperlink ref="A636" r:id="rId645"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/codeforces_results.xlsx
+++ b/groups/22-23/codeforces_results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$P$636</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$P$754</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="818">
   <si>
     <t>№</t>
   </si>
@@ -28,18 +28,21 @@
     <t>Трегубович Андрей</t>
   </si>
   <si>
+    <t>Ченченко Даниил</t>
+  </si>
+  <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
+    <t>Костюнин Егор</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
-    <t>Ченченко Даниил</t>
-  </si>
-  <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
     <t>Шатохин Данил</t>
   </si>
   <si>
@@ -61,9 +64,6 @@
     <t>Грачёв Ромен</t>
   </si>
   <si>
-    <t>Костюнин Егор</t>
-  </si>
-  <si>
     <t>Урцегов Артём</t>
   </si>
   <si>
@@ -76,18 +76,21 @@
     <t>Windroxxx</t>
   </si>
   <si>
+    <t>pchelka12</t>
+  </si>
+  <si>
+    <t>a_ntony</t>
+  </si>
+  <si>
     <t>Sasha_Medvedev</t>
   </si>
   <si>
+    <t>kjuby</t>
+  </si>
+  <si>
     <t>Vadlm</t>
   </si>
   <si>
-    <t>pchelka12</t>
-  </si>
-  <si>
-    <t>a_ntony</t>
-  </si>
-  <si>
     <t>Dinelo</t>
   </si>
   <si>
@@ -109,9 +112,6 @@
     <t>Romafka</t>
   </si>
   <si>
-    <t>kjuby</t>
-  </si>
-  <si>
     <t>AbramovichLinkoln</t>
   </si>
   <si>
@@ -289,6 +289,9 @@
     <t>202A</t>
   </si>
   <si>
+    <t>204D</t>
+  </si>
+  <si>
     <t>208A</t>
   </si>
   <si>
@@ -355,6 +358,9 @@
     <t>285B</t>
   </si>
   <si>
+    <t>285C</t>
+  </si>
+  <si>
     <t>289B</t>
   </si>
   <si>
@@ -394,6 +400,9 @@
     <t>381A</t>
   </si>
   <si>
+    <t>388B</t>
+  </si>
+  <si>
     <t>400B</t>
   </si>
   <si>
@@ -457,6 +466,12 @@
     <t>480C</t>
   </si>
   <si>
+    <t>484E</t>
+  </si>
+  <si>
+    <t>4+, 9-</t>
+  </si>
+  <si>
     <t>486A</t>
   </si>
   <si>
@@ -502,6 +517,15 @@
     <t>525A</t>
   </si>
   <si>
+    <t>528D</t>
+  </si>
+  <si>
+    <t>529C</t>
+  </si>
+  <si>
+    <t>3-</t>
+  </si>
+  <si>
     <t>535B</t>
   </si>
   <si>
@@ -511,6 +535,12 @@
     <t>546A</t>
   </si>
   <si>
+    <t>555B</t>
+  </si>
+  <si>
+    <t>2+, 2-</t>
+  </si>
+  <si>
     <t>577A</t>
   </si>
   <si>
@@ -520,6 +550,9 @@
     <t>581A</t>
   </si>
   <si>
+    <t>598C</t>
+  </si>
+  <si>
     <t>600A</t>
   </si>
   <si>
@@ -730,9 +763,6 @@
     <t>993A</t>
   </si>
   <si>
-    <t>3-</t>
-  </si>
-  <si>
     <t>996A</t>
   </si>
   <si>
@@ -784,6 +814,9 @@
     <t>1166A</t>
   </si>
   <si>
+    <t>1182A</t>
+  </si>
+  <si>
     <t>1185B</t>
   </si>
   <si>
@@ -1003,6 +1036,9 @@
     <t>1355B</t>
   </si>
   <si>
+    <t>1+, 10-</t>
+  </si>
+  <si>
     <t>1358A</t>
   </si>
   <si>
@@ -1057,6 +1093,9 @@
     <t>1375A</t>
   </si>
   <si>
+    <t>1383D</t>
+  </si>
+  <si>
     <t>1385A</t>
   </si>
   <si>
@@ -1093,6 +1132,9 @@
     <t>1422A</t>
   </si>
   <si>
+    <t>1422B</t>
+  </si>
+  <si>
     <t>1426A</t>
   </si>
   <si>
@@ -1312,6 +1354,9 @@
     <t>1622A</t>
   </si>
   <si>
+    <t>1623A</t>
+  </si>
+  <si>
     <t>1624A</t>
   </si>
   <si>
@@ -1873,9 +1918,6 @@
     <t>1937C</t>
   </si>
   <si>
-    <t>1+, 10-</t>
-  </si>
-  <si>
     <t>1941A</t>
   </si>
   <si>
@@ -1945,6 +1987,219 @@
     <t>1982C</t>
   </si>
   <si>
+    <t>1994A</t>
+  </si>
+  <si>
+    <t>2005A</t>
+  </si>
+  <si>
+    <t>2008A</t>
+  </si>
+  <si>
+    <t>2008B</t>
+  </si>
+  <si>
+    <t>2008C</t>
+  </si>
+  <si>
+    <t>2009A</t>
+  </si>
+  <si>
+    <t>2009B</t>
+  </si>
+  <si>
+    <t>2009C</t>
+  </si>
+  <si>
+    <t>2009D</t>
+  </si>
+  <si>
+    <t>2028A</t>
+  </si>
+  <si>
+    <t>2028B</t>
+  </si>
+  <si>
+    <t>2030A</t>
+  </si>
+  <si>
+    <t>2030B</t>
+  </si>
+  <si>
+    <t>2030C</t>
+  </si>
+  <si>
+    <t>2030D</t>
+  </si>
+  <si>
+    <t>2034A</t>
+  </si>
+  <si>
+    <t>2034B</t>
+  </si>
+  <si>
+    <t>2034C</t>
+  </si>
+  <si>
+    <t>2034D</t>
+  </si>
+  <si>
+    <t>2037A</t>
+  </si>
+  <si>
+    <t>2037B</t>
+  </si>
+  <si>
+    <t>2037C</t>
+  </si>
+  <si>
+    <t>2037D</t>
+  </si>
+  <si>
+    <t>2039A</t>
+  </si>
+  <si>
+    <t>2039B</t>
+  </si>
+  <si>
+    <t>2039C1</t>
+  </si>
+  <si>
+    <t>2040A</t>
+  </si>
+  <si>
+    <t>2040B</t>
+  </si>
+  <si>
+    <t>2040C</t>
+  </si>
+  <si>
+    <t>2042A</t>
+  </si>
+  <si>
+    <t>2042B</t>
+  </si>
+  <si>
+    <t>2042D</t>
+  </si>
+  <si>
+    <t>2043A</t>
+  </si>
+  <si>
+    <t>2043B</t>
+  </si>
+  <si>
+    <t>2043C</t>
+  </si>
+  <si>
+    <t>2044A</t>
+  </si>
+  <si>
+    <t>2044B</t>
+  </si>
+  <si>
+    <t>2044C</t>
+  </si>
+  <si>
+    <t>2046B</t>
+  </si>
+  <si>
+    <t>2047A</t>
+  </si>
+  <si>
+    <t>2047B</t>
+  </si>
+  <si>
+    <t>2047C</t>
+  </si>
+  <si>
+    <t>2047D</t>
+  </si>
+  <si>
+    <t>8-</t>
+  </si>
+  <si>
+    <t>2048A</t>
+  </si>
+  <si>
+    <t>2048B</t>
+  </si>
+  <si>
+    <t>2048C</t>
+  </si>
+  <si>
+    <t>2048D</t>
+  </si>
+  <si>
+    <t>2049A</t>
+  </si>
+  <si>
+    <t>2049B</t>
+  </si>
+  <si>
+    <t>2049C</t>
+  </si>
+  <si>
+    <t>2049D</t>
+  </si>
+  <si>
+    <t>2050A</t>
+  </si>
+  <si>
+    <t>2050B</t>
+  </si>
+  <si>
+    <t>2050C</t>
+  </si>
+  <si>
+    <t>2050D</t>
+  </si>
+  <si>
+    <t>2050E</t>
+  </si>
+  <si>
+    <t>2050F</t>
+  </si>
+  <si>
+    <t>2051A</t>
+  </si>
+  <si>
+    <t>2051B</t>
+  </si>
+  <si>
+    <t>2051C</t>
+  </si>
+  <si>
+    <t>2051D</t>
+  </si>
+  <si>
+    <t>2051E</t>
+  </si>
+  <si>
+    <t>2053A</t>
+  </si>
+  <si>
+    <t>2053B</t>
+  </si>
+  <si>
+    <t>2053C</t>
+  </si>
+  <si>
+    <t>2053D</t>
+  </si>
+  <si>
+    <t>2057A</t>
+  </si>
+  <si>
+    <t>2057B</t>
+  </si>
+  <si>
+    <t>2057C</t>
+  </si>
+  <si>
+    <t>2057D</t>
+  </si>
+  <si>
     <t>100092A</t>
   </si>
   <si>
@@ -2023,6 +2278,9 @@
     <t>100181F</t>
   </si>
   <si>
+    <t>100187L</t>
+  </si>
+  <si>
     <t>100249A</t>
   </si>
   <si>
@@ -2032,12 +2290,33 @@
     <t>1003543</t>
   </si>
   <si>
+    <t>100648E</t>
+  </si>
+  <si>
+    <t>100985G</t>
+  </si>
+  <si>
+    <t>101208A</t>
+  </si>
+  <si>
+    <t>101487H</t>
+  </si>
+  <si>
+    <t>31-</t>
+  </si>
+  <si>
     <t>1017131</t>
   </si>
   <si>
     <t>1017132</t>
   </si>
   <si>
+    <t>101806Q</t>
+  </si>
+  <si>
+    <t>101962C</t>
+  </si>
+  <si>
     <t>102139A</t>
   </si>
   <si>
@@ -2071,9 +2350,36 @@
     <t>102168L</t>
   </si>
   <si>
+    <t>102220C</t>
+  </si>
+  <si>
+    <t>102396C</t>
+  </si>
+  <si>
     <t>1024806</t>
   </si>
   <si>
+    <t>102535P</t>
+  </si>
+  <si>
+    <t>102535Q</t>
+  </si>
+  <si>
+    <t>102576L</t>
+  </si>
+  <si>
+    <t>102791J</t>
+  </si>
+  <si>
+    <t>103401G</t>
+  </si>
+  <si>
+    <t>103464A</t>
+  </si>
+  <si>
+    <t>103608D</t>
+  </si>
+  <si>
     <t>103623A</t>
   </si>
   <si>
@@ -2083,16 +2389,88 @@
     <t>103623C</t>
   </si>
   <si>
+    <t>103660E</t>
+  </si>
+  <si>
+    <t>3+, 2-</t>
+  </si>
+  <si>
+    <t>1040344</t>
+  </si>
+  <si>
+    <t>104097C</t>
+  </si>
+  <si>
+    <t>5+, 7-</t>
+  </si>
+  <si>
+    <t>104162H</t>
+  </si>
+  <si>
+    <t>104317E</t>
+  </si>
+  <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>104454L</t>
+  </si>
+  <si>
+    <t>104821H</t>
+  </si>
+  <si>
+    <t>4+, 5-</t>
+  </si>
+  <si>
     <t>104872F</t>
   </si>
   <si>
     <t>104992G</t>
   </si>
   <si>
+    <t>105020K</t>
+  </si>
+  <si>
     <t>105030A</t>
   </si>
   <si>
     <t>105030B</t>
+  </si>
+  <si>
+    <t>105183A</t>
+  </si>
+  <si>
+    <t>105198F</t>
+  </si>
+  <si>
+    <t>105446A</t>
+  </si>
+  <si>
+    <t>105446L</t>
+  </si>
+  <si>
+    <t>105461C</t>
+  </si>
+  <si>
+    <t>105461E</t>
+  </si>
+  <si>
+    <t>105536A</t>
+  </si>
+  <si>
+    <t>105536B</t>
+  </si>
+  <si>
+    <t>105536C</t>
+  </si>
+  <si>
+    <t>105618A</t>
+  </si>
+  <si>
+    <t>105618B</t>
+  </si>
+  <si>
+    <t>105618C</t>
   </si>
 </sst>
 </file>
@@ -2458,7 +2836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P636"/>
+  <dimension ref="A1:P754"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2575,25 +2953,25 @@
         <v>32</v>
       </c>
       <c r="B3">
-        <v>1764</v>
+        <v>1743</v>
       </c>
       <c r="C3">
-        <v>1639</v>
+        <v>1735</v>
       </c>
       <c r="D3">
+        <v>1229</v>
+      </c>
+      <c r="E3">
+        <v>1186</v>
+      </c>
+      <c r="F3">
         <v>432</v>
       </c>
-      <c r="E3">
+      <c r="G3">
+        <v>400</v>
+      </c>
+      <c r="H3">
         <v>378</v>
-      </c>
-      <c r="F3">
-        <v>358</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2625,31 +3003,31 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>712</v>
+        <v>872</v>
       </c>
       <c r="C4">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="D4">
+        <v>161</v>
+      </c>
+      <c r="E4">
+        <v>91</v>
+      </c>
+      <c r="F4">
         <v>101</v>
       </c>
-      <c r="E4">
+      <c r="G4">
+        <v>26</v>
+      </c>
+      <c r="H4">
         <v>18</v>
       </c>
-      <c r="F4">
-        <v>54</v>
-      </c>
-      <c r="G4">
-        <v>45</v>
-      </c>
-      <c r="H4">
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>16</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2664,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -2675,31 +3053,31 @@
         <v>34</v>
       </c>
       <c r="B5">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D5">
+        <v>76</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5">
         <v>29</v>
       </c>
-      <c r="E5">
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
         <v>6</v>
       </c>
-      <c r="F5">
-        <v>27</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5">
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2714,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2725,31 +3103,31 @@
         <v>35</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
         <v>12</v>
       </c>
-      <c r="E6">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
         <v>6</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2764,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2809,11 +3187,11 @@
       <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2823,7 +3201,7 @@
       <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2847,7 +3225,7 @@
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2858,7 +3236,7 @@
       <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2866,7 +3244,7 @@
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2966,10 +3344,10 @@
         <v>37</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2984,7 +3362,7 @@
       <c r="A31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2996,18 +3374,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
@@ -3015,7 +3393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -3023,7 +3401,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -3031,18 +3409,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
         <v>71</v>
       </c>
@@ -3050,7 +3428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
@@ -3058,7 +3436,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
         <v>73</v>
       </c>
@@ -3066,7 +3444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
@@ -3074,7 +3452,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
         <v>75</v>
       </c>
@@ -3082,7 +3460,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
@@ -3090,7 +3468,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
         <v>77</v>
       </c>
@@ -3098,7 +3476,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
         <v>79</v>
       </c>
@@ -3106,7 +3484,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
         <v>80</v>
       </c>
@@ -3114,7 +3492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
         <v>81</v>
       </c>
@@ -3122,7 +3500,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
         <v>82</v>
       </c>
@@ -3134,7 +3512,7 @@
       <c r="A49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3145,7 +3523,7 @@
       <c r="B50" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3161,7 +3539,7 @@
       <c r="A52" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3185,7 +3563,7 @@
       <c r="A55" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3193,7 +3571,7 @@
       <c r="A56" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3220,9 +3598,6 @@
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
@@ -3231,6 +3606,9 @@
       <c r="B60" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="D60" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
@@ -3239,9 +3617,6 @@
       <c r="B61" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
@@ -3250,32 +3625,35 @@
       <c r="B62" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="F62" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="2" t="s">
+      <c r="B65" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
         <v>102</v>
       </c>
@@ -3283,7 +3661,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
         <v>103</v>
       </c>
@@ -3291,7 +3669,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
         <v>104</v>
       </c>
@@ -3299,7 +3677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
         <v>105</v>
       </c>
@@ -3307,7 +3685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
         <v>106</v>
       </c>
@@ -3315,7 +3693,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
         <v>107</v>
       </c>
@@ -3323,7 +3701,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
         <v>108</v>
       </c>
@@ -3331,56 +3709,50 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="F74" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="B75" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="D76" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
         <v>114</v>
       </c>
@@ -3388,15 +3760,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="B79" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H79" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
         <v>116</v>
       </c>
@@ -3404,66 +3782,66 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="H81" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="B82" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="F83" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="D84" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
         <v>124</v>
       </c>
@@ -3471,7 +3849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
         <v>125</v>
       </c>
@@ -3479,7 +3857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
         <v>126</v>
       </c>
@@ -3487,15 +3865,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
         <v>128</v>
       </c>
@@ -3503,7 +3881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
         <v>129</v>
       </c>
@@ -3511,7 +3889,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
         <v>130</v>
       </c>
@@ -3519,7 +3897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
         <v>131</v>
       </c>
@@ -3527,7 +3905,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
         <v>132</v>
       </c>
@@ -3535,7 +3913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:6">
       <c r="A97" s="2" t="s">
         <v>133</v>
       </c>
@@ -3543,47 +3921,47 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="B98" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2" t="s">
+      <c r="B99" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2" t="s">
+      <c r="B100" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="2" t="s">
+      <c r="F101" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="F102" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="2" t="s">
         <v>140</v>
       </c>
@@ -3591,7 +3969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:6">
       <c r="A104" s="2" t="s">
         <v>141</v>
       </c>
@@ -3599,7 +3977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:6">
       <c r="A105" s="2" t="s">
         <v>142</v>
       </c>
@@ -3607,15 +3985,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:6">
       <c r="A106" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="B106" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
         <v>144</v>
       </c>
@@ -3623,23 +4001,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="F109" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="2" t="s">
         <v>147</v>
       </c>
@@ -3647,25 +4025,25 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:6">
       <c r="A111" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>37</v>
@@ -3673,7 +4051,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>37</v>
@@ -3681,7 +4059,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>37</v>
@@ -3689,7 +4067,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>37</v>
@@ -3697,10 +4075,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D117" s="4" t="s">
         <v>155</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3718,9 +4096,6 @@
       <c r="B119" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2" t="s">
@@ -3734,13 +4109,13 @@
       <c r="A121" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>37</v>
+      <c r="F121" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>37</v>
@@ -3748,15 +4123,18 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>37</v>
@@ -3764,7 +4142,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>37</v>
@@ -3772,15 +4150,15 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D126" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>37</v>
@@ -3788,163 +4166,160 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>167</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F130" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:8">
       <c r="A141" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:8">
       <c r="A143" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>183</v>
+        <v>37</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>39</v>
+        <v>186</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>37</v>
@@ -3952,7 +4327,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>37</v>
@@ -3960,23 +4335,23 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>37</v>
@@ -3984,31 +4359,34 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>39</v>
+        <v>83</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>37</v>
+        <v>195</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>37</v>
@@ -4016,15 +4394,15 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>37</v>
@@ -4032,7 +4410,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>37</v>
@@ -4040,7 +4418,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>37</v>
@@ -4048,7 +4426,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>37</v>
@@ -4056,26 +4434,23 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>37</v>
+        <v>202</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>201</v>
+        <v>37</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>37</v>
@@ -4083,7 +4458,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>39</v>
@@ -4091,15 +4466,15 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>37</v>
@@ -4107,39 +4482,42 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>155</v>
+        <v>208</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F167" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B168" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F168" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>210</v>
+        <v>39</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>37</v>
@@ -4147,23 +4525,23 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>214</v>
+        <v>39</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>37</v>
@@ -4171,29 +4549,26 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>37</v>
+        <v>217</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B175" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D175" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4201,20 +4576,20 @@
         <v>220</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>37</v>
@@ -4222,15 +4597,15 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>37</v>
+        <v>225</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>37</v>
@@ -4238,31 +4613,34 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F183" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>37</v>
@@ -4270,23 +4648,23 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F187" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>37</v>
@@ -4294,1079 +4672,1079 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>39</v>
+        <v>235</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B191" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:6">
       <c r="A193" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B201" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F193" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G193" s="3" t="s">
+      <c r="D201" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E201" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:6">
       <c r="A202" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:6">
       <c r="A204" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:6">
       <c r="A205" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:6">
       <c r="A207" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
+        <v>253</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F211" s="4" t="s">
+    <row r="218" spans="1:7">
+      <c r="A218" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D220" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B213" s="3" t="s">
+    <row r="221" spans="1:7">
+      <c r="A221" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B222" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B217" s="4" t="s">
+    <row r="223" spans="1:7">
+      <c r="A223" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B226" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B220" s="4" t="s">
+    <row r="227" spans="1:2">
+      <c r="A227" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B227" s="4" t="s">
+    <row r="230" spans="1:2">
+      <c r="A230" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B236" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B234" s="4" t="s">
+    <row r="237" spans="1:2">
+      <c r="A237" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B243" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
-      <c r="A235" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E238" s="3" t="s">
+    <row r="244" spans="1:8">
+      <c r="A244" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H247" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B244" s="3" t="s">
+    <row r="248" spans="1:8">
+      <c r="A248" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B253" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D250" s="3" t="s">
+    <row r="254" spans="1:8">
+      <c r="A254" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F259" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E250" s="4" t="s">
+      <c r="H259" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
-      <c r="A251" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:8">
       <c r="A260" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:8">
       <c r="A263" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:8">
       <c r="A264" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:8">
       <c r="A265" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D265" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F274" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B273" s="3" t="s">
+    <row r="275" spans="1:6">
+      <c r="A275" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B282" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D279" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D280" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:6">
       <c r="A283" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:6">
       <c r="A285" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:6">
       <c r="A286" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+        <v>336</v>
+      </c>
+      <c r="F288" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
+        <v>221</v>
+      </c>
+      <c r="F289" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:7">
       <c r="A292" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:7">
       <c r="A293" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:7">
       <c r="A294" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:7">
       <c r="A295" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:7">
       <c r="A297" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:7">
       <c r="A298" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B298" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B307" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4">
-      <c r="A305" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4">
-      <c r="A306" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B306" s="3" t="s">
+    <row r="308" spans="1:2">
+      <c r="A308" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B316" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B307" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B308" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D313" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D314" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:2">
       <c r="A317" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:2">
       <c r="A318" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:2">
       <c r="A319" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
       <c r="A320" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>37</v>
@@ -5374,7 +5752,7 @@
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>37</v>
@@ -5382,42 +5760,42 @@
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D322" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B323" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F323" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>37</v>
+        <v>374</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>37</v>
@@ -5425,7 +5803,7 @@
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>37</v>
@@ -5433,15 +5811,15 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F328" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B328" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>37</v>
@@ -5449,7 +5827,7 @@
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>39</v>
@@ -5457,7 +5835,7 @@
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>37</v>
@@ -5465,7 +5843,7 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>37</v>
@@ -5473,15 +5851,18 @@
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>37</v>
@@ -5489,7 +5870,7 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>37</v>
@@ -5497,408 +5878,402 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:4">
       <c r="A337" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:4">
       <c r="A339" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B339" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2">
+        <v>389</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
       <c r="A340" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:4">
       <c r="A341" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
       <c r="A342" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:4">
       <c r="A343" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:4">
       <c r="A344" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:4">
       <c r="A345" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:4">
       <c r="A346" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:4">
       <c r="A347" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:4">
       <c r="A348" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:4">
       <c r="A349" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
       <c r="A351" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:4">
       <c r="A352" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:2">
       <c r="A353" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:2">
       <c r="A354" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:2">
       <c r="A355" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:2">
       <c r="A356" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:2">
       <c r="A357" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
       <c r="A358" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:2">
       <c r="A359" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:2">
       <c r="A360" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
       <c r="A361" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
       <c r="A362" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:2">
       <c r="A363" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:2">
       <c r="A364" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:2">
       <c r="A365" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="D365" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="A369" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
+      <c r="A370" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="A371" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
+      <c r="A372" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
+      <c r="A373" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
+      <c r="A374" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
+      <c r="A375" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
+      <c r="A376" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F376" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
-      <c r="A366" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B366" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
-      <c r="A367" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E367" s="4" t="s">
+    <row r="377" spans="1:8">
+      <c r="A377" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
+      <c r="A378" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H378" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
-      <c r="A368" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B368" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7">
-      <c r="A369" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B369" s="3" t="s">
+    <row r="379" spans="1:8">
+      <c r="A379" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
+      <c r="A380" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B380" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
-      <c r="A370" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B370" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7">
-      <c r="A371" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B371" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7">
-      <c r="A372" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7">
-      <c r="A373" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B373" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7">
-      <c r="A374" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7">
-      <c r="A375" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B375" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7">
-      <c r="A376" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7">
-      <c r="A377" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7">
-      <c r="A378" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B378" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7">
-      <c r="A379" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7">
-      <c r="A380" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:8">
       <c r="A381" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G381" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
       <c r="A382" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D382" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7">
+    </row>
+    <row r="383" spans="1:8">
       <c r="A383" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
       <c r="A384" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>37</v>
@@ -5906,7 +6281,7 @@
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>37</v>
@@ -5914,7 +6289,7 @@
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>37</v>
@@ -5922,15 +6297,15 @@
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>37</v>
@@ -5938,7 +6313,7 @@
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>37</v>
@@ -5946,7 +6321,7 @@
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>37</v>
@@ -5954,70 +6329,61 @@
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B392" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E392" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="F393" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D394" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E394" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D395" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E395" s="4" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D396" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>37</v>
@@ -6025,157 +6391,172 @@
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F399" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
       <c r="A401" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:8">
       <c r="A402" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E402" s="3" t="s">
+    </row>
+    <row r="403" spans="1:8">
+      <c r="A403" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
+      <c r="A404" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
+      <c r="A405" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
+      <c r="A406" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F406" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H406" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
+      <c r="A407" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F407" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H407" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
+      <c r="A408" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F408" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
+      <c r="A409" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
+      <c r="A410" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
+      <c r="A411" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
+      <c r="A412" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
+      <c r="A413" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
+      <c r="A414" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H414" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
-      <c r="A403" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E403" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
-      <c r="A404" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B404" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
-      <c r="A405" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B405" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
-      <c r="A406" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B406" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
-      <c r="A407" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B407" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
-      <c r="A408" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
-      <c r="A409" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
-      <c r="A410" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B410" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
-      <c r="A411" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B411" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
-      <c r="A412" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B412" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
-      <c r="A413" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B413" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
-      <c r="A414" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B414" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:8">
       <c r="A415" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B415" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
+        <v>466</v>
+      </c>
+      <c r="H415" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
       <c r="A416" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>37</v>
@@ -6183,7 +6564,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>37</v>
@@ -6191,7 +6572,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>37</v>
@@ -6199,7 +6580,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>37</v>
@@ -6207,7 +6588,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>37</v>
@@ -6215,7 +6596,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>37</v>
@@ -6223,7 +6604,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>37</v>
@@ -6231,7 +6612,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>37</v>
@@ -6239,15 +6620,15 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>37</v>
@@ -6255,23 +6636,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>37</v>
@@ -6279,7 +6660,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>37</v>
@@ -6287,271 +6668,271 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>201</v>
+        <v>37</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:2">
       <c r="A433" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:2">
       <c r="A434" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:2">
       <c r="A435" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B435" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6">
+        <v>486</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
       <c r="A436" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:2">
       <c r="A437" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
       <c r="A438" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:2">
       <c r="A439" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
       <c r="A440" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:2">
       <c r="A441" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:2">
       <c r="A442" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:2">
       <c r="A443" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
       <c r="A444" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:2">
       <c r="A445" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:2">
       <c r="A446" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:2">
       <c r="A447" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F447" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B447" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D459" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
-      <c r="A448" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B448" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2">
-      <c r="A449" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B449" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2">
-      <c r="A450" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B450" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2">
-      <c r="A451" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B451" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2">
-      <c r="A452" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B452" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2">
-      <c r="A453" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B453" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2">
-      <c r="A454" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B454" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2">
-      <c r="A455" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B455" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2">
-      <c r="A456" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B456" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2">
-      <c r="A457" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="B457" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2">
-      <c r="A458" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B458" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2">
-      <c r="A459" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B459" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:4">
       <c r="A460" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:4">
       <c r="A461" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:4">
       <c r="A462" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:4">
       <c r="A463" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
       <c r="A464" s="2" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>37</v>
@@ -6559,7 +6940,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>37</v>
@@ -6567,7 +6948,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>37</v>
@@ -6575,15 +6956,15 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>37</v>
@@ -6591,15 +6972,15 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>37</v>
@@ -6607,7 +6988,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>37</v>
@@ -6615,23 +6996,23 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>521</v>
+        <v>37</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>37</v>
@@ -6639,7 +7020,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>37</v>
@@ -6647,7 +7028,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>37</v>
@@ -6655,7 +7036,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>37</v>
@@ -6663,7 +7044,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>37</v>
@@ -6671,7 +7052,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>39</v>
@@ -6679,288 +7060,288 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B480" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
+      <c r="A481" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6">
+      <c r="A482" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6">
+      <c r="A483" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
+      <c r="A484" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6">
+      <c r="A485" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B485" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
-      <c r="A481" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="B481" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="482" spans="1:8">
-      <c r="A482" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B482" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D482" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="483" spans="1:8">
-      <c r="A483" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B483" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="D483" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="484" spans="1:8">
-      <c r="A484" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B484" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="485" spans="1:8">
-      <c r="A485" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="B485" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:6">
       <c r="A486" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:6">
       <c r="A487" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B487" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6">
+      <c r="A488" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6">
+      <c r="A489" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6">
+      <c r="A490" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
+      <c r="A491" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6">
+      <c r="A492" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6">
+      <c r="A493" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6">
+      <c r="A494" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F494" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6">
+      <c r="A495" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F495" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6">
+      <c r="A496" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9">
+      <c r="A497" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9">
+      <c r="A498" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9">
+      <c r="A499" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B499" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
-      <c r="A488" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="B488" s="3" t="s">
+    <row r="500" spans="1:9">
+      <c r="A500" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B500" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
-      <c r="A489" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="F489" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H489" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="490" spans="1:8">
-      <c r="A490" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B490" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="491" spans="1:8">
-      <c r="A491" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="B491" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="492" spans="1:8">
-      <c r="A492" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B492" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="493" spans="1:8">
-      <c r="A493" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B493" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="494" spans="1:8">
-      <c r="A494" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="B494" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8">
-      <c r="A495" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C495" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="496" spans="1:8">
-      <c r="A496" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C496" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="497" spans="1:15">
-      <c r="A497" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B497" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="498" spans="1:15">
-      <c r="A498" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="O498" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="499" spans="1:15">
-      <c r="A499" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="F499" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="500" spans="1:15">
-      <c r="A500" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F500" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="501" spans="1:15">
+    <row r="501" spans="1:9">
       <c r="A501" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="502" spans="1:15">
+        <v>555</v>
+      </c>
+      <c r="D501" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I501" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9">
       <c r="A502" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="503" spans="1:15">
+        <v>556</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9">
       <c r="A503" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C503" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="504" spans="1:15">
+        <v>557</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9">
       <c r="A504" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C504" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="505" spans="1:15">
+        <v>558</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9">
       <c r="A505" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C505" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="506" spans="1:15">
+        <v>559</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9">
       <c r="A506" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C506" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="507" spans="1:15">
+        <v>560</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9">
       <c r="A507" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C507" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="508" spans="1:15">
+    <row r="508" spans="1:9">
       <c r="A508" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="509" spans="1:15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9">
       <c r="A509" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C509" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="510" spans="1:15">
+        <v>563</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9">
       <c r="A510" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C510" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="511" spans="1:15">
+        <v>564</v>
+      </c>
+      <c r="G510" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9">
       <c r="A511" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C511" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="512" spans="1:15">
+        <v>566</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9">
       <c r="A512" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C512" s="3" t="s">
-        <v>37</v>
+        <v>567</v>
+      </c>
+      <c r="D512" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="2" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="2" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C514" s="3" t="s">
         <v>37</v>
@@ -6968,7 +7349,7 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="2" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C515" s="3" t="s">
         <v>37</v>
@@ -6976,7 +7357,7 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="2" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C516" s="3" t="s">
         <v>37</v>
@@ -6984,39 +7365,39 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C517" s="4" t="s">
-        <v>100</v>
+        <v>572</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="2" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="2" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="2" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C521" s="3" t="s">
         <v>37</v>
@@ -7024,23 +7405,23 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="2" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>37</v>
+        <v>297</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="C523" s="4" t="s">
-        <v>155</v>
+        <v>578</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C524" s="3" t="s">
         <v>37</v>
@@ -7048,7 +7429,7 @@
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="2" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C525" s="3" t="s">
         <v>39</v>
@@ -7056,7 +7437,7 @@
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C526" s="3" t="s">
         <v>37</v>
@@ -7064,15 +7445,15 @@
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="2" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C528" s="3" t="s">
         <v>37</v>
@@ -7080,23 +7461,23 @@
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="C529" s="3" t="s">
-        <v>37</v>
+        <v>584</v>
+      </c>
+      <c r="C529" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="2" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C531" s="3" t="s">
         <v>39</v>
@@ -7104,7 +7485,7 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C532" s="3" t="s">
         <v>39</v>
@@ -7112,47 +7493,47 @@
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="C535" s="3" t="s">
-        <v>37</v>
+        <v>590</v>
+      </c>
+      <c r="C535" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>413</v>
+        <v>37</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="2" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="2" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C538" s="3" t="s">
         <v>37</v>
@@ -7160,15 +7541,15 @@
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="2" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C540" s="3" t="s">
         <v>37</v>
@@ -7176,7 +7557,7 @@
     </row>
     <row r="541" spans="1:3">
       <c r="A541" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C541" s="3" t="s">
         <v>37</v>
@@ -7184,47 +7565,47 @@
     </row>
     <row r="542" spans="1:3">
       <c r="A542" s="2" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543" s="2" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="A545" s="2" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="546" spans="1:3">
       <c r="A546" s="2" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="547" spans="1:3">
       <c r="A547" s="2" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C547" s="3" t="s">
         <v>37</v>
@@ -7232,15 +7613,15 @@
     </row>
     <row r="548" spans="1:3">
       <c r="A548" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>37</v>
+        <v>427</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549" s="2" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C549" s="3" t="s">
         <v>37</v>
@@ -7248,7 +7629,7 @@
     </row>
     <row r="550" spans="1:3">
       <c r="A550" s="2" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C550" s="3" t="s">
         <v>37</v>
@@ -7256,15 +7637,15 @@
     </row>
     <row r="551" spans="1:3">
       <c r="A551" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="C551" s="4" t="s">
-        <v>43</v>
+        <v>606</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="552" spans="1:3">
       <c r="A552" s="2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C552" s="3" t="s">
         <v>37</v>
@@ -7272,15 +7653,15 @@
     </row>
     <row r="553" spans="1:3">
       <c r="A553" s="2" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="554" spans="1:3">
       <c r="A554" s="2" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C554" s="3" t="s">
         <v>37</v>
@@ -7288,45 +7669,39 @@
     </row>
     <row r="555" spans="1:3">
       <c r="A555" s="2" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="556" spans="1:3">
       <c r="A556" s="2" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="557" spans="1:3">
       <c r="A557" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C557" s="4" t="s">
-        <v>237</v>
+        <v>612</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="558" spans="1:3">
       <c r="A558" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B558" s="3" t="s">
-        <v>214</v>
+        <v>613</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="559" spans="1:3">
       <c r="A559" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B559" s="3" t="s">
-        <v>37</v>
+        <v>614</v>
       </c>
       <c r="C559" s="3" t="s">
         <v>37</v>
@@ -7334,451 +7709,433 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="B560" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="561" spans="1:6">
+        <v>615</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
       <c r="A561" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="B561" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="562" spans="1:6">
+        <v>616</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
       <c r="A562" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B562" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="563" spans="1:6">
+        <v>617</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
       <c r="A563" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="C563" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="564" spans="1:6">
+        <v>618</v>
+      </c>
+      <c r="C563" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
       <c r="A564" s="2" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C564" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" spans="1:3">
       <c r="A565" s="2" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="566" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
       <c r="A566" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="567" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
       <c r="A567" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C567" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" spans="1:3">
       <c r="A568" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="569" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
       <c r="A569" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="C569" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="570" spans="1:6">
+        <v>624</v>
+      </c>
+      <c r="C569" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
       <c r="A570" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="571" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
       <c r="A571" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C571" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="572" spans="1:6">
+    <row r="572" spans="1:3">
       <c r="A572" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="C572" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="573" spans="1:6">
+        <v>627</v>
+      </c>
+      <c r="B572" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
       <c r="A573" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="C573" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="574" spans="1:6">
+        <v>628</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
       <c r="A574" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C574" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F574" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="575" spans="1:6">
+        <v>629</v>
+      </c>
+      <c r="B574" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
       <c r="A575" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F575" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4">
+      <c r="A586" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="A587" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D587" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="576" spans="1:6">
-      <c r="A576" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="C576" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="577" spans="1:6">
-      <c r="A577" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="C577" s="3" t="s">
+    <row r="588" spans="1:4">
+      <c r="A588" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4">
+      <c r="A589" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C589" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="578" spans="1:6">
-      <c r="A578" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="C578" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="579" spans="1:6">
-      <c r="A579" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C579" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="580" spans="1:6">
-      <c r="A580" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="C580" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="581" spans="1:6">
-      <c r="A581" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C581" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="582" spans="1:6">
-      <c r="A582" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="F582" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="583" spans="1:6">
-      <c r="A583" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F583" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="584" spans="1:6">
-      <c r="A584" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="F584" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="585" spans="1:6">
-      <c r="A585" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="F585" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="586" spans="1:6">
-      <c r="A586" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="F586" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="587" spans="1:6">
-      <c r="A587" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="F587" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="588" spans="1:6">
-      <c r="A588" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="F588" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="589" spans="1:6">
-      <c r="A589" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="B589" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="590" spans="1:6">
+    <row r="590" spans="1:4">
       <c r="A590" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B590" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="591" spans="1:6">
+        <v>645</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4">
       <c r="A591" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="B591" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="592" spans="1:6">
+        <v>646</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4">
       <c r="A592" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B592" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="593" spans="1:15">
+        <v>647</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4">
       <c r="A593" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="B593" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="594" spans="1:15">
+        <v>648</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4">
       <c r="A594" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="B594" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="595" spans="1:15">
+        <v>649</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4">
       <c r="A595" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="B595" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="596" spans="1:15">
+        <v>650</v>
+      </c>
+      <c r="D595" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4">
       <c r="A596" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B596" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="597" spans="1:15">
+        <v>651</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4">
       <c r="A597" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="B597" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="598" spans="1:15">
+        <v>652</v>
+      </c>
+      <c r="D597" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4">
       <c r="A598" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="C598" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="599" spans="1:15">
+        <v>653</v>
+      </c>
+      <c r="D598" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4">
       <c r="A599" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="D599" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F599" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G599" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="I599" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="O599" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="600" spans="1:15">
+      <c r="D599" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4">
       <c r="A600" s="2" t="s">
         <v>655</v>
       </c>
       <c r="D600" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="F600" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G600" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I600" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="601" spans="1:15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4">
       <c r="A601" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="G601" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="602" spans="1:15">
+      <c r="C601" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4">
       <c r="A602" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="G602" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="603" spans="1:15">
+      <c r="D602" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4">
       <c r="A603" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="G603" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O603" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="604" spans="1:15">
+      <c r="D603" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4">
       <c r="A604" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="G604" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="605" spans="1:15">
+      <c r="D604" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4">
       <c r="A605" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="G605" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="606" spans="1:15">
+      <c r="D605" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4">
       <c r="A606" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="G606" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="607" spans="1:15">
+      <c r="D606" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4">
       <c r="A607" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="G607" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="608" spans="1:15">
+      <c r="D607" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4">
       <c r="A608" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B608" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="609" spans="1:3">
+      <c r="D608" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5">
       <c r="A609" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="B609" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3">
+      <c r="D609" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5">
       <c r="A610" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B610" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3">
+      <c r="E610" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5">
       <c r="A611" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="B611" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3">
+      <c r="E611" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5">
       <c r="A612" s="2" t="s">
         <v>667</v>
       </c>
@@ -7786,15 +8143,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:5">
       <c r="A613" s="2" t="s">
         <v>668</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5">
       <c r="A614" s="2" t="s">
         <v>669</v>
       </c>
@@ -7802,184 +8159,1245 @@
         <v>83</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:5">
       <c r="A615" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="C615" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3">
+      <c r="B615" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5">
       <c r="A616" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="C616" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3">
+      <c r="D616" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5">
       <c r="A617" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C617" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3">
+      <c r="D617" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E617" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5">
       <c r="A618" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="C618" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3">
+      <c r="D618" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E618" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5">
       <c r="A619" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="C619" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3">
+      <c r="D619" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E619" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5">
       <c r="A620" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="C620" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3">
+      <c r="B620" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D620" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5">
       <c r="A621" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C621" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3">
+      <c r="B621" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D621" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5">
       <c r="A622" s="2" t="s">
         <v>677</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="D622" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5">
       <c r="A623" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B623" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3">
+      <c r="B623" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5">
       <c r="A624" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B624" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3">
+      <c r="D624" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E624" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5">
       <c r="A625" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B625" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3">
+      <c r="D625" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E625" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5">
       <c r="A626" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B626" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3">
+      <c r="D626" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E626" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5">
       <c r="A627" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B627" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3">
+      <c r="D627" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5">
       <c r="A628" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B628" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3">
+      <c r="D628" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5">
       <c r="A629" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="C629" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3">
+      <c r="D629" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5">
       <c r="A630" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="C630" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3">
+      <c r="B630" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D630" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5">
       <c r="A631" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="C631" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3">
+      <c r="B631" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D631" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5">
       <c r="A632" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="C632" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="633" spans="1:3">
+      <c r="B632" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5">
       <c r="A633" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="C633" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3">
+      <c r="D633" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5">
       <c r="A634" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="C634" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3">
+      <c r="D634" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5">
       <c r="A635" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="C635" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3">
+      <c r="D635" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5">
       <c r="A636" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C636" s="4" t="s">
-        <v>550</v>
+      <c r="D636" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5">
+      <c r="A637" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="D637" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5">
+      <c r="A638" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D638" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5">
+      <c r="A639" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D639" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="A640" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D640" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7">
+      <c r="A641" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="D641" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7">
+      <c r="A642" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D642" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7">
+      <c r="A643" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D643" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7">
+      <c r="A644" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D644" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7">
+      <c r="A645" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D645" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E645" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7">
+      <c r="A646" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D646" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7">
+      <c r="A647" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7">
+      <c r="A648" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7">
+      <c r="A649" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7">
+      <c r="A650" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7">
+      <c r="A651" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7">
+      <c r="A652" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D652" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G652" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7">
+      <c r="A653" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B653" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D653" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7">
+      <c r="A654" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D654" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7">
+      <c r="A655" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D655" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7">
+      <c r="A656" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D656" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5">
+      <c r="A657" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D657" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5">
+      <c r="A658" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D658" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E658" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5">
+      <c r="A659" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D659" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E659" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5">
+      <c r="A660" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="D660" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E660" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5">
+      <c r="A661" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D661" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E661" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5">
+      <c r="A662" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="D662" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E662" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5">
+      <c r="A663" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5">
+      <c r="A664" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C664" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5">
+      <c r="A665" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C665" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5">
+      <c r="A666" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5">
+      <c r="A667" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="E667" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5">
+      <c r="A668" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="E668" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5">
+      <c r="A669" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="E669" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5">
+      <c r="A670" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="E670" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5">
+      <c r="A671" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B671" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5">
+      <c r="A672" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B672" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="673" spans="1:10">
+      <c r="A673" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="674" spans="1:10">
+      <c r="A674" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="675" spans="1:10">
+      <c r="A675" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="676" spans="1:10">
+      <c r="A676" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10">
+      <c r="A677" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="678" spans="1:10">
+      <c r="A678" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="679" spans="1:10">
+      <c r="A679" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B679" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="680" spans="1:10">
+      <c r="A680" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10">
+      <c r="A681" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D681" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E681" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="F681" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G681" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="J681" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10">
+      <c r="A682" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D682" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E682" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F682" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J682" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10">
+      <c r="A683" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E683" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="684" spans="1:10">
+      <c r="A684" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E684" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10">
+      <c r="A685" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E685" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G685" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10">
+      <c r="A686" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="E686" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="687" spans="1:10">
+      <c r="A687" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E687" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="688" spans="1:10">
+      <c r="A688" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E688" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5">
+      <c r="A689" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E689" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5">
+      <c r="A690" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5">
+      <c r="A691" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5">
+      <c r="A692" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5">
+      <c r="A693" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5">
+      <c r="A694" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5">
+      <c r="A695" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5">
+      <c r="A696" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5">
+      <c r="A697" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5">
+      <c r="A698" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C698" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5">
+      <c r="A699" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5">
+      <c r="A700" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5">
+      <c r="A701" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5">
+      <c r="A702" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B702" s="4" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5">
+      <c r="A703" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C703" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5">
+      <c r="A704" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C704" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4">
+      <c r="A705" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4">
+      <c r="A706" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D706" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4">
+      <c r="A707" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C707" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4">
+      <c r="A708" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C708" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4">
+      <c r="A709" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C709" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4">
+      <c r="A710" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C710" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4">
+      <c r="A711" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4">
+      <c r="A712" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B712" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4">
+      <c r="A713" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4">
+      <c r="A714" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B714" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4">
+      <c r="A715" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4">
+      <c r="A716" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4">
+      <c r="A717" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B717" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4">
+      <c r="A718" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4">
+      <c r="A719" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4">
+      <c r="A720" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C720" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3">
+      <c r="A721" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B721" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3">
+      <c r="A722" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B722" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3">
+      <c r="A723" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B723" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3">
+      <c r="A724" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B724" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3">
+      <c r="A725" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3">
+      <c r="A726" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B726" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3">
+      <c r="A727" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3">
+      <c r="A728" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C728" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3">
+      <c r="A729" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C729" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3">
+      <c r="A730" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C730" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3">
+      <c r="A731" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B731" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3">
+      <c r="A732" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B732" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3">
+      <c r="A733" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B733" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3">
+      <c r="A734" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B734" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3">
+      <c r="A735" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3">
+      <c r="A736" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B736" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4">
+      <c r="A737" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B737" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4">
+      <c r="A738" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C738" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4">
+      <c r="A739" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4">
+      <c r="A740" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4">
+      <c r="A741" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C741" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4">
+      <c r="A742" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C742" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4">
+      <c r="A743" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4">
+      <c r="A744" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4">
+      <c r="A745" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4">
+      <c r="A746" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C746" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4">
+      <c r="A747" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C747" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4">
+      <c r="A748" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C748" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4">
+      <c r="A749" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D749" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4">
+      <c r="A750" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D750" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4">
+      <c r="A751" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D751" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4">
+      <c r="A752" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D752" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4">
+      <c r="A753" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D753" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4">
+      <c r="A754" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D754" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P636"/>
+  <autoFilter ref="A1:P754"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -8626,6 +10044,124 @@
     <hyperlink ref="A634" r:id="rId643"/>
     <hyperlink ref="A635" r:id="rId644"/>
     <hyperlink ref="A636" r:id="rId645"/>
+    <hyperlink ref="A637" r:id="rId646"/>
+    <hyperlink ref="A638" r:id="rId647"/>
+    <hyperlink ref="A639" r:id="rId648"/>
+    <hyperlink ref="A640" r:id="rId649"/>
+    <hyperlink ref="A641" r:id="rId650"/>
+    <hyperlink ref="A642" r:id="rId651"/>
+    <hyperlink ref="A643" r:id="rId652"/>
+    <hyperlink ref="A644" r:id="rId653"/>
+    <hyperlink ref="A645" r:id="rId654"/>
+    <hyperlink ref="A646" r:id="rId655"/>
+    <hyperlink ref="A647" r:id="rId656"/>
+    <hyperlink ref="A648" r:id="rId657"/>
+    <hyperlink ref="A649" r:id="rId658"/>
+    <hyperlink ref="A650" r:id="rId659"/>
+    <hyperlink ref="A651" r:id="rId660"/>
+    <hyperlink ref="A652" r:id="rId661"/>
+    <hyperlink ref="A653" r:id="rId662"/>
+    <hyperlink ref="A654" r:id="rId663"/>
+    <hyperlink ref="A655" r:id="rId664"/>
+    <hyperlink ref="A656" r:id="rId665"/>
+    <hyperlink ref="A657" r:id="rId666"/>
+    <hyperlink ref="A658" r:id="rId667"/>
+    <hyperlink ref="A659" r:id="rId668"/>
+    <hyperlink ref="A660" r:id="rId669"/>
+    <hyperlink ref="A661" r:id="rId670"/>
+    <hyperlink ref="A662" r:id="rId671"/>
+    <hyperlink ref="A663" r:id="rId672"/>
+    <hyperlink ref="A664" r:id="rId673"/>
+    <hyperlink ref="A665" r:id="rId674"/>
+    <hyperlink ref="A666" r:id="rId675"/>
+    <hyperlink ref="A667" r:id="rId676"/>
+    <hyperlink ref="A668" r:id="rId677"/>
+    <hyperlink ref="A669" r:id="rId678"/>
+    <hyperlink ref="A670" r:id="rId679"/>
+    <hyperlink ref="A671" r:id="rId680"/>
+    <hyperlink ref="A672" r:id="rId681"/>
+    <hyperlink ref="A673" r:id="rId682"/>
+    <hyperlink ref="A674" r:id="rId683"/>
+    <hyperlink ref="A675" r:id="rId684"/>
+    <hyperlink ref="A676" r:id="rId685"/>
+    <hyperlink ref="A677" r:id="rId686"/>
+    <hyperlink ref="A678" r:id="rId687"/>
+    <hyperlink ref="A679" r:id="rId688"/>
+    <hyperlink ref="A680" r:id="rId689"/>
+    <hyperlink ref="A681" r:id="rId690"/>
+    <hyperlink ref="A682" r:id="rId691"/>
+    <hyperlink ref="A683" r:id="rId692"/>
+    <hyperlink ref="A684" r:id="rId693"/>
+    <hyperlink ref="A685" r:id="rId694"/>
+    <hyperlink ref="A686" r:id="rId695"/>
+    <hyperlink ref="A687" r:id="rId696"/>
+    <hyperlink ref="A688" r:id="rId697"/>
+    <hyperlink ref="A689" r:id="rId698"/>
+    <hyperlink ref="A690" r:id="rId699"/>
+    <hyperlink ref="A691" r:id="rId700"/>
+    <hyperlink ref="A692" r:id="rId701"/>
+    <hyperlink ref="A693" r:id="rId702"/>
+    <hyperlink ref="A694" r:id="rId703"/>
+    <hyperlink ref="A695" r:id="rId704"/>
+    <hyperlink ref="A696" r:id="rId705"/>
+    <hyperlink ref="A697" r:id="rId706"/>
+    <hyperlink ref="A698" r:id="rId707"/>
+    <hyperlink ref="A699" r:id="rId708"/>
+    <hyperlink ref="A700" r:id="rId709"/>
+    <hyperlink ref="A701" r:id="rId710"/>
+    <hyperlink ref="A702" r:id="rId711"/>
+    <hyperlink ref="A703" r:id="rId712"/>
+    <hyperlink ref="A704" r:id="rId713"/>
+    <hyperlink ref="A705" r:id="rId714"/>
+    <hyperlink ref="A706" r:id="rId715"/>
+    <hyperlink ref="A707" r:id="rId716"/>
+    <hyperlink ref="A708" r:id="rId717"/>
+    <hyperlink ref="A709" r:id="rId718"/>
+    <hyperlink ref="A710" r:id="rId719"/>
+    <hyperlink ref="A711" r:id="rId720"/>
+    <hyperlink ref="A712" r:id="rId721"/>
+    <hyperlink ref="A713" r:id="rId722"/>
+    <hyperlink ref="A714" r:id="rId723"/>
+    <hyperlink ref="A715" r:id="rId724"/>
+    <hyperlink ref="A716" r:id="rId725"/>
+    <hyperlink ref="A717" r:id="rId726"/>
+    <hyperlink ref="A718" r:id="rId727"/>
+    <hyperlink ref="A719" r:id="rId728"/>
+    <hyperlink ref="A720" r:id="rId729"/>
+    <hyperlink ref="A721" r:id="rId730"/>
+    <hyperlink ref="A722" r:id="rId731"/>
+    <hyperlink ref="A723" r:id="rId732"/>
+    <hyperlink ref="A724" r:id="rId733"/>
+    <hyperlink ref="A725" r:id="rId734"/>
+    <hyperlink ref="A726" r:id="rId735"/>
+    <hyperlink ref="A727" r:id="rId736"/>
+    <hyperlink ref="A728" r:id="rId737"/>
+    <hyperlink ref="A729" r:id="rId738"/>
+    <hyperlink ref="A730" r:id="rId739"/>
+    <hyperlink ref="A731" r:id="rId740"/>
+    <hyperlink ref="A732" r:id="rId741"/>
+    <hyperlink ref="A733" r:id="rId742"/>
+    <hyperlink ref="A734" r:id="rId743"/>
+    <hyperlink ref="A735" r:id="rId744"/>
+    <hyperlink ref="A736" r:id="rId745"/>
+    <hyperlink ref="A737" r:id="rId746"/>
+    <hyperlink ref="A738" r:id="rId747"/>
+    <hyperlink ref="A739" r:id="rId748"/>
+    <hyperlink ref="A740" r:id="rId749"/>
+    <hyperlink ref="A741" r:id="rId750"/>
+    <hyperlink ref="A742" r:id="rId751"/>
+    <hyperlink ref="A743" r:id="rId752"/>
+    <hyperlink ref="A744" r:id="rId753"/>
+    <hyperlink ref="A745" r:id="rId754"/>
+    <hyperlink ref="A746" r:id="rId755"/>
+    <hyperlink ref="A747" r:id="rId756"/>
+    <hyperlink ref="A748" r:id="rId757"/>
+    <hyperlink ref="A749" r:id="rId758"/>
+    <hyperlink ref="A750" r:id="rId759"/>
+    <hyperlink ref="A751" r:id="rId760"/>
+    <hyperlink ref="A752" r:id="rId761"/>
+    <hyperlink ref="A753" r:id="rId762"/>
+    <hyperlink ref="A754" r:id="rId763"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/codeforces_results.xlsx
+++ b/groups/22-23/codeforces_results.xlsx
@@ -2302,7 +2302,7 @@
     <t>101487H</t>
   </si>
   <si>
-    <t>31-</t>
+    <t>2+, 34-</t>
   </si>
   <si>
     <t>1017131</t>
@@ -3003,7 +3003,7 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="C4">
         <v>230</v>
@@ -3053,7 +3053,7 @@
         <v>34</v>
       </c>
       <c r="B5">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C5">
         <v>105</v>
@@ -3103,7 +3103,7 @@
         <v>35</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -8973,7 +8973,7 @@
       <c r="A702" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="B702" s="4" t="s">
+      <c r="B702" s="3" t="s">
         <v>761</v>
       </c>
     </row>

--- a/groups/22-23/codeforces_results.xlsx
+++ b/groups/22-23/codeforces_results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$P$754</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$P$755</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="819">
   <si>
     <t>№</t>
   </si>
@@ -196,6 +196,12 @@
     <t>52A</t>
   </si>
   <si>
+    <t>52C</t>
+  </si>
+  <si>
+    <t>1+, 2-</t>
+  </si>
+  <si>
     <t>58A</t>
   </si>
   <si>
@@ -266,9 +272,6 @@
   </si>
   <si>
     <t>161D</t>
-  </si>
-  <si>
-    <t>1+, 2-</t>
   </si>
   <si>
     <t>182B</t>
@@ -2836,7 +2839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P754"/>
+  <dimension ref="A1:P755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3009,7 +3012,7 @@
         <v>230</v>
       </c>
       <c r="D4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E4">
         <v>91</v>
@@ -3059,7 +3062,7 @@
         <v>105</v>
       </c>
       <c r="D5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <v>23</v>
@@ -3316,13 +3319,13 @@
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>37</v>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>37</v>
@@ -3330,7 +3333,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>37</v>
@@ -3338,72 +3341,72 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>39</v>
+        <v>65</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>66</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>37</v>
@@ -3411,26 +3414,26 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>37</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>37</v>
@@ -3446,7 +3449,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>37</v>
@@ -3454,7 +3457,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>37</v>
@@ -3462,7 +3465,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>37</v>
@@ -3470,10 +3473,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3481,12 +3484,12 @@
         <v>79</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>37</v>
@@ -3494,7 +3497,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>37</v>
@@ -3502,29 +3505,26 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>37</v>
+      <c r="B49" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>39</v>
+      <c r="D50" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3534,21 +3534,24 @@
       <c r="B51" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="F51" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>43</v>
+      <c r="B52" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>37</v>
+      <c r="D53" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3571,7 +3574,7 @@
       <c r="A56" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3579,7 +3582,7 @@
       <c r="A57" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3606,9 +3609,6 @@
       <c r="B60" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
@@ -3617,6 +3617,9 @@
       <c r="B61" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="D61" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
@@ -3625,9 +3628,6 @@
       <c r="B62" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
@@ -3636,29 +3636,32 @@
       <c r="B63" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="F63" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>101</v>
+      <c r="B65" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3724,9 +3727,6 @@
       <c r="B74" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
@@ -3735,12 +3735,15 @@
       <c r="B75" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="F75" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3748,7 +3751,7 @@
       <c r="A77" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3767,12 +3770,6 @@
       <c r="B79" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
@@ -3781,21 +3778,27 @@
       <c r="B80" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="F80" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>43</v>
+      <c r="B81" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>37</v>
+      <c r="H82" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3805,15 +3808,15 @@
       <c r="B83" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="B84" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3821,7 +3824,7 @@
       <c r="A85" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3830,7 +3833,7 @@
         <v>122</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3838,7 +3841,7 @@
         <v>123</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3846,7 +3849,7 @@
         <v>124</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3870,7 +3873,7 @@
         <v>127</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3878,7 +3881,7 @@
         <v>128</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3949,24 +3952,24 @@
       <c r="A101" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>138</v>
+      <c r="B101" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>37</v>
+      <c r="F103" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4013,7 +4016,7 @@
       <c r="A109" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4021,7 +4024,7 @@
       <c r="A110" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4030,7 +4033,7 @@
         <v>148</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4038,15 +4041,15 @@
         <v>149</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4109,16 +4112,16 @@
       <c r="A121" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F121" s="4" t="s">
-        <v>160</v>
+      <c r="B121" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F122" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4128,9 +4131,6 @@
       <c r="B123" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2" t="s">
@@ -4139,6 +4139,9 @@
       <c r="B124" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="D124" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
@@ -4168,19 +4171,19 @@
       <c r="A128" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="B128" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="2" t="s">
+      <c r="E129" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="2" t="s">
         <v>170</v>
       </c>
@@ -4188,7 +4191,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
         <v>171</v>
       </c>
@@ -4196,31 +4199,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:6">
       <c r="A132" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="2" t="s">
+      <c r="B133" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F133" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="F134" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="2" t="s">
         <v>176</v>
       </c>
@@ -4228,58 +4231,58 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:6">
       <c r="A136" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="D139" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="2" t="s">
         <v>183</v>
       </c>
@@ -4287,7 +4290,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:6">
       <c r="A143" s="2" t="s">
         <v>184</v>
       </c>
@@ -4295,29 +4298,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:6">
       <c r="A144" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F144" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="F145" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
         <v>187</v>
       </c>
@@ -4325,7 +4328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:8">
       <c r="A147" s="2" t="s">
         <v>188</v>
       </c>
@@ -4333,66 +4336,66 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F152" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="2" t="s">
+      <c r="B153" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F153" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="D154" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="2" t="s">
         <v>197</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:8">
       <c r="A156" s="2" t="s">
         <v>198</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:8">
       <c r="A157" s="2" t="s">
         <v>199</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:8">
       <c r="A158" s="2" t="s">
         <v>200</v>
       </c>
@@ -4424,7 +4427,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:8">
       <c r="A159" s="2" t="s">
         <v>201</v>
       </c>
@@ -4432,12 +4435,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:8">
       <c r="A160" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4445,7 +4448,7 @@
         <v>203</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4461,7 +4464,7 @@
         <v>205</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4469,7 +4472,7 @@
         <v>206</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4500,7 +4503,7 @@
       <c r="A168" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F168" s="3" t="s">
+      <c r="B168" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4508,19 +4511,19 @@
       <c r="A169" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F169" s="3" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F170" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4528,7 +4531,7 @@
         <v>214</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4544,30 +4547,30 @@
         <v>216</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D174" s="4" t="s">
-        <v>160</v>
+      <c r="B174" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D175" s="3" t="s">
-        <v>37</v>
+      <c r="D175" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="D176" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4576,15 +4579,15 @@
         <v>220</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>221</v>
+        <v>37</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4600,15 +4603,15 @@
         <v>224</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>225</v>
+        <v>37</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4634,16 +4637,16 @@
       <c r="B184" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F184" s="3" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F185" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4651,7 +4654,7 @@
         <v>232</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4659,7 +4662,7 @@
         <v>233</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4683,22 +4686,22 @@
         <v>236</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D191" s="3" t="s">
-        <v>37</v>
+      <c r="B191" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="D192" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4715,22 +4718,22 @@
         <v>240</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D195" s="3" t="s">
-        <v>37</v>
+      <c r="B195" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="D196" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4738,16 +4741,16 @@
       <c r="A197" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F197" s="3" t="s">
-        <v>39</v>
+      <c r="B197" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B198" s="3" t="s">
-        <v>37</v>
+      <c r="F198" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4771,13 +4774,7 @@
         <v>247</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4785,7 +4782,13 @@
         <v>248</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4793,7 +4796,7 @@
         <v>249</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4809,7 +4812,7 @@
         <v>251</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4817,14 +4820,14 @@
         <v>252</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="B207" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4832,8 +4835,8 @@
       <c r="A208" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B208" s="3" t="s">
-        <v>39</v>
+      <c r="D208" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -4841,7 +4844,7 @@
         <v>255</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -4889,7 +4892,7 @@
         <v>261</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -4897,7 +4900,7 @@
         <v>262</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -4905,7 +4908,7 @@
         <v>263</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -4913,14 +4916,14 @@
         <v>264</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G219" s="3" t="s">
+      <c r="B219" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4928,16 +4931,16 @@
       <c r="A220" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D220" s="4" t="s">
-        <v>43</v>
+      <c r="G220" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B221" s="3" t="s">
-        <v>37</v>
+      <c r="D221" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -4945,23 +4948,23 @@
         <v>268</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B223" s="4" t="s">
-        <v>168</v>
+      <c r="B223" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B224" s="3" t="s">
-        <v>39</v>
+      <c r="B224" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -4969,23 +4972,23 @@
         <v>271</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B226" s="4" t="s">
-        <v>43</v>
+      <c r="B226" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B227" s="3" t="s">
-        <v>39</v>
+      <c r="B227" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5000,32 +5003,32 @@
       <c r="A229" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>43</v>
+      <c r="B229" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B230" s="3" t="s">
-        <v>37</v>
+      <c r="B230" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B231" s="4" t="s">
-        <v>160</v>
+      <c r="B231" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B232" s="3" t="s">
-        <v>39</v>
+      <c r="B232" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5033,7 +5036,7 @@
         <v>279</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5056,16 +5059,16 @@
       <c r="A236" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B236" s="4" t="s">
-        <v>43</v>
+      <c r="B236" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B237" s="3" t="s">
-        <v>37</v>
+      <c r="B237" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5073,7 +5076,7 @@
         <v>284</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5089,7 +5092,7 @@
         <v>286</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -5097,7 +5100,7 @@
         <v>287</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -5105,23 +5108,23 @@
         <v>288</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B243" s="4" t="s">
-        <v>43</v>
+      <c r="B243" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B244" s="3" t="s">
-        <v>37</v>
+      <c r="B244" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -5129,65 +5132,65 @@
         <v>291</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C246" s="3" t="s">
-        <v>37</v>
+      <c r="B246" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F247" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H247" s="3" t="s">
-        <v>83</v>
+      <c r="C247" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B248" s="3" t="s">
-        <v>37</v>
+      <c r="F248" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B249" s="4" t="s">
-        <v>168</v>
+      <c r="B249" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B250" s="3" t="s">
-        <v>297</v>
+      <c r="B250" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B251" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="B252" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5195,8 +5198,8 @@
       <c r="A253" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B253" s="3" t="s">
-        <v>83</v>
+      <c r="C253" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -5204,7 +5207,7 @@
         <v>301</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -5212,7 +5215,7 @@
         <v>302</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -5246,12 +5249,6 @@
       <c r="B259" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F259" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H259" s="4" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="2" t="s">
@@ -5260,13 +5257,19 @@
       <c r="B260" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="F260" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H260" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -5274,7 +5277,7 @@
         <v>309</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -5308,9 +5311,6 @@
       <c r="B266" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F266" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="2" t="s">
@@ -5319,6 +5319,9 @@
       <c r="B267" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="F267" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="2" t="s">
@@ -5333,7 +5336,7 @@
         <v>316</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -5341,7 +5344,7 @@
         <v>317</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -5372,16 +5375,16 @@
       <c r="A274" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F274" s="4" t="s">
-        <v>43</v>
+      <c r="B274" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B275" s="3" t="s">
-        <v>37</v>
+      <c r="F275" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -5405,15 +5408,15 @@
         <v>325</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>326</v>
+        <v>37</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B279" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -5429,7 +5432,7 @@
         <v>329</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -5437,7 +5440,7 @@
         <v>330</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -5445,7 +5448,7 @@
         <v>331</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -5453,7 +5456,7 @@
         <v>332</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -5477,37 +5480,37 @@
         <v>335</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F288" s="4" t="s">
-        <v>337</v>
+      <c r="B288" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F289" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F289" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G289" s="3" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F290" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G290" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -5547,7 +5550,7 @@
         <v>345</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -5555,7 +5558,7 @@
         <v>346</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -5579,7 +5582,7 @@
         <v>349</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -5587,7 +5590,7 @@
         <v>350</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -5642,16 +5645,16 @@
       <c r="A307" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B307" s="4" t="s">
-        <v>43</v>
+      <c r="B307" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B308" s="3" t="s">
-        <v>37</v>
+      <c r="B308" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5715,7 +5718,7 @@
         <v>366</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5723,7 +5726,7 @@
         <v>367</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5770,7 +5773,7 @@
       <c r="A323" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F323" s="3" t="s">
+      <c r="B323" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5778,19 +5781,16 @@
       <c r="A324" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F324" s="4" t="s">
-        <v>160</v>
+      <c r="F324" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B325" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="F325" s="4" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -5800,6 +5800,9 @@
       <c r="B326" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="F326" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="2" t="s">
@@ -5830,7 +5833,7 @@
         <v>380</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -5838,7 +5841,7 @@
         <v>381</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -5856,9 +5859,6 @@
       <c r="B333" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F333" s="3" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="2" t="s">
@@ -5867,6 +5867,9 @@
       <c r="B334" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="F334" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="2" t="s">
@@ -5904,7 +5907,7 @@
       <c r="A339" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D339" s="3" t="s">
+      <c r="B339" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5912,7 +5915,7 @@
       <c r="A340" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="D340" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5921,7 +5924,7 @@
         <v>391</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5929,7 +5932,7 @@
         <v>392</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5993,7 +5996,7 @@
         <v>400</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6001,7 +6004,7 @@
         <v>401</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6137,7 +6140,7 @@
         <v>418</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -6145,7 +6148,7 @@
         <v>419</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -6161,7 +6164,7 @@
         <v>421</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -6177,7 +6180,7 @@
         <v>423</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -6201,34 +6204,34 @@
         <v>426</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="F376" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B377" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B377" s="3" t="s">
-        <v>427</v>
+      <c r="F377" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H378" s="4" t="s">
-        <v>43</v>
+      <c r="B378" s="3" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B379" s="3" t="s">
-        <v>37</v>
+      <c r="H379" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -6236,7 +6239,7 @@
         <v>431</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -6244,7 +6247,7 @@
         <v>432</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -6332,9 +6335,6 @@
         <v>443</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E392" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6343,10 +6343,10 @@
         <v>444</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F393" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -6356,13 +6356,16 @@
       <c r="B394" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="F394" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="2" t="s">
         <v>446</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>221</v>
+        <v>37</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -6370,7 +6373,7 @@
         <v>447</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -6378,7 +6381,7 @@
         <v>448</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -6402,7 +6405,7 @@
         <v>451</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -6410,7 +6413,7 @@
         <v>452</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -6452,12 +6455,6 @@
       <c r="B406" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F406" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H406" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="2" t="s">
@@ -6467,10 +6464,10 @@
         <v>37</v>
       </c>
       <c r="F407" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H407" s="4" t="s">
-        <v>160</v>
+        <v>37</v>
+      </c>
+      <c r="H407" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -6481,7 +6478,10 @@
         <v>37</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="H408" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -6489,7 +6489,10 @@
         <v>460</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="F409" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -6497,7 +6500,7 @@
         <v>461</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -6507,9 +6510,6 @@
       <c r="B411" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D411" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="2" t="s">
@@ -6518,6 +6518,9 @@
       <c r="B412" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="D412" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="2" t="s">
@@ -6534,23 +6537,23 @@
       <c r="B414" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H414" s="3" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="2" t="s">
         <v>466</v>
       </c>
+      <c r="B415" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="H415" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B416" s="3" t="s">
+      <c r="H416" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6623,7 +6626,7 @@
         <v>476</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -6631,7 +6634,7 @@
         <v>477</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -6647,7 +6650,7 @@
         <v>479</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -6655,7 +6658,7 @@
         <v>480</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -6719,7 +6722,7 @@
         <v>488</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -6727,7 +6730,7 @@
         <v>489</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -6735,7 +6738,7 @@
         <v>490</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -6743,7 +6746,7 @@
         <v>491</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -6767,7 +6770,7 @@
         <v>494</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -6775,7 +6778,7 @@
         <v>495</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -6798,16 +6801,16 @@
       <c r="A447" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B447" s="4" t="s">
-        <v>160</v>
+      <c r="B447" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B448" s="3" t="s">
-        <v>37</v>
+      <c r="B448" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6894,16 +6897,16 @@
       <c r="A459" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D459" s="3" t="s">
-        <v>49</v>
+      <c r="B459" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B460" s="3" t="s">
-        <v>37</v>
+      <c r="D460" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6927,7 +6930,7 @@
         <v>514</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>427</v>
+        <v>37</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6935,7 +6938,7 @@
         <v>515</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>37</v>
+        <v>428</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -6975,7 +6978,7 @@
         <v>520</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -6983,7 +6986,7 @@
         <v>521</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -7055,7 +7058,7 @@
         <v>530</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -7063,7 +7066,7 @@
         <v>531</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -7071,7 +7074,7 @@
         <v>532</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -7079,7 +7082,7 @@
         <v>533</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -7095,15 +7098,15 @@
         <v>535</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>536</v>
+        <v>37</v>
       </c>
     </row>
     <row r="485" spans="1:6">
       <c r="A485" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B485" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="B485" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -7111,7 +7114,7 @@
         <v>538</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -7151,7 +7154,7 @@
         <v>543</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -7159,7 +7162,7 @@
         <v>544</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -7167,7 +7170,7 @@
         <v>545</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -7175,10 +7178,7 @@
         <v>546</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F494" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -7186,26 +7186,29 @@
         <v>547</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F495" s="4" t="s">
-        <v>101</v>
+        <v>37</v>
+      </c>
+      <c r="F495" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="496" spans="1:6">
       <c r="A496" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B496" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="B496" s="3" t="s">
-        <v>550</v>
+      <c r="F496" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="497" spans="1:9">
       <c r="A497" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B497" s="3" t="s">
         <v>551</v>
-      </c>
-      <c r="B497" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="498" spans="1:9">
@@ -7213,42 +7216,42 @@
         <v>552</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="499" spans="1:9">
       <c r="A499" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B499" s="4" t="s">
-        <v>43</v>
+      <c r="B499" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="500" spans="1:9">
       <c r="A500" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B500" s="3" t="s">
-        <v>83</v>
+      <c r="B500" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="501" spans="1:9">
       <c r="A501" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="D501" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I501" s="4" t="s">
-        <v>101</v>
+      <c r="B501" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="502" spans="1:9">
       <c r="A502" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B502" s="3" t="s">
-        <v>37</v>
+      <c r="D502" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I502" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="503" spans="1:9">
@@ -7287,7 +7290,7 @@
       <c r="A507" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C507" s="3" t="s">
+      <c r="B507" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7296,50 +7299,50 @@
         <v>562</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="509" spans="1:9">
       <c r="A509" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B509" s="3" t="s">
-        <v>37</v>
+      <c r="C509" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="510" spans="1:9">
       <c r="A510" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="G510" s="4" t="s">
-        <v>565</v>
+      <c r="B510" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="511" spans="1:9">
       <c r="A511" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="G511" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="D511" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="512" spans="1:9">
       <c r="A512" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D512" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
+      <c r="D512" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
       <c r="A513" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C513" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
+      <c r="D513" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
       <c r="A514" s="2" t="s">
         <v>569</v>
       </c>
@@ -7347,7 +7350,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:4">
       <c r="A515" s="2" t="s">
         <v>570</v>
       </c>
@@ -7355,7 +7358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:4">
       <c r="A516" s="2" t="s">
         <v>571</v>
       </c>
@@ -7363,7 +7366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:4">
       <c r="A517" s="2" t="s">
         <v>572</v>
       </c>
@@ -7371,79 +7374,79 @@
         <v>37</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:4">
       <c r="A518" s="2" t="s">
         <v>573</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
       <c r="A519" s="2" t="s">
         <v>574</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
       <c r="A520" s="2" t="s">
         <v>575</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
       <c r="A521" s="2" t="s">
         <v>576</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
       <c r="A522" s="2" t="s">
         <v>577</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
       <c r="A523" s="2" t="s">
         <v>578</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
       <c r="A524" s="2" t="s">
         <v>579</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
       <c r="A525" s="2" t="s">
         <v>580</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
       <c r="A526" s="2" t="s">
         <v>581</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
       <c r="A527" s="2" t="s">
         <v>582</v>
       </c>
@@ -7451,7 +7454,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:4">
       <c r="A528" s="2" t="s">
         <v>583</v>
       </c>
@@ -7463,16 +7466,16 @@
       <c r="A529" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="C529" s="4" t="s">
-        <v>101</v>
+      <c r="C529" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C530" s="3" t="s">
-        <v>39</v>
+      <c r="C530" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -7496,7 +7499,7 @@
         <v>588</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -7511,16 +7514,16 @@
       <c r="A535" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C535" s="4" t="s">
-        <v>160</v>
+      <c r="C535" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C536" s="3" t="s">
-        <v>37</v>
+      <c r="C536" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -7528,7 +7531,7 @@
         <v>592</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -7536,7 +7539,7 @@
         <v>593</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -7544,7 +7547,7 @@
         <v>594</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -7552,7 +7555,7 @@
         <v>595</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -7568,7 +7571,7 @@
         <v>597</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -7576,7 +7579,7 @@
         <v>598</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -7600,7 +7603,7 @@
         <v>601</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -7608,7 +7611,7 @@
         <v>602</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -7616,7 +7619,7 @@
         <v>603</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>427</v>
+        <v>37</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -7624,7 +7627,7 @@
         <v>604</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>37</v>
+        <v>428</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -7640,7 +7643,7 @@
         <v>606</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -7648,7 +7651,7 @@
         <v>607</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -7735,16 +7738,16 @@
       <c r="A563" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C563" s="4" t="s">
-        <v>43</v>
+      <c r="C563" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="564" spans="1:3">
       <c r="A564" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C564" s="3" t="s">
-        <v>37</v>
+      <c r="C564" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -7752,7 +7755,7 @@
         <v>620</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -7760,7 +7763,7 @@
         <v>621</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -7768,7 +7771,7 @@
         <v>622</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -7776,26 +7779,23 @@
         <v>623</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="569" spans="1:3">
       <c r="A569" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C569" s="4" t="s">
-        <v>168</v>
+      <c r="C569" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="570" spans="1:3">
       <c r="A570" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B570" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C570" s="3" t="s">
-        <v>39</v>
+      <c r="C570" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -7803,42 +7803,45 @@
         <v>626</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="572" spans="1:3">
       <c r="A572" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B572" s="4" t="s">
-        <v>168</v>
+      <c r="B572" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="573" spans="1:3">
       <c r="A573" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B573" s="3" t="s">
-        <v>37</v>
+      <c r="B573" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="574" spans="1:3">
       <c r="A574" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B574" s="4" t="s">
-        <v>160</v>
+      <c r="B574" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="575" spans="1:3">
       <c r="A575" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="C575" s="3" t="s">
-        <v>37</v>
+      <c r="B575" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -7854,7 +7857,7 @@
         <v>632</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>339</v>
+        <v>37</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -7862,7 +7865,7 @@
         <v>633</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>39</v>
+        <v>340</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -7870,7 +7873,7 @@
         <v>634</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -7878,7 +7881,7 @@
         <v>635</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -7886,7 +7889,7 @@
         <v>636</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -7894,7 +7897,7 @@
         <v>637</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -7910,7 +7913,7 @@
         <v>639</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -7918,7 +7921,7 @@
         <v>640</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -7928,19 +7931,16 @@
       <c r="C586" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D586" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="587" spans="1:4">
       <c r="A587" s="2" t="s">
         <v>642</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D587" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -7948,7 +7948,10 @@
         <v>643</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="D588" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -7956,7 +7959,7 @@
         <v>644</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -7964,7 +7967,7 @@
         <v>645</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -7988,15 +7991,15 @@
         <v>648</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>427</v>
+        <v>37</v>
       </c>
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D594" s="3" t="s">
-        <v>37</v>
+      <c r="C594" s="3" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -8043,15 +8046,15 @@
       <c r="A600" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D600" s="4" t="s">
-        <v>43</v>
+      <c r="D600" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="601" spans="1:4">
       <c r="A601" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C601" s="4" t="s">
+      <c r="D601" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8059,8 +8062,8 @@
       <c r="A602" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D602" s="3" t="s">
-        <v>83</v>
+      <c r="C602" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -8068,7 +8071,7 @@
         <v>658</v>
       </c>
       <c r="D603" s="3" t="s">
-        <v>536</v>
+        <v>60</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -8076,7 +8079,7 @@
         <v>659</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>37</v>
+        <v>537</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -8108,39 +8111,39 @@
         <v>663</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="609" spans="1:5">
       <c r="A609" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="D609" s="4" t="s">
-        <v>194</v>
+      <c r="D609" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="610" spans="1:5">
       <c r="A610" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="E610" s="3" t="s">
-        <v>49</v>
+      <c r="D610" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="611" spans="1:5">
       <c r="A611" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="E611" s="4" t="s">
-        <v>43</v>
+      <c r="E611" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B612" s="3" t="s">
-        <v>37</v>
+      <c r="E612" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="613" spans="1:5">
@@ -8156,7 +8159,7 @@
         <v>669</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="615" spans="1:5">
@@ -8164,17 +8167,14 @@
         <v>670</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="616" spans="1:5">
       <c r="A616" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="D616" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E616" s="3" t="s">
+      <c r="B616" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8186,7 +8186,7 @@
         <v>37</v>
       </c>
       <c r="E617" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -8194,32 +8194,32 @@
         <v>673</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E618" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="619" spans="1:5">
       <c r="A619" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="D619" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E619" s="4" t="s">
-        <v>43</v>
+      <c r="D619" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E619" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="620" spans="1:5">
       <c r="A620" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B620" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D620" s="3" t="s">
-        <v>37</v>
+      <c r="D620" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E620" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -8227,10 +8227,10 @@
         <v>676</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="622" spans="1:5">
@@ -8238,7 +8238,7 @@
         <v>677</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D622" s="3" t="s">
         <v>39</v>
@@ -8248,19 +8248,19 @@
       <c r="A623" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B623" s="4" t="s">
-        <v>160</v>
+      <c r="B623" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D623" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="624" spans="1:5">
       <c r="A624" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="D624" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E624" s="4" t="s">
-        <v>43</v>
+      <c r="B624" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -8268,10 +8268,10 @@
         <v>680</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="E625" s="4" t="s">
-        <v>565</v>
+        <v>43</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -8279,10 +8279,10 @@
         <v>681</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E626" s="4" t="s">
-        <v>43</v>
+        <v>566</v>
       </c>
     </row>
     <row r="627" spans="1:5">
@@ -8292,32 +8292,32 @@
       <c r="D627" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="E627" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="628" spans="1:5">
       <c r="A628" s="2" t="s">
         <v>683</v>
       </c>
       <c r="D628" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="629" spans="1:5">
       <c r="A629" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="D629" s="4" t="s">
-        <v>101</v>
+      <c r="D629" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="630" spans="1:5">
       <c r="A630" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B630" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D630" s="3" t="s">
-        <v>37</v>
+      <c r="D630" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -8328,7 +8328,7 @@
         <v>37</v>
       </c>
       <c r="D631" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -8336,6 +8336,9 @@
         <v>687</v>
       </c>
       <c r="B632" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D632" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8343,8 +8346,8 @@
       <c r="A633" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="D633" s="3" t="s">
-        <v>297</v>
+      <c r="B633" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -8352,23 +8355,23 @@
         <v>689</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
     </row>
     <row r="635" spans="1:5">
       <c r="A635" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="D635" s="4" t="s">
-        <v>43</v>
+      <c r="D635" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="636" spans="1:5">
       <c r="A636" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="D636" s="3" t="s">
-        <v>37</v>
+      <c r="D636" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="637" spans="1:5">
@@ -8376,7 +8379,7 @@
         <v>692</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="638" spans="1:5">
@@ -8384,23 +8387,23 @@
         <v>693</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="639" spans="1:5">
       <c r="A639" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="D639" s="4" t="s">
-        <v>160</v>
+      <c r="D639" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="640" spans="1:5">
       <c r="A640" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="D640" s="3" t="s">
-        <v>37</v>
+      <c r="D640" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="641" spans="1:7">
@@ -8408,7 +8411,7 @@
         <v>696</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="642" spans="1:7">
@@ -8416,29 +8419,23 @@
         <v>697</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="643" spans="1:7">
       <c r="A643" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="D643" s="4" t="s">
-        <v>699</v>
+      <c r="D643" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="644" spans="1:7">
       <c r="A644" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D644" s="4" t="s">
         <v>700</v>
-      </c>
-      <c r="C644" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D644" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E644" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="645" spans="1:7">
@@ -8449,10 +8446,10 @@
         <v>37</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E645" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="646" spans="1:7">
@@ -8466,7 +8463,7 @@
         <v>39</v>
       </c>
       <c r="E646" s="3" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="647" spans="1:7">
@@ -8476,6 +8473,12 @@
       <c r="C647" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="D647" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E647" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="648" spans="1:7">
       <c r="A648" s="2" t="s">
@@ -8513,13 +8516,7 @@
       <c r="A652" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="B652" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D652" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G652" s="3" t="s">
+      <c r="C652" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8527,10 +8524,13 @@
       <c r="A653" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="B653" s="4" t="s">
-        <v>43</v>
+      <c r="B653" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D653" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G653" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8538,11 +8538,11 @@
       <c r="A654" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="B654" s="3" t="s">
-        <v>37</v>
+      <c r="B654" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D654" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="655" spans="1:7">
@@ -8553,7 +8553,7 @@
         <v>37</v>
       </c>
       <c r="D655" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="656" spans="1:7">
@@ -8564,7 +8564,7 @@
         <v>37</v>
       </c>
       <c r="D656" s="3" t="s">
-        <v>221</v>
+        <v>37</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -8575,17 +8575,17 @@
         <v>37</v>
       </c>
       <c r="D657" s="3" t="s">
-        <v>37</v>
+        <v>222</v>
       </c>
     </row>
     <row r="658" spans="1:5">
       <c r="A658" s="2" t="s">
         <v>714</v>
       </c>
+      <c r="B658" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D658" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E658" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8607,8 +8607,8 @@
       <c r="D660" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E660" s="4" t="s">
-        <v>160</v>
+      <c r="E660" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -8618,8 +8618,8 @@
       <c r="D661" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E661" s="3" t="s">
-        <v>212</v>
+      <c r="E661" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -8630,15 +8630,18 @@
         <v>37</v>
       </c>
       <c r="E662" s="3" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
     </row>
     <row r="663" spans="1:5">
       <c r="A663" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C663" s="3" t="s">
-        <v>37</v>
+      <c r="D663" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E663" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -8669,7 +8672,7 @@
       <c r="A667" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="E667" s="3" t="s">
+      <c r="C667" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8677,8 +8680,8 @@
       <c r="A668" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="E668" s="4" t="s">
-        <v>43</v>
+      <c r="E668" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -8686,7 +8689,7 @@
         <v>725</v>
       </c>
       <c r="E669" s="4" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -8694,15 +8697,15 @@
         <v>726</v>
       </c>
       <c r="E670" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="671" spans="1:5">
       <c r="A671" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="B671" s="3" t="s">
-        <v>83</v>
+      <c r="E671" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -8710,7 +8713,7 @@
         <v>728</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="673" spans="1:10">
@@ -8718,7 +8721,7 @@
         <v>729</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="674" spans="1:10">
@@ -8726,7 +8729,7 @@
         <v>730</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="675" spans="1:10">
@@ -8750,7 +8753,7 @@
         <v>733</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="678" spans="1:10">
@@ -8758,68 +8761,68 @@
         <v>734</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>297</v>
+        <v>60</v>
       </c>
     </row>
     <row r="679" spans="1:10">
       <c r="A679" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="B679" s="4" t="s">
-        <v>565</v>
+      <c r="B679" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="680" spans="1:10">
       <c r="A680" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="C680" s="3" t="s">
-        <v>49</v>
+      <c r="B680" s="4" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="681" spans="1:10">
       <c r="A681" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="D681" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E681" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="F681" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G681" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="J681" s="3" t="s">
-        <v>739</v>
+      <c r="C681" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="682" spans="1:10">
       <c r="A682" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D682" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E682" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F682" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G682" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J682" s="3" t="s">
         <v>740</v>
-      </c>
-      <c r="D682" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E682" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F682" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="J682" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="683" spans="1:10">
       <c r="A683" s="2" t="s">
         <v>741</v>
       </c>
+      <c r="D683" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="E683" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="F683" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J683" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="684" spans="1:10">
@@ -8827,7 +8830,7 @@
         <v>742</v>
       </c>
       <c r="E684" s="3" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
     </row>
     <row r="685" spans="1:10">
@@ -8835,10 +8838,7 @@
         <v>743</v>
       </c>
       <c r="E685" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G685" s="3" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
     </row>
     <row r="686" spans="1:10">
@@ -8846,23 +8846,26 @@
         <v>744</v>
       </c>
       <c r="E686" s="3" t="s">
-        <v>138</v>
+        <v>39</v>
+      </c>
+      <c r="G686" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="687" spans="1:10">
       <c r="A687" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="E687" s="4" t="s">
-        <v>565</v>
+      <c r="E687" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="688" spans="1:10">
       <c r="A688" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="E688" s="3" t="s">
-        <v>37</v>
+      <c r="E688" s="4" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="689" spans="1:5">
@@ -8870,14 +8873,14 @@
         <v>747</v>
       </c>
       <c r="E689" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="690" spans="1:5">
       <c r="A690" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="B690" s="3" t="s">
+      <c r="E690" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8886,7 +8889,7 @@
         <v>749</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="692" spans="1:5">
@@ -8926,7 +8929,7 @@
         <v>754</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
     </row>
     <row r="697" spans="1:5">
@@ -8934,23 +8937,23 @@
         <v>755</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
     </row>
     <row r="698" spans="1:5">
       <c r="A698" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="C698" s="4" t="s">
-        <v>565</v>
+      <c r="B698" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="699" spans="1:5">
       <c r="A699" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="B699" s="3" t="s">
-        <v>37</v>
+      <c r="C699" s="4" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="700" spans="1:5">
@@ -8966,7 +8969,7 @@
         <v>759</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
     </row>
     <row r="702" spans="1:5">
@@ -8974,31 +8977,31 @@
         <v>760</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>761</v>
+        <v>174</v>
       </c>
     </row>
     <row r="703" spans="1:5">
       <c r="A703" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B703" s="3" t="s">
         <v>762</v>
-      </c>
-      <c r="C703" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="704" spans="1:5">
       <c r="A704" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="C704" s="4" t="s">
-        <v>565</v>
+      <c r="C704" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="B705" s="3" t="s">
-        <v>221</v>
+      <c r="C705" s="4" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -9006,18 +9009,18 @@
         <v>765</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="D706" s="3" t="s">
-        <v>37</v>
+        <v>222</v>
       </c>
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="C707" s="3" t="s">
-        <v>212</v>
+      <c r="B707" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D707" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -9025,7 +9028,7 @@
         <v>767</v>
       </c>
       <c r="C708" s="3" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -9033,7 +9036,7 @@
         <v>768</v>
       </c>
       <c r="C709" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -9041,15 +9044,15 @@
         <v>769</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>427</v>
+        <v>39</v>
       </c>
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="B711" s="3" t="s">
-        <v>83</v>
+      <c r="C711" s="3" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -9057,7 +9060,7 @@
         <v>771</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -9065,7 +9068,7 @@
         <v>772</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -9073,7 +9076,7 @@
         <v>773</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -9081,7 +9084,7 @@
         <v>774</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -9089,7 +9092,7 @@
         <v>775</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -9105,7 +9108,7 @@
         <v>777</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -9113,23 +9116,23 @@
         <v>778</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="C720" s="4" t="s">
-        <v>168</v>
+      <c r="B720" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="721" spans="1:3">
       <c r="A721" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="B721" s="3" t="s">
-        <v>39</v>
+      <c r="C721" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -9137,7 +9140,7 @@
         <v>781</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -9145,7 +9148,7 @@
         <v>782</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -9161,7 +9164,7 @@
         <v>784</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>536</v>
+        <v>37</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -9169,7 +9172,7 @@
         <v>785</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>37</v>
+        <v>537</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -9184,8 +9187,8 @@
       <c r="A728" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="C728" s="3" t="s">
-        <v>49</v>
+      <c r="B728" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -9193,31 +9196,31 @@
         <v>788</v>
       </c>
       <c r="C729" s="3" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="730" spans="1:3">
       <c r="A730" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="C730" s="4" t="s">
-        <v>160</v>
+      <c r="C730" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="731" spans="1:3">
       <c r="A731" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="B731" s="3" t="s">
-        <v>791</v>
+      <c r="C731" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="732" spans="1:3">
       <c r="A732" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B732" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="B732" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -9225,15 +9228,15 @@
         <v>793</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>794</v>
+        <v>37</v>
       </c>
     </row>
     <row r="734" spans="1:3">
       <c r="A734" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B734" s="3" t="s">
         <v>795</v>
-      </c>
-      <c r="B734" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -9241,15 +9244,15 @@
         <v>796</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>797</v>
+        <v>222</v>
       </c>
     </row>
     <row r="736" spans="1:3">
       <c r="A736" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B736" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="B736" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -9257,15 +9260,15 @@
         <v>799</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>800</v>
+        <v>39</v>
       </c>
     </row>
     <row r="738" spans="1:4">
       <c r="A738" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B738" s="3" t="s">
         <v>801</v>
-      </c>
-      <c r="C738" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -9273,39 +9276,39 @@
         <v>802</v>
       </c>
       <c r="C739" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="B740" s="3" t="s">
-        <v>83</v>
+      <c r="C740" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="741" spans="1:4">
       <c r="A741" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="C741" s="3" t="s">
-        <v>39</v>
+      <c r="B741" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="742" spans="1:4">
       <c r="A742" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="C742" s="4" t="s">
-        <v>565</v>
+      <c r="C742" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="743" spans="1:4">
       <c r="A743" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="B743" s="3" t="s">
-        <v>37</v>
+      <c r="C743" s="4" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -9313,15 +9316,15 @@
         <v>807</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="745" spans="1:4">
       <c r="A745" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="C745" s="3" t="s">
-        <v>37</v>
+      <c r="B745" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -9329,7 +9332,7 @@
         <v>809</v>
       </c>
       <c r="C746" s="3" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -9337,7 +9340,7 @@
         <v>810</v>
       </c>
       <c r="C747" s="3" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -9352,8 +9355,8 @@
       <c r="A749" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="D749" s="3" t="s">
-        <v>37</v>
+      <c r="C749" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -9361,7 +9364,7 @@
         <v>813</v>
       </c>
       <c r="D750" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -9369,7 +9372,7 @@
         <v>814</v>
       </c>
       <c r="D751" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -9377,7 +9380,7 @@
         <v>815</v>
       </c>
       <c r="D752" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -9396,8 +9399,16 @@
         <v>37</v>
       </c>
     </row>
+    <row r="755" spans="1:4">
+      <c r="A755" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D755" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P754"/>
+  <autoFilter ref="A1:P755"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -10162,6 +10173,7 @@
     <hyperlink ref="A752" r:id="rId761"/>
     <hyperlink ref="A753" r:id="rId762"/>
     <hyperlink ref="A754" r:id="rId763"/>
+    <hyperlink ref="A755" r:id="rId764"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/codeforces_results.xlsx
+++ b/groups/22-23/codeforces_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="819">
   <si>
     <t>№</t>
   </si>
@@ -3015,7 +3015,7 @@
         <v>164</v>
       </c>
       <c r="E4">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F4">
         <v>101</v>
@@ -3065,7 +3065,7 @@
         <v>77</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -3321,6 +3321,9 @@
       </c>
       <c r="D26" s="3" t="s">
         <v>60</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6">
